--- a/VT_REG_ALL.xlsx
+++ b/VT_REG_ALL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master Thesis Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847535F8-DB3F-4CD0-8AE4-30CCB1A73095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFC152D-DD7B-4BC6-8D52-679927E14C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="6" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pri_RNW" sheetId="142" r:id="rId1"/>
@@ -1560,6 +1560,7 @@
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
+    <author>Gary Goldstein</author>
   </authors>
   <commentList>
     <comment ref="I2" authorId="0" shapeId="0" xr:uid="{403B0544-F2C2-4D39-8AE1-D12D985CB108}">
@@ -1983,6 +1984,305 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> (Heating Plant)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R8" authorId="2" shapeId="0" xr:uid="{299CFAD9-D3CA-4282-893D-380FECC5E743}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Csets declarations are inherited until the next one is encountered.
+Allowed Cset:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NRG</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Energy)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ENV</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Emission)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DEM</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Demand)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MAT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Material)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>FIN</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Financial)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V8" authorId="1" shapeId="0" xr:uid="{C54BBA5F-F7CA-40AE-A8C1-1CC6537AB116}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LO for PRODUCTION &gt;= CONSUMPTION (Default)
+FX for PRODUCTION = CONSUMPTION
+UP for PRODUCTION &lt;= CONSUMPTION</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{E2C934B2-ED16-41CC-B0C7-A817B5FF6F39}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Allowed CTSLvl</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SEASON</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Seasonal level)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WEEKLY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Weekly level)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DAYNITE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (day and night level)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X8" authorId="0" shapeId="0" xr:uid="{56D16B28-7854-46F8-B28D-BCAB211F0679}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Allowed PeakTS</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ANNUAL </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(to generate Peak Equation for all the TimeSlices)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+User TS </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(to generate Peak Equation for a single TS)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y8" authorId="0" shapeId="0" xr:uid="{8A7324AD-F80C-4C08-90ED-18B68572AB6B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Allowed Ctype
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ELC</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Electricity)</t>
         </r>
       </text>
     </comment>
@@ -8732,7 +9032,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="631">
   <si>
     <t>CommName</t>
   </si>
@@ -10917,6 +11217,24 @@
   </si>
   <si>
     <t>mwh/ton</t>
+  </si>
+  <si>
+    <t>electricity to export</t>
+  </si>
+  <si>
+    <t>Hydrogen to export</t>
+  </si>
+  <si>
+    <t>Ammonia to export</t>
+  </si>
+  <si>
+    <t>Heavy fuel oil</t>
+  </si>
+  <si>
+    <t>Export of CO2</t>
+  </si>
+  <si>
+    <t>Export of KRE</t>
   </si>
 </sst>
 </file>
@@ -12949,9 +13267,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -12963,6 +13278,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -12978,6 +13296,52 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13011,52 +13375,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -13633,7 +13951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -13946,7 +14264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BA13D3-9445-4FC5-8860-FB1AA57E02A2}">
   <dimension ref="C3:AF26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -15252,8 +15570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EFECA6-D9ED-478E-8A25-A85F29B7EE32}">
   <dimension ref="D8:AK20"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="O2" zoomScale="78" workbookViewId="0">
+      <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15741,7 +16059,7 @@
         <v>224</v>
       </c>
       <c r="AJ20" s="93" t="s">
-        <v>522</v>
+        <v>160</v>
       </c>
       <c r="AK20" s="92" t="s">
         <v>244</v>
@@ -15755,10 +16073,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B37DD7-922B-4AE9-953C-BB93BD6E9F87}">
-  <dimension ref="B1:T35"/>
+  <dimension ref="B1:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H28"/>
+    <sheetView topLeftCell="C4" zoomScale="89" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15771,7 +16089,7 @@
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B1" s="5"/>
       <c r="E1" s="28" t="s">
         <v>15</v>
@@ -15782,7 +16100,7 @@
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="14"/>
       <c r="E2" s="30" t="s">
@@ -15807,7 +16125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="E3" s="32" t="s">
@@ -15832,7 +16150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
       <c r="C4" s="9"/>
       <c r="E4" s="32" t="s">
@@ -15845,7 +16163,7 @@
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E5" s="33" t="s">
         <v>43</v>
       </c>
@@ -15864,7 +16182,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="111"/>
       <c r="E6" s="33" t="s">
         <v>43</v>
@@ -15884,7 +16202,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="111"/>
       <c r="E7" s="33" t="s">
         <v>43</v>
@@ -15903,8 +16221,18 @@
       </c>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="R7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="110"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E8" s="33" t="s">
         <v>43</v>
       </c>
@@ -15920,8 +16248,32 @@
       <c r="I8" s="33" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="R8" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="33" t="s">
         <v>43</v>
       </c>
@@ -15937,8 +16289,32 @@
       <c r="I9" s="33" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="R9" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E10" s="33" t="s">
         <v>249</v>
       </c>
@@ -15952,8 +16328,24 @@
         <v>514</v>
       </c>
       <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="R10" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" t="s">
+        <v>594</v>
+      </c>
+      <c r="T10" t="s">
+        <v>625</v>
+      </c>
+      <c r="U10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E11" s="33" t="s">
         <v>249</v>
       </c>
@@ -15967,12 +16359,116 @@
         <v>45</v>
       </c>
       <c r="I11" s="33"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="R11" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" t="s">
+        <v>595</v>
+      </c>
+      <c r="T11" t="s">
+        <v>626</v>
+      </c>
+      <c r="U11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="R12" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" t="s">
+        <v>596</v>
+      </c>
+      <c r="T12" t="s">
+        <v>627</v>
+      </c>
+      <c r="U12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" s="110"/>
+      <c r="W12" s="110" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="R13" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13" t="s">
+        <v>610</v>
+      </c>
+      <c r="T13" t="s">
+        <v>603</v>
+      </c>
+      <c r="U13" t="s">
+        <v>514</v>
+      </c>
+      <c r="V13" s="110"/>
+      <c r="W13" s="110" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="R14" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" t="s">
+        <v>611</v>
+      </c>
+      <c r="T14" t="s">
+        <v>628</v>
+      </c>
+      <c r="U14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="R15" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" t="s">
+        <v>608</v>
+      </c>
+      <c r="T15" t="s">
+        <v>629</v>
+      </c>
+      <c r="U15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" s="110"/>
+      <c r="W15" s="110" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="H16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="5"/>
+      <c r="R16" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16" t="s">
+        <v>609</v>
+      </c>
+      <c r="T16" t="s">
+        <v>630</v>
+      </c>
+      <c r="U16" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="17" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F17" s="3" t="s">
@@ -16655,18 +17151,18 @@
       <c r="B3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="335" t="s">
+      <c r="C3" s="334" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
     </row>
     <row r="4" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
@@ -16683,14 +17179,14 @@
       <c r="F4" s="40">
         <v>2050</v>
       </c>
-      <c r="G4" s="337" t="s">
+      <c r="G4" s="336" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="337"/>
-      <c r="I4" s="337" t="s">
+      <c r="H4" s="336"/>
+      <c r="I4" s="336" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="337"/>
+      <c r="J4" s="336"/>
       <c r="K4" s="40" t="s">
         <v>75</v>
       </c>
@@ -17765,28 +18261,28 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="70"/>
       <c r="C44" s="332"/>
-      <c r="D44" s="334"/>
-      <c r="E44" s="334"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
+      <c r="D44" s="333"/>
+      <c r="E44" s="333"/>
+      <c r="F44" s="333"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="333"/>
+      <c r="I44" s="333"/>
+      <c r="J44" s="333"/>
+      <c r="K44" s="333"/>
       <c r="L44" s="332"/>
       <c r="M44" s="332"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="71"/>
       <c r="B45" s="332"/>
-      <c r="C45" s="334"/>
-      <c r="D45" s="334"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="334"/>
-      <c r="I45" s="334"/>
-      <c r="J45" s="334"/>
+      <c r="C45" s="333"/>
+      <c r="D45" s="333"/>
+      <c r="E45" s="333"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="333"/>
       <c r="K45" s="70"/>
       <c r="L45" s="332"/>
       <c r="M45" s="332"/>
@@ -17794,28 +18290,28 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="70"/>
       <c r="C46" s="332"/>
-      <c r="D46" s="334"/>
-      <c r="E46" s="334"/>
-      <c r="F46" s="334"/>
-      <c r="G46" s="334"/>
-      <c r="H46" s="334"/>
-      <c r="I46" s="334"/>
-      <c r="J46" s="334"/>
-      <c r="K46" s="334"/>
+      <c r="D46" s="333"/>
+      <c r="E46" s="333"/>
+      <c r="F46" s="333"/>
+      <c r="G46" s="333"/>
+      <c r="H46" s="333"/>
+      <c r="I46" s="333"/>
+      <c r="J46" s="333"/>
+      <c r="K46" s="333"/>
       <c r="L46" s="332"/>
       <c r="M46" s="332"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
       <c r="B47" s="332"/>
-      <c r="C47" s="334"/>
-      <c r="D47" s="334"/>
-      <c r="E47" s="334"/>
-      <c r="F47" s="334"/>
-      <c r="G47" s="334"/>
-      <c r="H47" s="334"/>
-      <c r="I47" s="334"/>
-      <c r="J47" s="334"/>
+      <c r="C47" s="333"/>
+      <c r="D47" s="333"/>
+      <c r="E47" s="333"/>
+      <c r="F47" s="333"/>
+      <c r="G47" s="333"/>
+      <c r="H47" s="333"/>
+      <c r="I47" s="333"/>
+      <c r="J47" s="333"/>
       <c r="K47" s="70"/>
       <c r="L47" s="332"/>
       <c r="M47" s="332"/>
@@ -17841,10 +18337,10 @@
       <c r="M49" s="332"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="333" t="s">
+      <c r="A50" s="337" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="333"/>
+      <c r="B50" s="337"/>
       <c r="C50" s="66"/>
       <c r="D50" s="66"/>
       <c r="E50" s="66"/>
@@ -18230,13 +18726,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="L43:M43"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="A50:B50"/>
@@ -18247,6 +18736,13 @@
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="B47:J47"/>
     <mergeCell ref="L47:M47"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="L43:M43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{A053F0A3-2E5C-42AE-BE4C-81251A11866E}"/>
@@ -18276,18 +18772,18 @@
       <c r="D3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="335" t="s">
+      <c r="E3" s="334" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="37"/>
@@ -18304,14 +18800,14 @@
       <c r="H4" s="40">
         <v>2050</v>
       </c>
-      <c r="I4" s="337" t="s">
+      <c r="I4" s="336" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="337"/>
-      <c r="K4" s="337" t="s">
+      <c r="J4" s="336"/>
+      <c r="K4" s="336" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="337"/>
+      <c r="L4" s="336"/>
       <c r="M4" s="40" t="s">
         <v>75</v>
       </c>
@@ -19377,28 +19873,28 @@
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="70"/>
       <c r="E44" s="332"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
-      <c r="L44" s="334"/>
-      <c r="M44" s="334"/>
+      <c r="F44" s="333"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="333"/>
+      <c r="I44" s="333"/>
+      <c r="J44" s="333"/>
+      <c r="K44" s="333"/>
+      <c r="L44" s="333"/>
+      <c r="M44" s="333"/>
       <c r="N44" s="332"/>
       <c r="O44" s="332"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="71"/>
       <c r="D45" s="332"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="334"/>
-      <c r="I45" s="334"/>
-      <c r="J45" s="334"/>
-      <c r="K45" s="334"/>
-      <c r="L45" s="334"/>
+      <c r="E45" s="333"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="333"/>
+      <c r="K45" s="333"/>
+      <c r="L45" s="333"/>
       <c r="M45" s="70"/>
       <c r="N45" s="332"/>
       <c r="O45" s="332"/>
@@ -19406,28 +19902,28 @@
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="70"/>
       <c r="E46" s="332"/>
-      <c r="F46" s="334"/>
-      <c r="G46" s="334"/>
-      <c r="H46" s="334"/>
-      <c r="I46" s="334"/>
-      <c r="J46" s="334"/>
-      <c r="K46" s="334"/>
-      <c r="L46" s="334"/>
-      <c r="M46" s="334"/>
+      <c r="F46" s="333"/>
+      <c r="G46" s="333"/>
+      <c r="H46" s="333"/>
+      <c r="I46" s="333"/>
+      <c r="J46" s="333"/>
+      <c r="K46" s="333"/>
+      <c r="L46" s="333"/>
+      <c r="M46" s="333"/>
       <c r="N46" s="332"/>
       <c r="O46" s="332"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="70"/>
       <c r="D47" s="332"/>
-      <c r="E47" s="334"/>
-      <c r="F47" s="334"/>
-      <c r="G47" s="334"/>
-      <c r="H47" s="334"/>
-      <c r="I47" s="334"/>
-      <c r="J47" s="334"/>
-      <c r="K47" s="334"/>
-      <c r="L47" s="334"/>
+      <c r="E47" s="333"/>
+      <c r="F47" s="333"/>
+      <c r="G47" s="333"/>
+      <c r="H47" s="333"/>
+      <c r="I47" s="333"/>
+      <c r="J47" s="333"/>
+      <c r="K47" s="333"/>
+      <c r="L47" s="333"/>
       <c r="M47" s="70"/>
       <c r="N47" s="332"/>
       <c r="O47" s="332"/>
@@ -19453,10 +19949,10 @@
       <c r="O49" s="332"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="333" t="s">
+      <c r="C50" s="337" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="333"/>
+      <c r="D50" s="337"/>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
       <c r="G50" s="66"/>
@@ -19833,13 +20329,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="N43:O43"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="C50:D50"/>
@@ -19850,6 +20339,13 @@
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="D47:L47"/>
     <mergeCell ref="N47:O47"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{C8B51AD8-9E69-4FE2-8353-34D9D64EFBEE}"/>
@@ -19879,18 +20375,18 @@
       <c r="C2" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="335" t="s">
+      <c r="D2" s="334" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
-      <c r="K2" s="336"/>
-      <c r="L2" s="336"/>
-      <c r="M2" s="336"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
@@ -19907,14 +20403,14 @@
       <c r="G3" s="40">
         <v>2050</v>
       </c>
-      <c r="H3" s="337" t="s">
+      <c r="H3" s="336" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337" t="s">
+      <c r="I3" s="336"/>
+      <c r="J3" s="336" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="337"/>
+      <c r="K3" s="336"/>
       <c r="L3" s="40" t="s">
         <v>75</v>
       </c>
@@ -20958,28 +21454,28 @@
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="70"/>
       <c r="D42" s="332"/>
-      <c r="E42" s="334"/>
-      <c r="F42" s="334"/>
-      <c r="G42" s="334"/>
-      <c r="H42" s="334"/>
-      <c r="I42" s="334"/>
-      <c r="J42" s="334"/>
-      <c r="K42" s="334"/>
-      <c r="L42" s="334"/>
+      <c r="E42" s="333"/>
+      <c r="F42" s="333"/>
+      <c r="G42" s="333"/>
+      <c r="H42" s="333"/>
+      <c r="I42" s="333"/>
+      <c r="J42" s="333"/>
+      <c r="K42" s="333"/>
+      <c r="L42" s="333"/>
       <c r="M42" s="332"/>
       <c r="N42" s="332"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="71"/>
       <c r="C43" s="332"/>
-      <c r="D43" s="334"/>
-      <c r="E43" s="334"/>
-      <c r="F43" s="334"/>
-      <c r="G43" s="334"/>
-      <c r="H43" s="334"/>
-      <c r="I43" s="334"/>
-      <c r="J43" s="334"/>
-      <c r="K43" s="334"/>
+      <c r="D43" s="333"/>
+      <c r="E43" s="333"/>
+      <c r="F43" s="333"/>
+      <c r="G43" s="333"/>
+      <c r="H43" s="333"/>
+      <c r="I43" s="333"/>
+      <c r="J43" s="333"/>
+      <c r="K43" s="333"/>
       <c r="L43" s="70"/>
       <c r="M43" s="332"/>
       <c r="N43" s="332"/>
@@ -20987,28 +21483,28 @@
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="70"/>
       <c r="D44" s="332"/>
-      <c r="E44" s="334"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
-      <c r="L44" s="334"/>
+      <c r="E44" s="333"/>
+      <c r="F44" s="333"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="333"/>
+      <c r="I44" s="333"/>
+      <c r="J44" s="333"/>
+      <c r="K44" s="333"/>
+      <c r="L44" s="333"/>
       <c r="M44" s="332"/>
       <c r="N44" s="332"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="70"/>
       <c r="C45" s="332"/>
-      <c r="D45" s="334"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="334"/>
-      <c r="I45" s="334"/>
-      <c r="J45" s="334"/>
-      <c r="K45" s="334"/>
+      <c r="D45" s="333"/>
+      <c r="E45" s="333"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="333"/>
+      <c r="K45" s="333"/>
       <c r="L45" s="70"/>
       <c r="M45" s="332"/>
       <c r="N45" s="332"/>
@@ -21034,10 +21530,10 @@
       <c r="N47" s="332"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="333" t="s">
+      <c r="B48" s="337" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="333"/>
+      <c r="C48" s="337"/>
       <c r="D48" s="66"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
@@ -21293,13 +21789,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="M41:N41"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="M47:N47"/>
     <mergeCell ref="B48:C48"/>
@@ -21310,6 +21799,13 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="C45:K45"/>
     <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{52362334-5560-4A9E-8A6F-761439C705AF}"/>
@@ -27857,7 +28353,7 @@
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView zoomScale="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -27868,88 +28364,88 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103"/>
-      <c r="N1" s="343" t="s">
+      <c r="N1" s="359" t="s">
         <v>527</v>
       </c>
-      <c r="O1" s="345" t="s">
+      <c r="O1" s="361" t="s">
         <v>528</v>
       </c>
-      <c r="P1" s="345"/>
-      <c r="Q1" s="345"/>
-      <c r="R1" s="345"/>
-      <c r="S1" s="345"/>
-      <c r="T1" s="345"/>
-      <c r="U1" s="345"/>
-      <c r="V1" s="345"/>
-      <c r="W1" s="345"/>
-      <c r="X1" s="345"/>
-      <c r="Y1" s="345"/>
-      <c r="Z1" s="346"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="361"/>
+      <c r="S1" s="361"/>
+      <c r="T1" s="361"/>
+      <c r="U1" s="361"/>
+      <c r="V1" s="361"/>
+      <c r="W1" s="361"/>
+      <c r="X1" s="361"/>
+      <c r="Y1" s="361"/>
+      <c r="Z1" s="362"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="249" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="347" t="s">
+      <c r="B2" s="363" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="348"/>
-      <c r="K2" s="349"/>
-      <c r="N2" s="344"/>
-      <c r="O2" s="350" t="s">
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="364"/>
+      <c r="K2" s="365"/>
+      <c r="N2" s="360"/>
+      <c r="O2" s="366" t="s">
         <v>530</v>
       </c>
-      <c r="P2" s="351"/>
-      <c r="Q2" s="351"/>
-      <c r="R2" s="352"/>
-      <c r="S2" s="351" t="s">
+      <c r="P2" s="367"/>
+      <c r="Q2" s="367"/>
+      <c r="R2" s="368"/>
+      <c r="S2" s="367" t="s">
         <v>531</v>
       </c>
-      <c r="T2" s="351"/>
-      <c r="U2" s="351"/>
-      <c r="V2" s="351"/>
-      <c r="W2" s="350" t="s">
+      <c r="T2" s="367"/>
+      <c r="U2" s="367"/>
+      <c r="V2" s="367"/>
+      <c r="W2" s="366" t="s">
         <v>532</v>
       </c>
-      <c r="X2" s="351"/>
-      <c r="Y2" s="351"/>
-      <c r="Z2" s="353"/>
+      <c r="X2" s="367"/>
+      <c r="Y2" s="367"/>
+      <c r="Z2" s="369"/>
     </row>
     <row r="3" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="357" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="356">
+      <c r="B3" s="345">
         <v>2020</v>
       </c>
-      <c r="C3" s="356">
+      <c r="C3" s="345">
         <v>2030</v>
       </c>
-      <c r="D3" s="356">
+      <c r="D3" s="345">
         <v>2040</v>
       </c>
-      <c r="E3" s="356">
+      <c r="E3" s="345">
         <v>2050</v>
       </c>
-      <c r="F3" s="369">
+      <c r="F3" s="356">
         <v>2030</v>
       </c>
-      <c r="G3" s="359"/>
-      <c r="H3" s="358">
+      <c r="G3" s="344"/>
+      <c r="H3" s="343">
         <v>2050</v>
       </c>
-      <c r="I3" s="359"/>
-      <c r="J3" s="356" t="s">
+      <c r="I3" s="344"/>
+      <c r="J3" s="345" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="356" t="s">
+      <c r="K3" s="345" t="s">
         <v>76</v>
       </c>
       <c r="N3" s="250" t="s">
@@ -27993,11 +28489,11 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="355"/>
-      <c r="B4" s="357"/>
-      <c r="C4" s="357"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
+      <c r="A4" s="358"/>
+      <c r="B4" s="346"/>
+      <c r="C4" s="346"/>
+      <c r="D4" s="346"/>
+      <c r="E4" s="346"/>
       <c r="F4" s="253" t="s">
         <v>78</v>
       </c>
@@ -28010,8 +28506,8 @@
       <c r="I4" s="253" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="357"/>
-      <c r="K4" s="357"/>
+      <c r="J4" s="346"/>
+      <c r="K4" s="346"/>
       <c r="N4" s="254" t="s">
         <v>538</v>
       </c>
@@ -28698,12 +29194,12 @@
       <c r="A18" s="262" t="s">
         <v>557</v>
       </c>
-      <c r="B18" s="360" t="s">
+      <c r="B18" s="347" t="s">
         <v>558</v>
       </c>
-      <c r="C18" s="361"/>
-      <c r="D18" s="361"/>
-      <c r="E18" s="362"/>
+      <c r="C18" s="348"/>
+      <c r="D18" s="348"/>
+      <c r="E18" s="349"/>
       <c r="F18" s="286"/>
       <c r="G18" s="286"/>
       <c r="H18" s="286"/>
@@ -28715,10 +29211,10 @@
       <c r="A19" s="262" t="s">
         <v>559</v>
       </c>
-      <c r="B19" s="363"/>
-      <c r="C19" s="364"/>
-      <c r="D19" s="364"/>
-      <c r="E19" s="365"/>
+      <c r="B19" s="350"/>
+      <c r="C19" s="351"/>
+      <c r="D19" s="351"/>
+      <c r="E19" s="352"/>
       <c r="F19" s="286"/>
       <c r="G19" s="286"/>
       <c r="H19" s="286"/>
@@ -28730,10 +29226,10 @@
       <c r="A20" s="262" t="s">
         <v>560</v>
       </c>
-      <c r="B20" s="363"/>
-      <c r="C20" s="364"/>
-      <c r="D20" s="364"/>
-      <c r="E20" s="365"/>
+      <c r="B20" s="350"/>
+      <c r="C20" s="351"/>
+      <c r="D20" s="351"/>
+      <c r="E20" s="352"/>
       <c r="F20" s="286"/>
       <c r="G20" s="286"/>
       <c r="H20" s="286"/>
@@ -28745,10 +29241,10 @@
       <c r="A21" s="262" t="s">
         <v>561</v>
       </c>
-      <c r="B21" s="363"/>
-      <c r="C21" s="364"/>
-      <c r="D21" s="364"/>
-      <c r="E21" s="365"/>
+      <c r="B21" s="350"/>
+      <c r="C21" s="351"/>
+      <c r="D21" s="351"/>
+      <c r="E21" s="352"/>
       <c r="F21" s="286"/>
       <c r="G21" s="286"/>
       <c r="H21" s="286"/>
@@ -28760,10 +29256,10 @@
       <c r="A22" s="287" t="s">
         <v>562</v>
       </c>
-      <c r="B22" s="363"/>
-      <c r="C22" s="364"/>
-      <c r="D22" s="364"/>
-      <c r="E22" s="365"/>
+      <c r="B22" s="350"/>
+      <c r="C22" s="351"/>
+      <c r="D22" s="351"/>
+      <c r="E22" s="352"/>
       <c r="F22" s="259"/>
       <c r="G22" s="259"/>
       <c r="H22" s="259"/>
@@ -29108,12 +29604,12 @@
       <c r="A38" s="262" t="s">
         <v>578</v>
       </c>
-      <c r="B38" s="366" t="s">
+      <c r="B38" s="353" t="s">
         <v>558</v>
       </c>
-      <c r="C38" s="367"/>
-      <c r="D38" s="367"/>
-      <c r="E38" s="368"/>
+      <c r="C38" s="354"/>
+      <c r="D38" s="354"/>
+      <c r="E38" s="355"/>
       <c r="F38" s="286"/>
       <c r="G38" s="286"/>
       <c r="H38" s="286"/>
@@ -29400,23 +29896,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="B18:E22"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="INDEX" display="Electric boiler, 10 kV, steam" xr:uid="{50D20602-7AD5-4D34-B672-36376F983B66}"/>
@@ -35508,7 +36004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA69A0A5-97B0-4B60-A940-361621C66501}">
   <dimension ref="D5:AG20"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView topLeftCell="E3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_ALL.xlsx
+++ b/VT_REG_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFC152D-DD7B-4BC6-8D52-679927E14C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40250CC-8F2D-46DC-81AA-31A2355EB0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="6" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pri_RNW" sheetId="142" r:id="rId1"/>
@@ -13267,6 +13267,9 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13278,9 +13281,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -13296,52 +13296,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13375,6 +13329,52 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -16076,7 +16076,7 @@
   <dimension ref="B1:Y35"/>
   <sheetViews>
     <sheetView topLeftCell="C4" zoomScale="89" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="F20" sqref="F20:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16734,8 +16734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E593ED6-EFFA-4D59-BE30-3F65BBC3CC0A}">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17115,10 +17115,10 @@
         <v>267</v>
       </c>
       <c r="D19">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="E19">
-        <v>1000</v>
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>
@@ -17151,18 +17151,18 @@
       <c r="B3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="334" t="s">
+      <c r="C3" s="335" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
-      <c r="K3" s="335"/>
-      <c r="L3" s="335"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
     </row>
     <row r="4" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
@@ -17179,14 +17179,14 @@
       <c r="F4" s="40">
         <v>2050</v>
       </c>
-      <c r="G4" s="336" t="s">
+      <c r="G4" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="336"/>
-      <c r="I4" s="336" t="s">
+      <c r="H4" s="337"/>
+      <c r="I4" s="337" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="336"/>
+      <c r="J4" s="337"/>
       <c r="K4" s="40" t="s">
         <v>75</v>
       </c>
@@ -18261,28 +18261,28 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="70"/>
       <c r="C44" s="332"/>
-      <c r="D44" s="333"/>
-      <c r="E44" s="333"/>
-      <c r="F44" s="333"/>
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
-      <c r="I44" s="333"/>
-      <c r="J44" s="333"/>
-      <c r="K44" s="333"/>
+      <c r="D44" s="334"/>
+      <c r="E44" s="334"/>
+      <c r="F44" s="334"/>
+      <c r="G44" s="334"/>
+      <c r="H44" s="334"/>
+      <c r="I44" s="334"/>
+      <c r="J44" s="334"/>
+      <c r="K44" s="334"/>
       <c r="L44" s="332"/>
       <c r="M44" s="332"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="71"/>
       <c r="B45" s="332"/>
-      <c r="C45" s="333"/>
-      <c r="D45" s="333"/>
-      <c r="E45" s="333"/>
-      <c r="F45" s="333"/>
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="333"/>
-      <c r="J45" s="333"/>
+      <c r="C45" s="334"/>
+      <c r="D45" s="334"/>
+      <c r="E45" s="334"/>
+      <c r="F45" s="334"/>
+      <c r="G45" s="334"/>
+      <c r="H45" s="334"/>
+      <c r="I45" s="334"/>
+      <c r="J45" s="334"/>
       <c r="K45" s="70"/>
       <c r="L45" s="332"/>
       <c r="M45" s="332"/>
@@ -18290,28 +18290,28 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="70"/>
       <c r="C46" s="332"/>
-      <c r="D46" s="333"/>
-      <c r="E46" s="333"/>
-      <c r="F46" s="333"/>
-      <c r="G46" s="333"/>
-      <c r="H46" s="333"/>
-      <c r="I46" s="333"/>
-      <c r="J46" s="333"/>
-      <c r="K46" s="333"/>
+      <c r="D46" s="334"/>
+      <c r="E46" s="334"/>
+      <c r="F46" s="334"/>
+      <c r="G46" s="334"/>
+      <c r="H46" s="334"/>
+      <c r="I46" s="334"/>
+      <c r="J46" s="334"/>
+      <c r="K46" s="334"/>
       <c r="L46" s="332"/>
       <c r="M46" s="332"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
       <c r="B47" s="332"/>
-      <c r="C47" s="333"/>
-      <c r="D47" s="333"/>
-      <c r="E47" s="333"/>
-      <c r="F47" s="333"/>
-      <c r="G47" s="333"/>
-      <c r="H47" s="333"/>
-      <c r="I47" s="333"/>
-      <c r="J47" s="333"/>
+      <c r="C47" s="334"/>
+      <c r="D47" s="334"/>
+      <c r="E47" s="334"/>
+      <c r="F47" s="334"/>
+      <c r="G47" s="334"/>
+      <c r="H47" s="334"/>
+      <c r="I47" s="334"/>
+      <c r="J47" s="334"/>
       <c r="K47" s="70"/>
       <c r="L47" s="332"/>
       <c r="M47" s="332"/>
@@ -18337,10 +18337,10 @@
       <c r="M49" s="332"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="337" t="s">
+      <c r="A50" s="333" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="337"/>
+      <c r="B50" s="333"/>
       <c r="C50" s="66"/>
       <c r="D50" s="66"/>
       <c r="E50" s="66"/>
@@ -18726,6 +18726,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="L43:M43"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="A50:B50"/>
@@ -18736,13 +18743,6 @@
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="B47:J47"/>
     <mergeCell ref="L47:M47"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="L43:M43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{A053F0A3-2E5C-42AE-BE4C-81251A11866E}"/>
@@ -18772,18 +18772,18 @@
       <c r="D3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="334" t="s">
+      <c r="E3" s="335" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
-      <c r="K3" s="335"/>
-      <c r="L3" s="335"/>
-      <c r="M3" s="335"/>
-      <c r="N3" s="335"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="37"/>
@@ -18800,14 +18800,14 @@
       <c r="H4" s="40">
         <v>2050</v>
       </c>
-      <c r="I4" s="336" t="s">
+      <c r="I4" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="336"/>
-      <c r="K4" s="336" t="s">
+      <c r="J4" s="337"/>
+      <c r="K4" s="337" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="336"/>
+      <c r="L4" s="337"/>
       <c r="M4" s="40" t="s">
         <v>75</v>
       </c>
@@ -19873,28 +19873,28 @@
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="70"/>
       <c r="E44" s="332"/>
-      <c r="F44" s="333"/>
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
-      <c r="I44" s="333"/>
-      <c r="J44" s="333"/>
-      <c r="K44" s="333"/>
-      <c r="L44" s="333"/>
-      <c r="M44" s="333"/>
+      <c r="F44" s="334"/>
+      <c r="G44" s="334"/>
+      <c r="H44" s="334"/>
+      <c r="I44" s="334"/>
+      <c r="J44" s="334"/>
+      <c r="K44" s="334"/>
+      <c r="L44" s="334"/>
+      <c r="M44" s="334"/>
       <c r="N44" s="332"/>
       <c r="O44" s="332"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="71"/>
       <c r="D45" s="332"/>
-      <c r="E45" s="333"/>
-      <c r="F45" s="333"/>
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="333"/>
-      <c r="J45" s="333"/>
-      <c r="K45" s="333"/>
-      <c r="L45" s="333"/>
+      <c r="E45" s="334"/>
+      <c r="F45" s="334"/>
+      <c r="G45" s="334"/>
+      <c r="H45" s="334"/>
+      <c r="I45" s="334"/>
+      <c r="J45" s="334"/>
+      <c r="K45" s="334"/>
+      <c r="L45" s="334"/>
       <c r="M45" s="70"/>
       <c r="N45" s="332"/>
       <c r="O45" s="332"/>
@@ -19902,28 +19902,28 @@
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="70"/>
       <c r="E46" s="332"/>
-      <c r="F46" s="333"/>
-      <c r="G46" s="333"/>
-      <c r="H46" s="333"/>
-      <c r="I46" s="333"/>
-      <c r="J46" s="333"/>
-      <c r="K46" s="333"/>
-      <c r="L46" s="333"/>
-      <c r="M46" s="333"/>
+      <c r="F46" s="334"/>
+      <c r="G46" s="334"/>
+      <c r="H46" s="334"/>
+      <c r="I46" s="334"/>
+      <c r="J46" s="334"/>
+      <c r="K46" s="334"/>
+      <c r="L46" s="334"/>
+      <c r="M46" s="334"/>
       <c r="N46" s="332"/>
       <c r="O46" s="332"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="70"/>
       <c r="D47" s="332"/>
-      <c r="E47" s="333"/>
-      <c r="F47" s="333"/>
-      <c r="G47" s="333"/>
-      <c r="H47" s="333"/>
-      <c r="I47" s="333"/>
-      <c r="J47" s="333"/>
-      <c r="K47" s="333"/>
-      <c r="L47" s="333"/>
+      <c r="E47" s="334"/>
+      <c r="F47" s="334"/>
+      <c r="G47" s="334"/>
+      <c r="H47" s="334"/>
+      <c r="I47" s="334"/>
+      <c r="J47" s="334"/>
+      <c r="K47" s="334"/>
+      <c r="L47" s="334"/>
       <c r="M47" s="70"/>
       <c r="N47" s="332"/>
       <c r="O47" s="332"/>
@@ -19949,10 +19949,10 @@
       <c r="O49" s="332"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="337" t="s">
+      <c r="C50" s="333" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="337"/>
+      <c r="D50" s="333"/>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
       <c r="G50" s="66"/>
@@ -20329,6 +20329,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="N43:O43"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="C50:D50"/>
@@ -20339,13 +20346,6 @@
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="D47:L47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{C8B51AD8-9E69-4FE2-8353-34D9D64EFBEE}"/>
@@ -20375,18 +20375,18 @@
       <c r="C2" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="334" t="s">
+      <c r="D2" s="335" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
+      <c r="L2" s="336"/>
+      <c r="M2" s="336"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
@@ -20403,14 +20403,14 @@
       <c r="G3" s="40">
         <v>2050</v>
       </c>
-      <c r="H3" s="336" t="s">
+      <c r="H3" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336" t="s">
+      <c r="I3" s="337"/>
+      <c r="J3" s="337" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="336"/>
+      <c r="K3" s="337"/>
       <c r="L3" s="40" t="s">
         <v>75</v>
       </c>
@@ -21454,28 +21454,28 @@
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="70"/>
       <c r="D42" s="332"/>
-      <c r="E42" s="333"/>
-      <c r="F42" s="333"/>
-      <c r="G42" s="333"/>
-      <c r="H42" s="333"/>
-      <c r="I42" s="333"/>
-      <c r="J42" s="333"/>
-      <c r="K42" s="333"/>
-      <c r="L42" s="333"/>
+      <c r="E42" s="334"/>
+      <c r="F42" s="334"/>
+      <c r="G42" s="334"/>
+      <c r="H42" s="334"/>
+      <c r="I42" s="334"/>
+      <c r="J42" s="334"/>
+      <c r="K42" s="334"/>
+      <c r="L42" s="334"/>
       <c r="M42" s="332"/>
       <c r="N42" s="332"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="71"/>
       <c r="C43" s="332"/>
-      <c r="D43" s="333"/>
-      <c r="E43" s="333"/>
-      <c r="F43" s="333"/>
-      <c r="G43" s="333"/>
-      <c r="H43" s="333"/>
-      <c r="I43" s="333"/>
-      <c r="J43" s="333"/>
-      <c r="K43" s="333"/>
+      <c r="D43" s="334"/>
+      <c r="E43" s="334"/>
+      <c r="F43" s="334"/>
+      <c r="G43" s="334"/>
+      <c r="H43" s="334"/>
+      <c r="I43" s="334"/>
+      <c r="J43" s="334"/>
+      <c r="K43" s="334"/>
       <c r="L43" s="70"/>
       <c r="M43" s="332"/>
       <c r="N43" s="332"/>
@@ -21483,28 +21483,28 @@
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="70"/>
       <c r="D44" s="332"/>
-      <c r="E44" s="333"/>
-      <c r="F44" s="333"/>
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
-      <c r="I44" s="333"/>
-      <c r="J44" s="333"/>
-      <c r="K44" s="333"/>
-      <c r="L44" s="333"/>
+      <c r="E44" s="334"/>
+      <c r="F44" s="334"/>
+      <c r="G44" s="334"/>
+      <c r="H44" s="334"/>
+      <c r="I44" s="334"/>
+      <c r="J44" s="334"/>
+      <c r="K44" s="334"/>
+      <c r="L44" s="334"/>
       <c r="M44" s="332"/>
       <c r="N44" s="332"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="70"/>
       <c r="C45" s="332"/>
-      <c r="D45" s="333"/>
-      <c r="E45" s="333"/>
-      <c r="F45" s="333"/>
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="333"/>
-      <c r="J45" s="333"/>
-      <c r="K45" s="333"/>
+      <c r="D45" s="334"/>
+      <c r="E45" s="334"/>
+      <c r="F45" s="334"/>
+      <c r="G45" s="334"/>
+      <c r="H45" s="334"/>
+      <c r="I45" s="334"/>
+      <c r="J45" s="334"/>
+      <c r="K45" s="334"/>
       <c r="L45" s="70"/>
       <c r="M45" s="332"/>
       <c r="N45" s="332"/>
@@ -21530,10 +21530,10 @@
       <c r="N47" s="332"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="337" t="s">
+      <c r="B48" s="333" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="337"/>
+      <c r="C48" s="333"/>
       <c r="D48" s="66"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
@@ -21789,6 +21789,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="M41:N41"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="M47:N47"/>
     <mergeCell ref="B48:C48"/>
@@ -21799,13 +21806,6 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="C45:K45"/>
     <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{52362334-5560-4A9E-8A6F-761439C705AF}"/>
@@ -28353,7 +28353,7 @@
   </sheetPr>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+    <sheetView zoomScale="55" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -28364,88 +28364,88 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103"/>
-      <c r="N1" s="359" t="s">
+      <c r="N1" s="343" t="s">
         <v>527</v>
       </c>
-      <c r="O1" s="361" t="s">
+      <c r="O1" s="345" t="s">
         <v>528</v>
       </c>
-      <c r="P1" s="361"/>
-      <c r="Q1" s="361"/>
-      <c r="R1" s="361"/>
-      <c r="S1" s="361"/>
-      <c r="T1" s="361"/>
-      <c r="U1" s="361"/>
-      <c r="V1" s="361"/>
-      <c r="W1" s="361"/>
-      <c r="X1" s="361"/>
-      <c r="Y1" s="361"/>
-      <c r="Z1" s="362"/>
+      <c r="P1" s="345"/>
+      <c r="Q1" s="345"/>
+      <c r="R1" s="345"/>
+      <c r="S1" s="345"/>
+      <c r="T1" s="345"/>
+      <c r="U1" s="345"/>
+      <c r="V1" s="345"/>
+      <c r="W1" s="345"/>
+      <c r="X1" s="345"/>
+      <c r="Y1" s="345"/>
+      <c r="Z1" s="346"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="249" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="363" t="s">
+      <c r="B2" s="347" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
-      <c r="I2" s="364"/>
-      <c r="J2" s="364"/>
-      <c r="K2" s="365"/>
-      <c r="N2" s="360"/>
-      <c r="O2" s="366" t="s">
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="348"/>
+      <c r="I2" s="348"/>
+      <c r="J2" s="348"/>
+      <c r="K2" s="349"/>
+      <c r="N2" s="344"/>
+      <c r="O2" s="350" t="s">
         <v>530</v>
       </c>
-      <c r="P2" s="367"/>
-      <c r="Q2" s="367"/>
-      <c r="R2" s="368"/>
-      <c r="S2" s="367" t="s">
+      <c r="P2" s="351"/>
+      <c r="Q2" s="351"/>
+      <c r="R2" s="352"/>
+      <c r="S2" s="351" t="s">
         <v>531</v>
       </c>
-      <c r="T2" s="367"/>
-      <c r="U2" s="367"/>
-      <c r="V2" s="367"/>
-      <c r="W2" s="366" t="s">
+      <c r="T2" s="351"/>
+      <c r="U2" s="351"/>
+      <c r="V2" s="351"/>
+      <c r="W2" s="350" t="s">
         <v>532</v>
       </c>
-      <c r="X2" s="367"/>
-      <c r="Y2" s="367"/>
-      <c r="Z2" s="369"/>
+      <c r="X2" s="351"/>
+      <c r="Y2" s="351"/>
+      <c r="Z2" s="353"/>
     </row>
     <row r="3" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="354" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="345">
+      <c r="B3" s="356">
         <v>2020</v>
       </c>
-      <c r="C3" s="345">
+      <c r="C3" s="356">
         <v>2030</v>
       </c>
-      <c r="D3" s="345">
+      <c r="D3" s="356">
         <v>2040</v>
       </c>
-      <c r="E3" s="345">
+      <c r="E3" s="356">
         <v>2050</v>
       </c>
-      <c r="F3" s="356">
+      <c r="F3" s="369">
         <v>2030</v>
       </c>
-      <c r="G3" s="344"/>
-      <c r="H3" s="343">
+      <c r="G3" s="359"/>
+      <c r="H3" s="358">
         <v>2050</v>
       </c>
-      <c r="I3" s="344"/>
-      <c r="J3" s="345" t="s">
+      <c r="I3" s="359"/>
+      <c r="J3" s="356" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="345" t="s">
+      <c r="K3" s="356" t="s">
         <v>76</v>
       </c>
       <c r="N3" s="250" t="s">
@@ -28489,11 +28489,11 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="358"/>
-      <c r="B4" s="346"/>
-      <c r="C4" s="346"/>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
+      <c r="A4" s="355"/>
+      <c r="B4" s="357"/>
+      <c r="C4" s="357"/>
+      <c r="D4" s="357"/>
+      <c r="E4" s="357"/>
       <c r="F4" s="253" t="s">
         <v>78</v>
       </c>
@@ -28506,8 +28506,8 @@
       <c r="I4" s="253" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="346"/>
-      <c r="K4" s="346"/>
+      <c r="J4" s="357"/>
+      <c r="K4" s="357"/>
       <c r="N4" s="254" t="s">
         <v>538</v>
       </c>
@@ -29194,12 +29194,12 @@
       <c r="A18" s="262" t="s">
         <v>557</v>
       </c>
-      <c r="B18" s="347" t="s">
+      <c r="B18" s="360" t="s">
         <v>558</v>
       </c>
-      <c r="C18" s="348"/>
-      <c r="D18" s="348"/>
-      <c r="E18" s="349"/>
+      <c r="C18" s="361"/>
+      <c r="D18" s="361"/>
+      <c r="E18" s="362"/>
       <c r="F18" s="286"/>
       <c r="G18" s="286"/>
       <c r="H18" s="286"/>
@@ -29211,10 +29211,10 @@
       <c r="A19" s="262" t="s">
         <v>559</v>
       </c>
-      <c r="B19" s="350"/>
-      <c r="C19" s="351"/>
-      <c r="D19" s="351"/>
-      <c r="E19" s="352"/>
+      <c r="B19" s="363"/>
+      <c r="C19" s="364"/>
+      <c r="D19" s="364"/>
+      <c r="E19" s="365"/>
       <c r="F19" s="286"/>
       <c r="G19" s="286"/>
       <c r="H19" s="286"/>
@@ -29226,10 +29226,10 @@
       <c r="A20" s="262" t="s">
         <v>560</v>
       </c>
-      <c r="B20" s="350"/>
-      <c r="C20" s="351"/>
-      <c r="D20" s="351"/>
-      <c r="E20" s="352"/>
+      <c r="B20" s="363"/>
+      <c r="C20" s="364"/>
+      <c r="D20" s="364"/>
+      <c r="E20" s="365"/>
       <c r="F20" s="286"/>
       <c r="G20" s="286"/>
       <c r="H20" s="286"/>
@@ -29241,10 +29241,10 @@
       <c r="A21" s="262" t="s">
         <v>561</v>
       </c>
-      <c r="B21" s="350"/>
-      <c r="C21" s="351"/>
-      <c r="D21" s="351"/>
-      <c r="E21" s="352"/>
+      <c r="B21" s="363"/>
+      <c r="C21" s="364"/>
+      <c r="D21" s="364"/>
+      <c r="E21" s="365"/>
       <c r="F21" s="286"/>
       <c r="G21" s="286"/>
       <c r="H21" s="286"/>
@@ -29256,10 +29256,10 @@
       <c r="A22" s="287" t="s">
         <v>562</v>
       </c>
-      <c r="B22" s="350"/>
-      <c r="C22" s="351"/>
-      <c r="D22" s="351"/>
-      <c r="E22" s="352"/>
+      <c r="B22" s="363"/>
+      <c r="C22" s="364"/>
+      <c r="D22" s="364"/>
+      <c r="E22" s="365"/>
       <c r="F22" s="259"/>
       <c r="G22" s="259"/>
       <c r="H22" s="259"/>
@@ -29604,12 +29604,12 @@
       <c r="A38" s="262" t="s">
         <v>578</v>
       </c>
-      <c r="B38" s="353" t="s">
+      <c r="B38" s="366" t="s">
         <v>558</v>
       </c>
-      <c r="C38" s="354"/>
-      <c r="D38" s="354"/>
-      <c r="E38" s="355"/>
+      <c r="C38" s="367"/>
+      <c r="D38" s="367"/>
+      <c r="E38" s="368"/>
       <c r="F38" s="286"/>
       <c r="G38" s="286"/>
       <c r="H38" s="286"/>
@@ -29896,23 +29896,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B18:E22"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:Z1"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B18:E22"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="INDEX" display="Electric boiler, 10 kV, steam" xr:uid="{50D20602-7AD5-4D34-B672-36376F983B66}"/>

--- a/VT_REG_ALL.xlsx
+++ b/VT_REG_ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40250CC-8F2D-46DC-81AA-31A2355EB0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F60D93-961C-48DE-A950-23EE518ADB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13267,9 +13267,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13281,6 +13278,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -13296,6 +13296,52 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13329,52 +13375,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -16735,7 +16735,7 @@
   <dimension ref="B1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17031,7 +17031,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="111">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="I12" s="111">
         <v>5</v>
@@ -17151,18 +17151,18 @@
       <c r="B3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="335" t="s">
+      <c r="C3" s="334" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
     </row>
     <row r="4" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
@@ -17179,14 +17179,14 @@
       <c r="F4" s="40">
         <v>2050</v>
       </c>
-      <c r="G4" s="337" t="s">
+      <c r="G4" s="336" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="337"/>
-      <c r="I4" s="337" t="s">
+      <c r="H4" s="336"/>
+      <c r="I4" s="336" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="337"/>
+      <c r="J4" s="336"/>
       <c r="K4" s="40" t="s">
         <v>75</v>
       </c>
@@ -18261,28 +18261,28 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="70"/>
       <c r="C44" s="332"/>
-      <c r="D44" s="334"/>
-      <c r="E44" s="334"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
+      <c r="D44" s="333"/>
+      <c r="E44" s="333"/>
+      <c r="F44" s="333"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="333"/>
+      <c r="I44" s="333"/>
+      <c r="J44" s="333"/>
+      <c r="K44" s="333"/>
       <c r="L44" s="332"/>
       <c r="M44" s="332"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="71"/>
       <c r="B45" s="332"/>
-      <c r="C45" s="334"/>
-      <c r="D45" s="334"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="334"/>
-      <c r="I45" s="334"/>
-      <c r="J45" s="334"/>
+      <c r="C45" s="333"/>
+      <c r="D45" s="333"/>
+      <c r="E45" s="333"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="333"/>
       <c r="K45" s="70"/>
       <c r="L45" s="332"/>
       <c r="M45" s="332"/>
@@ -18290,28 +18290,28 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="70"/>
       <c r="C46" s="332"/>
-      <c r="D46" s="334"/>
-      <c r="E46" s="334"/>
-      <c r="F46" s="334"/>
-      <c r="G46" s="334"/>
-      <c r="H46" s="334"/>
-      <c r="I46" s="334"/>
-      <c r="J46" s="334"/>
-      <c r="K46" s="334"/>
+      <c r="D46" s="333"/>
+      <c r="E46" s="333"/>
+      <c r="F46" s="333"/>
+      <c r="G46" s="333"/>
+      <c r="H46" s="333"/>
+      <c r="I46" s="333"/>
+      <c r="J46" s="333"/>
+      <c r="K46" s="333"/>
       <c r="L46" s="332"/>
       <c r="M46" s="332"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
       <c r="B47" s="332"/>
-      <c r="C47" s="334"/>
-      <c r="D47" s="334"/>
-      <c r="E47" s="334"/>
-      <c r="F47" s="334"/>
-      <c r="G47" s="334"/>
-      <c r="H47" s="334"/>
-      <c r="I47" s="334"/>
-      <c r="J47" s="334"/>
+      <c r="C47" s="333"/>
+      <c r="D47" s="333"/>
+      <c r="E47" s="333"/>
+      <c r="F47" s="333"/>
+      <c r="G47" s="333"/>
+      <c r="H47" s="333"/>
+      <c r="I47" s="333"/>
+      <c r="J47" s="333"/>
       <c r="K47" s="70"/>
       <c r="L47" s="332"/>
       <c r="M47" s="332"/>
@@ -18337,10 +18337,10 @@
       <c r="M49" s="332"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="333" t="s">
+      <c r="A50" s="337" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="333"/>
+      <c r="B50" s="337"/>
       <c r="C50" s="66"/>
       <c r="D50" s="66"/>
       <c r="E50" s="66"/>
@@ -18726,13 +18726,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="L43:M43"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="A50:B50"/>
@@ -18743,6 +18736,13 @@
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="B47:J47"/>
     <mergeCell ref="L47:M47"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="L43:M43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{A053F0A3-2E5C-42AE-BE4C-81251A11866E}"/>
@@ -18772,18 +18772,18 @@
       <c r="D3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="335" t="s">
+      <c r="E3" s="334" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="37"/>
@@ -18800,14 +18800,14 @@
       <c r="H4" s="40">
         <v>2050</v>
       </c>
-      <c r="I4" s="337" t="s">
+      <c r="I4" s="336" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="337"/>
-      <c r="K4" s="337" t="s">
+      <c r="J4" s="336"/>
+      <c r="K4" s="336" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="337"/>
+      <c r="L4" s="336"/>
       <c r="M4" s="40" t="s">
         <v>75</v>
       </c>
@@ -19873,28 +19873,28 @@
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="70"/>
       <c r="E44" s="332"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
-      <c r="L44" s="334"/>
-      <c r="M44" s="334"/>
+      <c r="F44" s="333"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="333"/>
+      <c r="I44" s="333"/>
+      <c r="J44" s="333"/>
+      <c r="K44" s="333"/>
+      <c r="L44" s="333"/>
+      <c r="M44" s="333"/>
       <c r="N44" s="332"/>
       <c r="O44" s="332"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="71"/>
       <c r="D45" s="332"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="334"/>
-      <c r="I45" s="334"/>
-      <c r="J45" s="334"/>
-      <c r="K45" s="334"/>
-      <c r="L45" s="334"/>
+      <c r="E45" s="333"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="333"/>
+      <c r="K45" s="333"/>
+      <c r="L45" s="333"/>
       <c r="M45" s="70"/>
       <c r="N45" s="332"/>
       <c r="O45" s="332"/>
@@ -19902,28 +19902,28 @@
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="70"/>
       <c r="E46" s="332"/>
-      <c r="F46" s="334"/>
-      <c r="G46" s="334"/>
-      <c r="H46" s="334"/>
-      <c r="I46" s="334"/>
-      <c r="J46" s="334"/>
-      <c r="K46" s="334"/>
-      <c r="L46" s="334"/>
-      <c r="M46" s="334"/>
+      <c r="F46" s="333"/>
+      <c r="G46" s="333"/>
+      <c r="H46" s="333"/>
+      <c r="I46" s="333"/>
+      <c r="J46" s="333"/>
+      <c r="K46" s="333"/>
+      <c r="L46" s="333"/>
+      <c r="M46" s="333"/>
       <c r="N46" s="332"/>
       <c r="O46" s="332"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="70"/>
       <c r="D47" s="332"/>
-      <c r="E47" s="334"/>
-      <c r="F47" s="334"/>
-      <c r="G47" s="334"/>
-      <c r="H47" s="334"/>
-      <c r="I47" s="334"/>
-      <c r="J47" s="334"/>
-      <c r="K47" s="334"/>
-      <c r="L47" s="334"/>
+      <c r="E47" s="333"/>
+      <c r="F47" s="333"/>
+      <c r="G47" s="333"/>
+      <c r="H47" s="333"/>
+      <c r="I47" s="333"/>
+      <c r="J47" s="333"/>
+      <c r="K47" s="333"/>
+      <c r="L47" s="333"/>
       <c r="M47" s="70"/>
       <c r="N47" s="332"/>
       <c r="O47" s="332"/>
@@ -19949,10 +19949,10 @@
       <c r="O49" s="332"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="333" t="s">
+      <c r="C50" s="337" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="333"/>
+      <c r="D50" s="337"/>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
       <c r="G50" s="66"/>
@@ -20329,13 +20329,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="N43:O43"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="C50:D50"/>
@@ -20346,6 +20339,13 @@
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="D47:L47"/>
     <mergeCell ref="N47:O47"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{C8B51AD8-9E69-4FE2-8353-34D9D64EFBEE}"/>
@@ -20375,18 +20375,18 @@
       <c r="C2" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="335" t="s">
+      <c r="D2" s="334" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
-      <c r="K2" s="336"/>
-      <c r="L2" s="336"/>
-      <c r="M2" s="336"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
@@ -20403,14 +20403,14 @@
       <c r="G3" s="40">
         <v>2050</v>
       </c>
-      <c r="H3" s="337" t="s">
+      <c r="H3" s="336" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337" t="s">
+      <c r="I3" s="336"/>
+      <c r="J3" s="336" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="337"/>
+      <c r="K3" s="336"/>
       <c r="L3" s="40" t="s">
         <v>75</v>
       </c>
@@ -21454,28 +21454,28 @@
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="70"/>
       <c r="D42" s="332"/>
-      <c r="E42" s="334"/>
-      <c r="F42" s="334"/>
-      <c r="G42" s="334"/>
-      <c r="H42" s="334"/>
-      <c r="I42" s="334"/>
-      <c r="J42" s="334"/>
-      <c r="K42" s="334"/>
-      <c r="L42" s="334"/>
+      <c r="E42" s="333"/>
+      <c r="F42" s="333"/>
+      <c r="G42" s="333"/>
+      <c r="H42" s="333"/>
+      <c r="I42" s="333"/>
+      <c r="J42" s="333"/>
+      <c r="K42" s="333"/>
+      <c r="L42" s="333"/>
       <c r="M42" s="332"/>
       <c r="N42" s="332"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="71"/>
       <c r="C43" s="332"/>
-      <c r="D43" s="334"/>
-      <c r="E43" s="334"/>
-      <c r="F43" s="334"/>
-      <c r="G43" s="334"/>
-      <c r="H43" s="334"/>
-      <c r="I43" s="334"/>
-      <c r="J43" s="334"/>
-      <c r="K43" s="334"/>
+      <c r="D43" s="333"/>
+      <c r="E43" s="333"/>
+      <c r="F43" s="333"/>
+      <c r="G43" s="333"/>
+      <c r="H43" s="333"/>
+      <c r="I43" s="333"/>
+      <c r="J43" s="333"/>
+      <c r="K43" s="333"/>
       <c r="L43" s="70"/>
       <c r="M43" s="332"/>
       <c r="N43" s="332"/>
@@ -21483,28 +21483,28 @@
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="70"/>
       <c r="D44" s="332"/>
-      <c r="E44" s="334"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
-      <c r="L44" s="334"/>
+      <c r="E44" s="333"/>
+      <c r="F44" s="333"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="333"/>
+      <c r="I44" s="333"/>
+      <c r="J44" s="333"/>
+      <c r="K44" s="333"/>
+      <c r="L44" s="333"/>
       <c r="M44" s="332"/>
       <c r="N44" s="332"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="70"/>
       <c r="C45" s="332"/>
-      <c r="D45" s="334"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="334"/>
-      <c r="I45" s="334"/>
-      <c r="J45" s="334"/>
-      <c r="K45" s="334"/>
+      <c r="D45" s="333"/>
+      <c r="E45" s="333"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="333"/>
+      <c r="K45" s="333"/>
       <c r="L45" s="70"/>
       <c r="M45" s="332"/>
       <c r="N45" s="332"/>
@@ -21530,10 +21530,10 @@
       <c r="N47" s="332"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="333" t="s">
+      <c r="B48" s="337" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="333"/>
+      <c r="C48" s="337"/>
       <c r="D48" s="66"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
@@ -21789,13 +21789,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="M41:N41"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="M47:N47"/>
     <mergeCell ref="B48:C48"/>
@@ -21806,6 +21799,13 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="C45:K45"/>
     <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{52362334-5560-4A9E-8A6F-761439C705AF}"/>
@@ -28364,88 +28364,88 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103"/>
-      <c r="N1" s="343" t="s">
+      <c r="N1" s="359" t="s">
         <v>527</v>
       </c>
-      <c r="O1" s="345" t="s">
+      <c r="O1" s="361" t="s">
         <v>528</v>
       </c>
-      <c r="P1" s="345"/>
-      <c r="Q1" s="345"/>
-      <c r="R1" s="345"/>
-      <c r="S1" s="345"/>
-      <c r="T1" s="345"/>
-      <c r="U1" s="345"/>
-      <c r="V1" s="345"/>
-      <c r="W1" s="345"/>
-      <c r="X1" s="345"/>
-      <c r="Y1" s="345"/>
-      <c r="Z1" s="346"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="361"/>
+      <c r="S1" s="361"/>
+      <c r="T1" s="361"/>
+      <c r="U1" s="361"/>
+      <c r="V1" s="361"/>
+      <c r="W1" s="361"/>
+      <c r="X1" s="361"/>
+      <c r="Y1" s="361"/>
+      <c r="Z1" s="362"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="249" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="347" t="s">
+      <c r="B2" s="363" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="348"/>
-      <c r="K2" s="349"/>
-      <c r="N2" s="344"/>
-      <c r="O2" s="350" t="s">
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="364"/>
+      <c r="K2" s="365"/>
+      <c r="N2" s="360"/>
+      <c r="O2" s="366" t="s">
         <v>530</v>
       </c>
-      <c r="P2" s="351"/>
-      <c r="Q2" s="351"/>
-      <c r="R2" s="352"/>
-      <c r="S2" s="351" t="s">
+      <c r="P2" s="367"/>
+      <c r="Q2" s="367"/>
+      <c r="R2" s="368"/>
+      <c r="S2" s="367" t="s">
         <v>531</v>
       </c>
-      <c r="T2" s="351"/>
-      <c r="U2" s="351"/>
-      <c r="V2" s="351"/>
-      <c r="W2" s="350" t="s">
+      <c r="T2" s="367"/>
+      <c r="U2" s="367"/>
+      <c r="V2" s="367"/>
+      <c r="W2" s="366" t="s">
         <v>532</v>
       </c>
-      <c r="X2" s="351"/>
-      <c r="Y2" s="351"/>
-      <c r="Z2" s="353"/>
+      <c r="X2" s="367"/>
+      <c r="Y2" s="367"/>
+      <c r="Z2" s="369"/>
     </row>
     <row r="3" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="357" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="356">
+      <c r="B3" s="345">
         <v>2020</v>
       </c>
-      <c r="C3" s="356">
+      <c r="C3" s="345">
         <v>2030</v>
       </c>
-      <c r="D3" s="356">
+      <c r="D3" s="345">
         <v>2040</v>
       </c>
-      <c r="E3" s="356">
+      <c r="E3" s="345">
         <v>2050</v>
       </c>
-      <c r="F3" s="369">
+      <c r="F3" s="356">
         <v>2030</v>
       </c>
-      <c r="G3" s="359"/>
-      <c r="H3" s="358">
+      <c r="G3" s="344"/>
+      <c r="H3" s="343">
         <v>2050</v>
       </c>
-      <c r="I3" s="359"/>
-      <c r="J3" s="356" t="s">
+      <c r="I3" s="344"/>
+      <c r="J3" s="345" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="356" t="s">
+      <c r="K3" s="345" t="s">
         <v>76</v>
       </c>
       <c r="N3" s="250" t="s">
@@ -28489,11 +28489,11 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="355"/>
-      <c r="B4" s="357"/>
-      <c r="C4" s="357"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
+      <c r="A4" s="358"/>
+      <c r="B4" s="346"/>
+      <c r="C4" s="346"/>
+      <c r="D4" s="346"/>
+      <c r="E4" s="346"/>
       <c r="F4" s="253" t="s">
         <v>78</v>
       </c>
@@ -28506,8 +28506,8 @@
       <c r="I4" s="253" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="357"/>
-      <c r="K4" s="357"/>
+      <c r="J4" s="346"/>
+      <c r="K4" s="346"/>
       <c r="N4" s="254" t="s">
         <v>538</v>
       </c>
@@ -29194,12 +29194,12 @@
       <c r="A18" s="262" t="s">
         <v>557</v>
       </c>
-      <c r="B18" s="360" t="s">
+      <c r="B18" s="347" t="s">
         <v>558</v>
       </c>
-      <c r="C18" s="361"/>
-      <c r="D18" s="361"/>
-      <c r="E18" s="362"/>
+      <c r="C18" s="348"/>
+      <c r="D18" s="348"/>
+      <c r="E18" s="349"/>
       <c r="F18" s="286"/>
       <c r="G18" s="286"/>
       <c r="H18" s="286"/>
@@ -29211,10 +29211,10 @@
       <c r="A19" s="262" t="s">
         <v>559</v>
       </c>
-      <c r="B19" s="363"/>
-      <c r="C19" s="364"/>
-      <c r="D19" s="364"/>
-      <c r="E19" s="365"/>
+      <c r="B19" s="350"/>
+      <c r="C19" s="351"/>
+      <c r="D19" s="351"/>
+      <c r="E19" s="352"/>
       <c r="F19" s="286"/>
       <c r="G19" s="286"/>
       <c r="H19" s="286"/>
@@ -29226,10 +29226,10 @@
       <c r="A20" s="262" t="s">
         <v>560</v>
       </c>
-      <c r="B20" s="363"/>
-      <c r="C20" s="364"/>
-      <c r="D20" s="364"/>
-      <c r="E20" s="365"/>
+      <c r="B20" s="350"/>
+      <c r="C20" s="351"/>
+      <c r="D20" s="351"/>
+      <c r="E20" s="352"/>
       <c r="F20" s="286"/>
       <c r="G20" s="286"/>
       <c r="H20" s="286"/>
@@ -29241,10 +29241,10 @@
       <c r="A21" s="262" t="s">
         <v>561</v>
       </c>
-      <c r="B21" s="363"/>
-      <c r="C21" s="364"/>
-      <c r="D21" s="364"/>
-      <c r="E21" s="365"/>
+      <c r="B21" s="350"/>
+      <c r="C21" s="351"/>
+      <c r="D21" s="351"/>
+      <c r="E21" s="352"/>
       <c r="F21" s="286"/>
       <c r="G21" s="286"/>
       <c r="H21" s="286"/>
@@ -29256,10 +29256,10 @@
       <c r="A22" s="287" t="s">
         <v>562</v>
       </c>
-      <c r="B22" s="363"/>
-      <c r="C22" s="364"/>
-      <c r="D22" s="364"/>
-      <c r="E22" s="365"/>
+      <c r="B22" s="350"/>
+      <c r="C22" s="351"/>
+      <c r="D22" s="351"/>
+      <c r="E22" s="352"/>
       <c r="F22" s="259"/>
       <c r="G22" s="259"/>
       <c r="H22" s="259"/>
@@ -29604,12 +29604,12 @@
       <c r="A38" s="262" t="s">
         <v>578</v>
       </c>
-      <c r="B38" s="366" t="s">
+      <c r="B38" s="353" t="s">
         <v>558</v>
       </c>
-      <c r="C38" s="367"/>
-      <c r="D38" s="367"/>
-      <c r="E38" s="368"/>
+      <c r="C38" s="354"/>
+      <c r="D38" s="354"/>
+      <c r="E38" s="355"/>
       <c r="F38" s="286"/>
       <c r="G38" s="286"/>
       <c r="H38" s="286"/>
@@ -29896,23 +29896,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="B18:E22"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="INDEX" display="Electric boiler, 10 kV, steam" xr:uid="{50D20602-7AD5-4D34-B672-36376F983B66}"/>

--- a/VT_REG_ALL.xlsx
+++ b/VT_REG_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F60D93-961C-48DE-A950-23EE518ADB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C530E6-82B7-4348-B3F8-5EEF8ACDCD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pri_RNW" sheetId="142" r:id="rId1"/>
@@ -15570,8 +15570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EFECA6-D9ED-478E-8A25-A85F29B7EE32}">
   <dimension ref="D8:AK20"/>
   <sheetViews>
-    <sheetView topLeftCell="O2" zoomScale="78" workbookViewId="0">
-      <selection activeCell="AJ20" sqref="AJ20"/>
+    <sheetView topLeftCell="I2" zoomScale="78" workbookViewId="0">
+      <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16075,7 +16075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B37DD7-922B-4AE9-953C-BB93BD6E9F87}">
   <dimension ref="B1:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="89" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="89" workbookViewId="0">
       <selection activeCell="F20" sqref="F20:F24"/>
     </sheetView>
   </sheetViews>
@@ -16735,7 +16735,7 @@
   <dimension ref="B1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17031,7 +17031,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="111">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="111">
         <v>5</v>
@@ -17118,7 +17118,7 @@
         <v>2030</v>
       </c>
       <c r="E19">
-        <v>10000000</v>
+        <v>10000000000</v>
       </c>
     </row>
   </sheetData>
@@ -29926,7 +29926,7 @@
   <dimension ref="B1:W33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33409,7 +33409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC11C7B-99A6-4A58-B6CE-072D4A78BD7D}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="73" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="73" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG_ALL.xlsx
+++ b/VT_REG_ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C530E6-82B7-4348-B3F8-5EEF8ACDCD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8F8E99-867F-4629-AE77-0F53AC74CE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13267,6 +13267,9 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13278,9 +13281,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -13296,52 +13296,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13375,6 +13329,52 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -16735,7 +16735,7 @@
   <dimension ref="B1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17118,7 +17118,7 @@
         <v>2030</v>
       </c>
       <c r="E19">
-        <v>10000000000</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -17151,18 +17151,18 @@
       <c r="B3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="334" t="s">
+      <c r="C3" s="335" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
-      <c r="K3" s="335"/>
-      <c r="L3" s="335"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
     </row>
     <row r="4" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
@@ -17179,14 +17179,14 @@
       <c r="F4" s="40">
         <v>2050</v>
       </c>
-      <c r="G4" s="336" t="s">
+      <c r="G4" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="336"/>
-      <c r="I4" s="336" t="s">
+      <c r="H4" s="337"/>
+      <c r="I4" s="337" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="336"/>
+      <c r="J4" s="337"/>
       <c r="K4" s="40" t="s">
         <v>75</v>
       </c>
@@ -18261,28 +18261,28 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="70"/>
       <c r="C44" s="332"/>
-      <c r="D44" s="333"/>
-      <c r="E44" s="333"/>
-      <c r="F44" s="333"/>
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
-      <c r="I44" s="333"/>
-      <c r="J44" s="333"/>
-      <c r="K44" s="333"/>
+      <c r="D44" s="334"/>
+      <c r="E44" s="334"/>
+      <c r="F44" s="334"/>
+      <c r="G44" s="334"/>
+      <c r="H44" s="334"/>
+      <c r="I44" s="334"/>
+      <c r="J44" s="334"/>
+      <c r="K44" s="334"/>
       <c r="L44" s="332"/>
       <c r="M44" s="332"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="71"/>
       <c r="B45" s="332"/>
-      <c r="C45" s="333"/>
-      <c r="D45" s="333"/>
-      <c r="E45" s="333"/>
-      <c r="F45" s="333"/>
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="333"/>
-      <c r="J45" s="333"/>
+      <c r="C45" s="334"/>
+      <c r="D45" s="334"/>
+      <c r="E45" s="334"/>
+      <c r="F45" s="334"/>
+      <c r="G45" s="334"/>
+      <c r="H45" s="334"/>
+      <c r="I45" s="334"/>
+      <c r="J45" s="334"/>
       <c r="K45" s="70"/>
       <c r="L45" s="332"/>
       <c r="M45" s="332"/>
@@ -18290,28 +18290,28 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="70"/>
       <c r="C46" s="332"/>
-      <c r="D46" s="333"/>
-      <c r="E46" s="333"/>
-      <c r="F46" s="333"/>
-      <c r="G46" s="333"/>
-      <c r="H46" s="333"/>
-      <c r="I46" s="333"/>
-      <c r="J46" s="333"/>
-      <c r="K46" s="333"/>
+      <c r="D46" s="334"/>
+      <c r="E46" s="334"/>
+      <c r="F46" s="334"/>
+      <c r="G46" s="334"/>
+      <c r="H46" s="334"/>
+      <c r="I46" s="334"/>
+      <c r="J46" s="334"/>
+      <c r="K46" s="334"/>
       <c r="L46" s="332"/>
       <c r="M46" s="332"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
       <c r="B47" s="332"/>
-      <c r="C47" s="333"/>
-      <c r="D47" s="333"/>
-      <c r="E47" s="333"/>
-      <c r="F47" s="333"/>
-      <c r="G47" s="333"/>
-      <c r="H47" s="333"/>
-      <c r="I47" s="333"/>
-      <c r="J47" s="333"/>
+      <c r="C47" s="334"/>
+      <c r="D47" s="334"/>
+      <c r="E47" s="334"/>
+      <c r="F47" s="334"/>
+      <c r="G47" s="334"/>
+      <c r="H47" s="334"/>
+      <c r="I47" s="334"/>
+      <c r="J47" s="334"/>
       <c r="K47" s="70"/>
       <c r="L47" s="332"/>
       <c r="M47" s="332"/>
@@ -18337,10 +18337,10 @@
       <c r="M49" s="332"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="337" t="s">
+      <c r="A50" s="333" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="337"/>
+      <c r="B50" s="333"/>
       <c r="C50" s="66"/>
       <c r="D50" s="66"/>
       <c r="E50" s="66"/>
@@ -18726,6 +18726,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="L43:M43"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="A50:B50"/>
@@ -18736,13 +18743,6 @@
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="B47:J47"/>
     <mergeCell ref="L47:M47"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="L43:M43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{A053F0A3-2E5C-42AE-BE4C-81251A11866E}"/>
@@ -18772,18 +18772,18 @@
       <c r="D3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="334" t="s">
+      <c r="E3" s="335" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
-      <c r="K3" s="335"/>
-      <c r="L3" s="335"/>
-      <c r="M3" s="335"/>
-      <c r="N3" s="335"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="37"/>
@@ -18800,14 +18800,14 @@
       <c r="H4" s="40">
         <v>2050</v>
       </c>
-      <c r="I4" s="336" t="s">
+      <c r="I4" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="336"/>
-      <c r="K4" s="336" t="s">
+      <c r="J4" s="337"/>
+      <c r="K4" s="337" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="336"/>
+      <c r="L4" s="337"/>
       <c r="M4" s="40" t="s">
         <v>75</v>
       </c>
@@ -19873,28 +19873,28 @@
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="70"/>
       <c r="E44" s="332"/>
-      <c r="F44" s="333"/>
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
-      <c r="I44" s="333"/>
-      <c r="J44" s="333"/>
-      <c r="K44" s="333"/>
-      <c r="L44" s="333"/>
-      <c r="M44" s="333"/>
+      <c r="F44" s="334"/>
+      <c r="G44" s="334"/>
+      <c r="H44" s="334"/>
+      <c r="I44" s="334"/>
+      <c r="J44" s="334"/>
+      <c r="K44" s="334"/>
+      <c r="L44" s="334"/>
+      <c r="M44" s="334"/>
       <c r="N44" s="332"/>
       <c r="O44" s="332"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="71"/>
       <c r="D45" s="332"/>
-      <c r="E45" s="333"/>
-      <c r="F45" s="333"/>
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="333"/>
-      <c r="J45" s="333"/>
-      <c r="K45" s="333"/>
-      <c r="L45" s="333"/>
+      <c r="E45" s="334"/>
+      <c r="F45" s="334"/>
+      <c r="G45" s="334"/>
+      <c r="H45" s="334"/>
+      <c r="I45" s="334"/>
+      <c r="J45" s="334"/>
+      <c r="K45" s="334"/>
+      <c r="L45" s="334"/>
       <c r="M45" s="70"/>
       <c r="N45" s="332"/>
       <c r="O45" s="332"/>
@@ -19902,28 +19902,28 @@
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="70"/>
       <c r="E46" s="332"/>
-      <c r="F46" s="333"/>
-      <c r="G46" s="333"/>
-      <c r="H46" s="333"/>
-      <c r="I46" s="333"/>
-      <c r="J46" s="333"/>
-      <c r="K46" s="333"/>
-      <c r="L46" s="333"/>
-      <c r="M46" s="333"/>
+      <c r="F46" s="334"/>
+      <c r="G46" s="334"/>
+      <c r="H46" s="334"/>
+      <c r="I46" s="334"/>
+      <c r="J46" s="334"/>
+      <c r="K46" s="334"/>
+      <c r="L46" s="334"/>
+      <c r="M46" s="334"/>
       <c r="N46" s="332"/>
       <c r="O46" s="332"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="70"/>
       <c r="D47" s="332"/>
-      <c r="E47" s="333"/>
-      <c r="F47" s="333"/>
-      <c r="G47" s="333"/>
-      <c r="H47" s="333"/>
-      <c r="I47" s="333"/>
-      <c r="J47" s="333"/>
-      <c r="K47" s="333"/>
-      <c r="L47" s="333"/>
+      <c r="E47" s="334"/>
+      <c r="F47" s="334"/>
+      <c r="G47" s="334"/>
+      <c r="H47" s="334"/>
+      <c r="I47" s="334"/>
+      <c r="J47" s="334"/>
+      <c r="K47" s="334"/>
+      <c r="L47" s="334"/>
       <c r="M47" s="70"/>
       <c r="N47" s="332"/>
       <c r="O47" s="332"/>
@@ -19949,10 +19949,10 @@
       <c r="O49" s="332"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="337" t="s">
+      <c r="C50" s="333" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="337"/>
+      <c r="D50" s="333"/>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
       <c r="G50" s="66"/>
@@ -20329,6 +20329,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="N43:O43"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="C50:D50"/>
@@ -20339,13 +20346,6 @@
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="D47:L47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{C8B51AD8-9E69-4FE2-8353-34D9D64EFBEE}"/>
@@ -20375,18 +20375,18 @@
       <c r="C2" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="334" t="s">
+      <c r="D2" s="335" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
+      <c r="L2" s="336"/>
+      <c r="M2" s="336"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
@@ -20403,14 +20403,14 @@
       <c r="G3" s="40">
         <v>2050</v>
       </c>
-      <c r="H3" s="336" t="s">
+      <c r="H3" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336" t="s">
+      <c r="I3" s="337"/>
+      <c r="J3" s="337" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="336"/>
+      <c r="K3" s="337"/>
       <c r="L3" s="40" t="s">
         <v>75</v>
       </c>
@@ -21454,28 +21454,28 @@
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="70"/>
       <c r="D42" s="332"/>
-      <c r="E42" s="333"/>
-      <c r="F42" s="333"/>
-      <c r="G42" s="333"/>
-      <c r="H42" s="333"/>
-      <c r="I42" s="333"/>
-      <c r="J42" s="333"/>
-      <c r="K42" s="333"/>
-      <c r="L42" s="333"/>
+      <c r="E42" s="334"/>
+      <c r="F42" s="334"/>
+      <c r="G42" s="334"/>
+      <c r="H42" s="334"/>
+      <c r="I42" s="334"/>
+      <c r="J42" s="334"/>
+      <c r="K42" s="334"/>
+      <c r="L42" s="334"/>
       <c r="M42" s="332"/>
       <c r="N42" s="332"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="71"/>
       <c r="C43" s="332"/>
-      <c r="D43" s="333"/>
-      <c r="E43" s="333"/>
-      <c r="F43" s="333"/>
-      <c r="G43" s="333"/>
-      <c r="H43" s="333"/>
-      <c r="I43" s="333"/>
-      <c r="J43" s="333"/>
-      <c r="K43" s="333"/>
+      <c r="D43" s="334"/>
+      <c r="E43" s="334"/>
+      <c r="F43" s="334"/>
+      <c r="G43" s="334"/>
+      <c r="H43" s="334"/>
+      <c r="I43" s="334"/>
+      <c r="J43" s="334"/>
+      <c r="K43" s="334"/>
       <c r="L43" s="70"/>
       <c r="M43" s="332"/>
       <c r="N43" s="332"/>
@@ -21483,28 +21483,28 @@
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="70"/>
       <c r="D44" s="332"/>
-      <c r="E44" s="333"/>
-      <c r="F44" s="333"/>
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
-      <c r="I44" s="333"/>
-      <c r="J44" s="333"/>
-      <c r="K44" s="333"/>
-      <c r="L44" s="333"/>
+      <c r="E44" s="334"/>
+      <c r="F44" s="334"/>
+      <c r="G44" s="334"/>
+      <c r="H44" s="334"/>
+      <c r="I44" s="334"/>
+      <c r="J44" s="334"/>
+      <c r="K44" s="334"/>
+      <c r="L44" s="334"/>
       <c r="M44" s="332"/>
       <c r="N44" s="332"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="70"/>
       <c r="C45" s="332"/>
-      <c r="D45" s="333"/>
-      <c r="E45" s="333"/>
-      <c r="F45" s="333"/>
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="333"/>
-      <c r="J45" s="333"/>
-      <c r="K45" s="333"/>
+      <c r="D45" s="334"/>
+      <c r="E45" s="334"/>
+      <c r="F45" s="334"/>
+      <c r="G45" s="334"/>
+      <c r="H45" s="334"/>
+      <c r="I45" s="334"/>
+      <c r="J45" s="334"/>
+      <c r="K45" s="334"/>
       <c r="L45" s="70"/>
       <c r="M45" s="332"/>
       <c r="N45" s="332"/>
@@ -21530,10 +21530,10 @@
       <c r="N47" s="332"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="337" t="s">
+      <c r="B48" s="333" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="337"/>
+      <c r="C48" s="333"/>
       <c r="D48" s="66"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
@@ -21789,6 +21789,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="M41:N41"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="M47:N47"/>
     <mergeCell ref="B48:C48"/>
@@ -21799,13 +21806,6 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="C45:K45"/>
     <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{52362334-5560-4A9E-8A6F-761439C705AF}"/>
@@ -28364,88 +28364,88 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103"/>
-      <c r="N1" s="359" t="s">
+      <c r="N1" s="343" t="s">
         <v>527</v>
       </c>
-      <c r="O1" s="361" t="s">
+      <c r="O1" s="345" t="s">
         <v>528</v>
       </c>
-      <c r="P1" s="361"/>
-      <c r="Q1" s="361"/>
-      <c r="R1" s="361"/>
-      <c r="S1" s="361"/>
-      <c r="T1" s="361"/>
-      <c r="U1" s="361"/>
-      <c r="V1" s="361"/>
-      <c r="W1" s="361"/>
-      <c r="X1" s="361"/>
-      <c r="Y1" s="361"/>
-      <c r="Z1" s="362"/>
+      <c r="P1" s="345"/>
+      <c r="Q1" s="345"/>
+      <c r="R1" s="345"/>
+      <c r="S1" s="345"/>
+      <c r="T1" s="345"/>
+      <c r="U1" s="345"/>
+      <c r="V1" s="345"/>
+      <c r="W1" s="345"/>
+      <c r="X1" s="345"/>
+      <c r="Y1" s="345"/>
+      <c r="Z1" s="346"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="249" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="363" t="s">
+      <c r="B2" s="347" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
-      <c r="I2" s="364"/>
-      <c r="J2" s="364"/>
-      <c r="K2" s="365"/>
-      <c r="N2" s="360"/>
-      <c r="O2" s="366" t="s">
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="348"/>
+      <c r="I2" s="348"/>
+      <c r="J2" s="348"/>
+      <c r="K2" s="349"/>
+      <c r="N2" s="344"/>
+      <c r="O2" s="350" t="s">
         <v>530</v>
       </c>
-      <c r="P2" s="367"/>
-      <c r="Q2" s="367"/>
-      <c r="R2" s="368"/>
-      <c r="S2" s="367" t="s">
+      <c r="P2" s="351"/>
+      <c r="Q2" s="351"/>
+      <c r="R2" s="352"/>
+      <c r="S2" s="351" t="s">
         <v>531</v>
       </c>
-      <c r="T2" s="367"/>
-      <c r="U2" s="367"/>
-      <c r="V2" s="367"/>
-      <c r="W2" s="366" t="s">
+      <c r="T2" s="351"/>
+      <c r="U2" s="351"/>
+      <c r="V2" s="351"/>
+      <c r="W2" s="350" t="s">
         <v>532</v>
       </c>
-      <c r="X2" s="367"/>
-      <c r="Y2" s="367"/>
-      <c r="Z2" s="369"/>
+      <c r="X2" s="351"/>
+      <c r="Y2" s="351"/>
+      <c r="Z2" s="353"/>
     </row>
     <row r="3" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="354" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="345">
+      <c r="B3" s="356">
         <v>2020</v>
       </c>
-      <c r="C3" s="345">
+      <c r="C3" s="356">
         <v>2030</v>
       </c>
-      <c r="D3" s="345">
+      <c r="D3" s="356">
         <v>2040</v>
       </c>
-      <c r="E3" s="345">
+      <c r="E3" s="356">
         <v>2050</v>
       </c>
-      <c r="F3" s="356">
+      <c r="F3" s="369">
         <v>2030</v>
       </c>
-      <c r="G3" s="344"/>
-      <c r="H3" s="343">
+      <c r="G3" s="359"/>
+      <c r="H3" s="358">
         <v>2050</v>
       </c>
-      <c r="I3" s="344"/>
-      <c r="J3" s="345" t="s">
+      <c r="I3" s="359"/>
+      <c r="J3" s="356" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="345" t="s">
+      <c r="K3" s="356" t="s">
         <v>76</v>
       </c>
       <c r="N3" s="250" t="s">
@@ -28489,11 +28489,11 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="358"/>
-      <c r="B4" s="346"/>
-      <c r="C4" s="346"/>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
+      <c r="A4" s="355"/>
+      <c r="B4" s="357"/>
+      <c r="C4" s="357"/>
+      <c r="D4" s="357"/>
+      <c r="E4" s="357"/>
       <c r="F4" s="253" t="s">
         <v>78</v>
       </c>
@@ -28506,8 +28506,8 @@
       <c r="I4" s="253" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="346"/>
-      <c r="K4" s="346"/>
+      <c r="J4" s="357"/>
+      <c r="K4" s="357"/>
       <c r="N4" s="254" t="s">
         <v>538</v>
       </c>
@@ -29194,12 +29194,12 @@
       <c r="A18" s="262" t="s">
         <v>557</v>
       </c>
-      <c r="B18" s="347" t="s">
+      <c r="B18" s="360" t="s">
         <v>558</v>
       </c>
-      <c r="C18" s="348"/>
-      <c r="D18" s="348"/>
-      <c r="E18" s="349"/>
+      <c r="C18" s="361"/>
+      <c r="D18" s="361"/>
+      <c r="E18" s="362"/>
       <c r="F18" s="286"/>
       <c r="G18" s="286"/>
       <c r="H18" s="286"/>
@@ -29211,10 +29211,10 @@
       <c r="A19" s="262" t="s">
         <v>559</v>
       </c>
-      <c r="B19" s="350"/>
-      <c r="C19" s="351"/>
-      <c r="D19" s="351"/>
-      <c r="E19" s="352"/>
+      <c r="B19" s="363"/>
+      <c r="C19" s="364"/>
+      <c r="D19" s="364"/>
+      <c r="E19" s="365"/>
       <c r="F19" s="286"/>
       <c r="G19" s="286"/>
       <c r="H19" s="286"/>
@@ -29226,10 +29226,10 @@
       <c r="A20" s="262" t="s">
         <v>560</v>
       </c>
-      <c r="B20" s="350"/>
-      <c r="C20" s="351"/>
-      <c r="D20" s="351"/>
-      <c r="E20" s="352"/>
+      <c r="B20" s="363"/>
+      <c r="C20" s="364"/>
+      <c r="D20" s="364"/>
+      <c r="E20" s="365"/>
       <c r="F20" s="286"/>
       <c r="G20" s="286"/>
       <c r="H20" s="286"/>
@@ -29241,10 +29241,10 @@
       <c r="A21" s="262" t="s">
         <v>561</v>
       </c>
-      <c r="B21" s="350"/>
-      <c r="C21" s="351"/>
-      <c r="D21" s="351"/>
-      <c r="E21" s="352"/>
+      <c r="B21" s="363"/>
+      <c r="C21" s="364"/>
+      <c r="D21" s="364"/>
+      <c r="E21" s="365"/>
       <c r="F21" s="286"/>
       <c r="G21" s="286"/>
       <c r="H21" s="286"/>
@@ -29256,10 +29256,10 @@
       <c r="A22" s="287" t="s">
         <v>562</v>
       </c>
-      <c r="B22" s="350"/>
-      <c r="C22" s="351"/>
-      <c r="D22" s="351"/>
-      <c r="E22" s="352"/>
+      <c r="B22" s="363"/>
+      <c r="C22" s="364"/>
+      <c r="D22" s="364"/>
+      <c r="E22" s="365"/>
       <c r="F22" s="259"/>
       <c r="G22" s="259"/>
       <c r="H22" s="259"/>
@@ -29604,12 +29604,12 @@
       <c r="A38" s="262" t="s">
         <v>578</v>
       </c>
-      <c r="B38" s="353" t="s">
+      <c r="B38" s="366" t="s">
         <v>558</v>
       </c>
-      <c r="C38" s="354"/>
-      <c r="D38" s="354"/>
-      <c r="E38" s="355"/>
+      <c r="C38" s="367"/>
+      <c r="D38" s="367"/>
+      <c r="E38" s="368"/>
       <c r="F38" s="286"/>
       <c r="G38" s="286"/>
       <c r="H38" s="286"/>
@@ -29896,23 +29896,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B18:E22"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:Z1"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B18:E22"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="INDEX" display="Electric boiler, 10 kV, steam" xr:uid="{50D20602-7AD5-4D34-B672-36376F983B66}"/>

--- a/VT_REG_ALL.xlsx
+++ b/VT_REG_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8F8E99-867F-4629-AE77-0F53AC74CE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9D6DBB-8703-431D-87E3-0F2C508D18AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pri_RNW" sheetId="142" r:id="rId1"/>
@@ -13267,9 +13267,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13281,6 +13278,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -13296,6 +13296,52 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13329,52 +13375,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -16075,8 +16075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B37DD7-922B-4AE9-953C-BB93BD6E9F87}">
   <dimension ref="B1:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F24"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="89" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16734,7 +16734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E593ED6-EFFA-4D59-BE30-3F65BBC3CC0A}">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -17151,18 +17151,18 @@
       <c r="B3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="335" t="s">
+      <c r="C3" s="334" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
     </row>
     <row r="4" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
@@ -17179,14 +17179,14 @@
       <c r="F4" s="40">
         <v>2050</v>
       </c>
-      <c r="G4" s="337" t="s">
+      <c r="G4" s="336" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="337"/>
-      <c r="I4" s="337" t="s">
+      <c r="H4" s="336"/>
+      <c r="I4" s="336" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="337"/>
+      <c r="J4" s="336"/>
       <c r="K4" s="40" t="s">
         <v>75</v>
       </c>
@@ -18261,28 +18261,28 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="70"/>
       <c r="C44" s="332"/>
-      <c r="D44" s="334"/>
-      <c r="E44" s="334"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
+      <c r="D44" s="333"/>
+      <c r="E44" s="333"/>
+      <c r="F44" s="333"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="333"/>
+      <c r="I44" s="333"/>
+      <c r="J44" s="333"/>
+      <c r="K44" s="333"/>
       <c r="L44" s="332"/>
       <c r="M44" s="332"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="71"/>
       <c r="B45" s="332"/>
-      <c r="C45" s="334"/>
-      <c r="D45" s="334"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="334"/>
-      <c r="I45" s="334"/>
-      <c r="J45" s="334"/>
+      <c r="C45" s="333"/>
+      <c r="D45" s="333"/>
+      <c r="E45" s="333"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="333"/>
       <c r="K45" s="70"/>
       <c r="L45" s="332"/>
       <c r="M45" s="332"/>
@@ -18290,28 +18290,28 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="70"/>
       <c r="C46" s="332"/>
-      <c r="D46" s="334"/>
-      <c r="E46" s="334"/>
-      <c r="F46" s="334"/>
-      <c r="G46" s="334"/>
-      <c r="H46" s="334"/>
-      <c r="I46" s="334"/>
-      <c r="J46" s="334"/>
-      <c r="K46" s="334"/>
+      <c r="D46" s="333"/>
+      <c r="E46" s="333"/>
+      <c r="F46" s="333"/>
+      <c r="G46" s="333"/>
+      <c r="H46" s="333"/>
+      <c r="I46" s="333"/>
+      <c r="J46" s="333"/>
+      <c r="K46" s="333"/>
       <c r="L46" s="332"/>
       <c r="M46" s="332"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
       <c r="B47" s="332"/>
-      <c r="C47" s="334"/>
-      <c r="D47" s="334"/>
-      <c r="E47" s="334"/>
-      <c r="F47" s="334"/>
-      <c r="G47" s="334"/>
-      <c r="H47" s="334"/>
-      <c r="I47" s="334"/>
-      <c r="J47" s="334"/>
+      <c r="C47" s="333"/>
+      <c r="D47" s="333"/>
+      <c r="E47" s="333"/>
+      <c r="F47" s="333"/>
+      <c r="G47" s="333"/>
+      <c r="H47" s="333"/>
+      <c r="I47" s="333"/>
+      <c r="J47" s="333"/>
       <c r="K47" s="70"/>
       <c r="L47" s="332"/>
       <c r="M47" s="332"/>
@@ -18337,10 +18337,10 @@
       <c r="M49" s="332"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="333" t="s">
+      <c r="A50" s="337" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="333"/>
+      <c r="B50" s="337"/>
       <c r="C50" s="66"/>
       <c r="D50" s="66"/>
       <c r="E50" s="66"/>
@@ -18726,13 +18726,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="L43:M43"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="A50:B50"/>
@@ -18743,6 +18736,13 @@
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="B47:J47"/>
     <mergeCell ref="L47:M47"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="L43:M43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{A053F0A3-2E5C-42AE-BE4C-81251A11866E}"/>
@@ -18772,18 +18772,18 @@
       <c r="D3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="335" t="s">
+      <c r="E3" s="334" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="37"/>
@@ -18800,14 +18800,14 @@
       <c r="H4" s="40">
         <v>2050</v>
       </c>
-      <c r="I4" s="337" t="s">
+      <c r="I4" s="336" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="337"/>
-      <c r="K4" s="337" t="s">
+      <c r="J4" s="336"/>
+      <c r="K4" s="336" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="337"/>
+      <c r="L4" s="336"/>
       <c r="M4" s="40" t="s">
         <v>75</v>
       </c>
@@ -19873,28 +19873,28 @@
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="70"/>
       <c r="E44" s="332"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
-      <c r="L44" s="334"/>
-      <c r="M44" s="334"/>
+      <c r="F44" s="333"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="333"/>
+      <c r="I44" s="333"/>
+      <c r="J44" s="333"/>
+      <c r="K44" s="333"/>
+      <c r="L44" s="333"/>
+      <c r="M44" s="333"/>
       <c r="N44" s="332"/>
       <c r="O44" s="332"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="71"/>
       <c r="D45" s="332"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="334"/>
-      <c r="I45" s="334"/>
-      <c r="J45" s="334"/>
-      <c r="K45" s="334"/>
-      <c r="L45" s="334"/>
+      <c r="E45" s="333"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="333"/>
+      <c r="K45" s="333"/>
+      <c r="L45" s="333"/>
       <c r="M45" s="70"/>
       <c r="N45" s="332"/>
       <c r="O45" s="332"/>
@@ -19902,28 +19902,28 @@
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="70"/>
       <c r="E46" s="332"/>
-      <c r="F46" s="334"/>
-      <c r="G46" s="334"/>
-      <c r="H46" s="334"/>
-      <c r="I46" s="334"/>
-      <c r="J46" s="334"/>
-      <c r="K46" s="334"/>
-      <c r="L46" s="334"/>
-      <c r="M46" s="334"/>
+      <c r="F46" s="333"/>
+      <c r="G46" s="333"/>
+      <c r="H46" s="333"/>
+      <c r="I46" s="333"/>
+      <c r="J46" s="333"/>
+      <c r="K46" s="333"/>
+      <c r="L46" s="333"/>
+      <c r="M46" s="333"/>
       <c r="N46" s="332"/>
       <c r="O46" s="332"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="70"/>
       <c r="D47" s="332"/>
-      <c r="E47" s="334"/>
-      <c r="F47" s="334"/>
-      <c r="G47" s="334"/>
-      <c r="H47" s="334"/>
-      <c r="I47" s="334"/>
-      <c r="J47" s="334"/>
-      <c r="K47" s="334"/>
-      <c r="L47" s="334"/>
+      <c r="E47" s="333"/>
+      <c r="F47" s="333"/>
+      <c r="G47" s="333"/>
+      <c r="H47" s="333"/>
+      <c r="I47" s="333"/>
+      <c r="J47" s="333"/>
+      <c r="K47" s="333"/>
+      <c r="L47" s="333"/>
       <c r="M47" s="70"/>
       <c r="N47" s="332"/>
       <c r="O47" s="332"/>
@@ -19949,10 +19949,10 @@
       <c r="O49" s="332"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="333" t="s">
+      <c r="C50" s="337" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="333"/>
+      <c r="D50" s="337"/>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
       <c r="G50" s="66"/>
@@ -20329,13 +20329,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="N43:O43"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="C50:D50"/>
@@ -20346,6 +20339,13 @@
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="D47:L47"/>
     <mergeCell ref="N47:O47"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{C8B51AD8-9E69-4FE2-8353-34D9D64EFBEE}"/>
@@ -20375,18 +20375,18 @@
       <c r="C2" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="335" t="s">
+      <c r="D2" s="334" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
-      <c r="K2" s="336"/>
-      <c r="L2" s="336"/>
-      <c r="M2" s="336"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
@@ -20403,14 +20403,14 @@
       <c r="G3" s="40">
         <v>2050</v>
       </c>
-      <c r="H3" s="337" t="s">
+      <c r="H3" s="336" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337" t="s">
+      <c r="I3" s="336"/>
+      <c r="J3" s="336" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="337"/>
+      <c r="K3" s="336"/>
       <c r="L3" s="40" t="s">
         <v>75</v>
       </c>
@@ -21454,28 +21454,28 @@
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="70"/>
       <c r="D42" s="332"/>
-      <c r="E42" s="334"/>
-      <c r="F42" s="334"/>
-      <c r="G42" s="334"/>
-      <c r="H42" s="334"/>
-      <c r="I42" s="334"/>
-      <c r="J42" s="334"/>
-      <c r="K42" s="334"/>
-      <c r="L42" s="334"/>
+      <c r="E42" s="333"/>
+      <c r="F42" s="333"/>
+      <c r="G42" s="333"/>
+      <c r="H42" s="333"/>
+      <c r="I42" s="333"/>
+      <c r="J42" s="333"/>
+      <c r="K42" s="333"/>
+      <c r="L42" s="333"/>
       <c r="M42" s="332"/>
       <c r="N42" s="332"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="71"/>
       <c r="C43" s="332"/>
-      <c r="D43" s="334"/>
-      <c r="E43" s="334"/>
-      <c r="F43" s="334"/>
-      <c r="G43" s="334"/>
-      <c r="H43" s="334"/>
-      <c r="I43" s="334"/>
-      <c r="J43" s="334"/>
-      <c r="K43" s="334"/>
+      <c r="D43" s="333"/>
+      <c r="E43" s="333"/>
+      <c r="F43" s="333"/>
+      <c r="G43" s="333"/>
+      <c r="H43" s="333"/>
+      <c r="I43" s="333"/>
+      <c r="J43" s="333"/>
+      <c r="K43" s="333"/>
       <c r="L43" s="70"/>
       <c r="M43" s="332"/>
       <c r="N43" s="332"/>
@@ -21483,28 +21483,28 @@
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="70"/>
       <c r="D44" s="332"/>
-      <c r="E44" s="334"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
-      <c r="L44" s="334"/>
+      <c r="E44" s="333"/>
+      <c r="F44" s="333"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="333"/>
+      <c r="I44" s="333"/>
+      <c r="J44" s="333"/>
+      <c r="K44" s="333"/>
+      <c r="L44" s="333"/>
       <c r="M44" s="332"/>
       <c r="N44" s="332"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="70"/>
       <c r="C45" s="332"/>
-      <c r="D45" s="334"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="334"/>
-      <c r="I45" s="334"/>
-      <c r="J45" s="334"/>
-      <c r="K45" s="334"/>
+      <c r="D45" s="333"/>
+      <c r="E45" s="333"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="333"/>
+      <c r="K45" s="333"/>
       <c r="L45" s="70"/>
       <c r="M45" s="332"/>
       <c r="N45" s="332"/>
@@ -21530,10 +21530,10 @@
       <c r="N47" s="332"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="333" t="s">
+      <c r="B48" s="337" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="333"/>
+      <c r="C48" s="337"/>
       <c r="D48" s="66"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
@@ -21789,13 +21789,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="M41:N41"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="M47:N47"/>
     <mergeCell ref="B48:C48"/>
@@ -21806,6 +21799,13 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="C45:K45"/>
     <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{52362334-5560-4A9E-8A6F-761439C705AF}"/>
@@ -28364,88 +28364,88 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103"/>
-      <c r="N1" s="343" t="s">
+      <c r="N1" s="359" t="s">
         <v>527</v>
       </c>
-      <c r="O1" s="345" t="s">
+      <c r="O1" s="361" t="s">
         <v>528</v>
       </c>
-      <c r="P1" s="345"/>
-      <c r="Q1" s="345"/>
-      <c r="R1" s="345"/>
-      <c r="S1" s="345"/>
-      <c r="T1" s="345"/>
-      <c r="U1" s="345"/>
-      <c r="V1" s="345"/>
-      <c r="W1" s="345"/>
-      <c r="X1" s="345"/>
-      <c r="Y1" s="345"/>
-      <c r="Z1" s="346"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="361"/>
+      <c r="S1" s="361"/>
+      <c r="T1" s="361"/>
+      <c r="U1" s="361"/>
+      <c r="V1" s="361"/>
+      <c r="W1" s="361"/>
+      <c r="X1" s="361"/>
+      <c r="Y1" s="361"/>
+      <c r="Z1" s="362"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="249" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="347" t="s">
+      <c r="B2" s="363" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="348"/>
-      <c r="K2" s="349"/>
-      <c r="N2" s="344"/>
-      <c r="O2" s="350" t="s">
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="364"/>
+      <c r="K2" s="365"/>
+      <c r="N2" s="360"/>
+      <c r="O2" s="366" t="s">
         <v>530</v>
       </c>
-      <c r="P2" s="351"/>
-      <c r="Q2" s="351"/>
-      <c r="R2" s="352"/>
-      <c r="S2" s="351" t="s">
+      <c r="P2" s="367"/>
+      <c r="Q2" s="367"/>
+      <c r="R2" s="368"/>
+      <c r="S2" s="367" t="s">
         <v>531</v>
       </c>
-      <c r="T2" s="351"/>
-      <c r="U2" s="351"/>
-      <c r="V2" s="351"/>
-      <c r="W2" s="350" t="s">
+      <c r="T2" s="367"/>
+      <c r="U2" s="367"/>
+      <c r="V2" s="367"/>
+      <c r="W2" s="366" t="s">
         <v>532</v>
       </c>
-      <c r="X2" s="351"/>
-      <c r="Y2" s="351"/>
-      <c r="Z2" s="353"/>
+      <c r="X2" s="367"/>
+      <c r="Y2" s="367"/>
+      <c r="Z2" s="369"/>
     </row>
     <row r="3" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="357" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="356">
+      <c r="B3" s="345">
         <v>2020</v>
       </c>
-      <c r="C3" s="356">
+      <c r="C3" s="345">
         <v>2030</v>
       </c>
-      <c r="D3" s="356">
+      <c r="D3" s="345">
         <v>2040</v>
       </c>
-      <c r="E3" s="356">
+      <c r="E3" s="345">
         <v>2050</v>
       </c>
-      <c r="F3" s="369">
+      <c r="F3" s="356">
         <v>2030</v>
       </c>
-      <c r="G3" s="359"/>
-      <c r="H3" s="358">
+      <c r="G3" s="344"/>
+      <c r="H3" s="343">
         <v>2050</v>
       </c>
-      <c r="I3" s="359"/>
-      <c r="J3" s="356" t="s">
+      <c r="I3" s="344"/>
+      <c r="J3" s="345" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="356" t="s">
+      <c r="K3" s="345" t="s">
         <v>76</v>
       </c>
       <c r="N3" s="250" t="s">
@@ -28489,11 +28489,11 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="355"/>
-      <c r="B4" s="357"/>
-      <c r="C4" s="357"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
+      <c r="A4" s="358"/>
+      <c r="B4" s="346"/>
+      <c r="C4" s="346"/>
+      <c r="D4" s="346"/>
+      <c r="E4" s="346"/>
       <c r="F4" s="253" t="s">
         <v>78</v>
       </c>
@@ -28506,8 +28506,8 @@
       <c r="I4" s="253" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="357"/>
-      <c r="K4" s="357"/>
+      <c r="J4" s="346"/>
+      <c r="K4" s="346"/>
       <c r="N4" s="254" t="s">
         <v>538</v>
       </c>
@@ -29194,12 +29194,12 @@
       <c r="A18" s="262" t="s">
         <v>557</v>
       </c>
-      <c r="B18" s="360" t="s">
+      <c r="B18" s="347" t="s">
         <v>558</v>
       </c>
-      <c r="C18" s="361"/>
-      <c r="D18" s="361"/>
-      <c r="E18" s="362"/>
+      <c r="C18" s="348"/>
+      <c r="D18" s="348"/>
+      <c r="E18" s="349"/>
       <c r="F18" s="286"/>
       <c r="G18" s="286"/>
       <c r="H18" s="286"/>
@@ -29211,10 +29211,10 @@
       <c r="A19" s="262" t="s">
         <v>559</v>
       </c>
-      <c r="B19" s="363"/>
-      <c r="C19" s="364"/>
-      <c r="D19" s="364"/>
-      <c r="E19" s="365"/>
+      <c r="B19" s="350"/>
+      <c r="C19" s="351"/>
+      <c r="D19" s="351"/>
+      <c r="E19" s="352"/>
       <c r="F19" s="286"/>
       <c r="G19" s="286"/>
       <c r="H19" s="286"/>
@@ -29226,10 +29226,10 @@
       <c r="A20" s="262" t="s">
         <v>560</v>
       </c>
-      <c r="B20" s="363"/>
-      <c r="C20" s="364"/>
-      <c r="D20" s="364"/>
-      <c r="E20" s="365"/>
+      <c r="B20" s="350"/>
+      <c r="C20" s="351"/>
+      <c r="D20" s="351"/>
+      <c r="E20" s="352"/>
       <c r="F20" s="286"/>
       <c r="G20" s="286"/>
       <c r="H20" s="286"/>
@@ -29241,10 +29241,10 @@
       <c r="A21" s="262" t="s">
         <v>561</v>
       </c>
-      <c r="B21" s="363"/>
-      <c r="C21" s="364"/>
-      <c r="D21" s="364"/>
-      <c r="E21" s="365"/>
+      <c r="B21" s="350"/>
+      <c r="C21" s="351"/>
+      <c r="D21" s="351"/>
+      <c r="E21" s="352"/>
       <c r="F21" s="286"/>
       <c r="G21" s="286"/>
       <c r="H21" s="286"/>
@@ -29256,10 +29256,10 @@
       <c r="A22" s="287" t="s">
         <v>562</v>
       </c>
-      <c r="B22" s="363"/>
-      <c r="C22" s="364"/>
-      <c r="D22" s="364"/>
-      <c r="E22" s="365"/>
+      <c r="B22" s="350"/>
+      <c r="C22" s="351"/>
+      <c r="D22" s="351"/>
+      <c r="E22" s="352"/>
       <c r="F22" s="259"/>
       <c r="G22" s="259"/>
       <c r="H22" s="259"/>
@@ -29604,12 +29604,12 @@
       <c r="A38" s="262" t="s">
         <v>578</v>
       </c>
-      <c r="B38" s="366" t="s">
+      <c r="B38" s="353" t="s">
         <v>558</v>
       </c>
-      <c r="C38" s="367"/>
-      <c r="D38" s="367"/>
-      <c r="E38" s="368"/>
+      <c r="C38" s="354"/>
+      <c r="D38" s="354"/>
+      <c r="E38" s="355"/>
       <c r="F38" s="286"/>
       <c r="G38" s="286"/>
       <c r="H38" s="286"/>
@@ -29896,23 +29896,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="B18:E22"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="INDEX" display="Electric boiler, 10 kV, steam" xr:uid="{50D20602-7AD5-4D34-B672-36376F983B66}"/>

--- a/VT_REG_ALL.xlsx
+++ b/VT_REG_ALL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9D6DBB-8703-431D-87E3-0F2C508D18AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C6D670-D6D9-4F33-BD1C-CBA0EE7303EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pri_RNW" sheetId="142" r:id="rId1"/>
@@ -13267,6 +13267,9 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13278,9 +13281,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -13296,52 +13296,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13375,6 +13329,52 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -16075,7 +16075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B37DD7-922B-4AE9-953C-BB93BD6E9F87}">
   <dimension ref="B1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="89" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="89" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -16734,8 +16734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E593ED6-EFFA-4D59-BE30-3F65BBC3CC0A}">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17151,18 +17151,18 @@
       <c r="B3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="334" t="s">
+      <c r="C3" s="335" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
-      <c r="K3" s="335"/>
-      <c r="L3" s="335"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
     </row>
     <row r="4" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
@@ -17179,14 +17179,14 @@
       <c r="F4" s="40">
         <v>2050</v>
       </c>
-      <c r="G4" s="336" t="s">
+      <c r="G4" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="336"/>
-      <c r="I4" s="336" t="s">
+      <c r="H4" s="337"/>
+      <c r="I4" s="337" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="336"/>
+      <c r="J4" s="337"/>
       <c r="K4" s="40" t="s">
         <v>75</v>
       </c>
@@ -18261,28 +18261,28 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="70"/>
       <c r="C44" s="332"/>
-      <c r="D44" s="333"/>
-      <c r="E44" s="333"/>
-      <c r="F44" s="333"/>
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
-      <c r="I44" s="333"/>
-      <c r="J44" s="333"/>
-      <c r="K44" s="333"/>
+      <c r="D44" s="334"/>
+      <c r="E44" s="334"/>
+      <c r="F44" s="334"/>
+      <c r="G44" s="334"/>
+      <c r="H44" s="334"/>
+      <c r="I44" s="334"/>
+      <c r="J44" s="334"/>
+      <c r="K44" s="334"/>
       <c r="L44" s="332"/>
       <c r="M44" s="332"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="71"/>
       <c r="B45" s="332"/>
-      <c r="C45" s="333"/>
-      <c r="D45" s="333"/>
-      <c r="E45" s="333"/>
-      <c r="F45" s="333"/>
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="333"/>
-      <c r="J45" s="333"/>
+      <c r="C45" s="334"/>
+      <c r="D45" s="334"/>
+      <c r="E45" s="334"/>
+      <c r="F45" s="334"/>
+      <c r="G45" s="334"/>
+      <c r="H45" s="334"/>
+      <c r="I45" s="334"/>
+      <c r="J45" s="334"/>
       <c r="K45" s="70"/>
       <c r="L45" s="332"/>
       <c r="M45" s="332"/>
@@ -18290,28 +18290,28 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="70"/>
       <c r="C46" s="332"/>
-      <c r="D46" s="333"/>
-      <c r="E46" s="333"/>
-      <c r="F46" s="333"/>
-      <c r="G46" s="333"/>
-      <c r="H46" s="333"/>
-      <c r="I46" s="333"/>
-      <c r="J46" s="333"/>
-      <c r="K46" s="333"/>
+      <c r="D46" s="334"/>
+      <c r="E46" s="334"/>
+      <c r="F46" s="334"/>
+      <c r="G46" s="334"/>
+      <c r="H46" s="334"/>
+      <c r="I46" s="334"/>
+      <c r="J46" s="334"/>
+      <c r="K46" s="334"/>
       <c r="L46" s="332"/>
       <c r="M46" s="332"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
       <c r="B47" s="332"/>
-      <c r="C47" s="333"/>
-      <c r="D47" s="333"/>
-      <c r="E47" s="333"/>
-      <c r="F47" s="333"/>
-      <c r="G47" s="333"/>
-      <c r="H47" s="333"/>
-      <c r="I47" s="333"/>
-      <c r="J47" s="333"/>
+      <c r="C47" s="334"/>
+      <c r="D47" s="334"/>
+      <c r="E47" s="334"/>
+      <c r="F47" s="334"/>
+      <c r="G47" s="334"/>
+      <c r="H47" s="334"/>
+      <c r="I47" s="334"/>
+      <c r="J47" s="334"/>
       <c r="K47" s="70"/>
       <c r="L47" s="332"/>
       <c r="M47" s="332"/>
@@ -18337,10 +18337,10 @@
       <c r="M49" s="332"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="337" t="s">
+      <c r="A50" s="333" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="337"/>
+      <c r="B50" s="333"/>
       <c r="C50" s="66"/>
       <c r="D50" s="66"/>
       <c r="E50" s="66"/>
@@ -18726,6 +18726,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="L43:M43"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="A50:B50"/>
@@ -18736,13 +18743,6 @@
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="B47:J47"/>
     <mergeCell ref="L47:M47"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="L43:M43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{A053F0A3-2E5C-42AE-BE4C-81251A11866E}"/>
@@ -18772,18 +18772,18 @@
       <c r="D3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="334" t="s">
+      <c r="E3" s="335" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
-      <c r="K3" s="335"/>
-      <c r="L3" s="335"/>
-      <c r="M3" s="335"/>
-      <c r="N3" s="335"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="37"/>
@@ -18800,14 +18800,14 @@
       <c r="H4" s="40">
         <v>2050</v>
       </c>
-      <c r="I4" s="336" t="s">
+      <c r="I4" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="336"/>
-      <c r="K4" s="336" t="s">
+      <c r="J4" s="337"/>
+      <c r="K4" s="337" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="336"/>
+      <c r="L4" s="337"/>
       <c r="M4" s="40" t="s">
         <v>75</v>
       </c>
@@ -19873,28 +19873,28 @@
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="70"/>
       <c r="E44" s="332"/>
-      <c r="F44" s="333"/>
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
-      <c r="I44" s="333"/>
-      <c r="J44" s="333"/>
-      <c r="K44" s="333"/>
-      <c r="L44" s="333"/>
-      <c r="M44" s="333"/>
+      <c r="F44" s="334"/>
+      <c r="G44" s="334"/>
+      <c r="H44" s="334"/>
+      <c r="I44" s="334"/>
+      <c r="J44" s="334"/>
+      <c r="K44" s="334"/>
+      <c r="L44" s="334"/>
+      <c r="M44" s="334"/>
       <c r="N44" s="332"/>
       <c r="O44" s="332"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="71"/>
       <c r="D45" s="332"/>
-      <c r="E45" s="333"/>
-      <c r="F45" s="333"/>
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="333"/>
-      <c r="J45" s="333"/>
-      <c r="K45" s="333"/>
-      <c r="L45" s="333"/>
+      <c r="E45" s="334"/>
+      <c r="F45" s="334"/>
+      <c r="G45" s="334"/>
+      <c r="H45" s="334"/>
+      <c r="I45" s="334"/>
+      <c r="J45" s="334"/>
+      <c r="K45" s="334"/>
+      <c r="L45" s="334"/>
       <c r="M45" s="70"/>
       <c r="N45" s="332"/>
       <c r="O45" s="332"/>
@@ -19902,28 +19902,28 @@
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="70"/>
       <c r="E46" s="332"/>
-      <c r="F46" s="333"/>
-      <c r="G46" s="333"/>
-      <c r="H46" s="333"/>
-      <c r="I46" s="333"/>
-      <c r="J46" s="333"/>
-      <c r="K46" s="333"/>
-      <c r="L46" s="333"/>
-      <c r="M46" s="333"/>
+      <c r="F46" s="334"/>
+      <c r="G46" s="334"/>
+      <c r="H46" s="334"/>
+      <c r="I46" s="334"/>
+      <c r="J46" s="334"/>
+      <c r="K46" s="334"/>
+      <c r="L46" s="334"/>
+      <c r="M46" s="334"/>
       <c r="N46" s="332"/>
       <c r="O46" s="332"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="70"/>
       <c r="D47" s="332"/>
-      <c r="E47" s="333"/>
-      <c r="F47" s="333"/>
-      <c r="G47" s="333"/>
-      <c r="H47" s="333"/>
-      <c r="I47" s="333"/>
-      <c r="J47" s="333"/>
-      <c r="K47" s="333"/>
-      <c r="L47" s="333"/>
+      <c r="E47" s="334"/>
+      <c r="F47" s="334"/>
+      <c r="G47" s="334"/>
+      <c r="H47" s="334"/>
+      <c r="I47" s="334"/>
+      <c r="J47" s="334"/>
+      <c r="K47" s="334"/>
+      <c r="L47" s="334"/>
       <c r="M47" s="70"/>
       <c r="N47" s="332"/>
       <c r="O47" s="332"/>
@@ -19949,10 +19949,10 @@
       <c r="O49" s="332"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="337" t="s">
+      <c r="C50" s="333" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="337"/>
+      <c r="D50" s="333"/>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
       <c r="G50" s="66"/>
@@ -20329,6 +20329,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="N43:O43"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="C50:D50"/>
@@ -20339,13 +20346,6 @@
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="D47:L47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{C8B51AD8-9E69-4FE2-8353-34D9D64EFBEE}"/>
@@ -20375,18 +20375,18 @@
       <c r="C2" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="334" t="s">
+      <c r="D2" s="335" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
+      <c r="L2" s="336"/>
+      <c r="M2" s="336"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
@@ -20403,14 +20403,14 @@
       <c r="G3" s="40">
         <v>2050</v>
       </c>
-      <c r="H3" s="336" t="s">
+      <c r="H3" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336" t="s">
+      <c r="I3" s="337"/>
+      <c r="J3" s="337" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="336"/>
+      <c r="K3" s="337"/>
       <c r="L3" s="40" t="s">
         <v>75</v>
       </c>
@@ -21454,28 +21454,28 @@
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="70"/>
       <c r="D42" s="332"/>
-      <c r="E42" s="333"/>
-      <c r="F42" s="333"/>
-      <c r="G42" s="333"/>
-      <c r="H42" s="333"/>
-      <c r="I42" s="333"/>
-      <c r="J42" s="333"/>
-      <c r="K42" s="333"/>
-      <c r="L42" s="333"/>
+      <c r="E42" s="334"/>
+      <c r="F42" s="334"/>
+      <c r="G42" s="334"/>
+      <c r="H42" s="334"/>
+      <c r="I42" s="334"/>
+      <c r="J42" s="334"/>
+      <c r="K42" s="334"/>
+      <c r="L42" s="334"/>
       <c r="M42" s="332"/>
       <c r="N42" s="332"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="71"/>
       <c r="C43" s="332"/>
-      <c r="D43" s="333"/>
-      <c r="E43" s="333"/>
-      <c r="F43" s="333"/>
-      <c r="G43" s="333"/>
-      <c r="H43" s="333"/>
-      <c r="I43" s="333"/>
-      <c r="J43" s="333"/>
-      <c r="K43" s="333"/>
+      <c r="D43" s="334"/>
+      <c r="E43" s="334"/>
+      <c r="F43" s="334"/>
+      <c r="G43" s="334"/>
+      <c r="H43" s="334"/>
+      <c r="I43" s="334"/>
+      <c r="J43" s="334"/>
+      <c r="K43" s="334"/>
       <c r="L43" s="70"/>
       <c r="M43" s="332"/>
       <c r="N43" s="332"/>
@@ -21483,28 +21483,28 @@
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="70"/>
       <c r="D44" s="332"/>
-      <c r="E44" s="333"/>
-      <c r="F44" s="333"/>
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
-      <c r="I44" s="333"/>
-      <c r="J44" s="333"/>
-      <c r="K44" s="333"/>
-      <c r="L44" s="333"/>
+      <c r="E44" s="334"/>
+      <c r="F44" s="334"/>
+      <c r="G44" s="334"/>
+      <c r="H44" s="334"/>
+      <c r="I44" s="334"/>
+      <c r="J44" s="334"/>
+      <c r="K44" s="334"/>
+      <c r="L44" s="334"/>
       <c r="M44" s="332"/>
       <c r="N44" s="332"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="70"/>
       <c r="C45" s="332"/>
-      <c r="D45" s="333"/>
-      <c r="E45" s="333"/>
-      <c r="F45" s="333"/>
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="333"/>
-      <c r="J45" s="333"/>
-      <c r="K45" s="333"/>
+      <c r="D45" s="334"/>
+      <c r="E45" s="334"/>
+      <c r="F45" s="334"/>
+      <c r="G45" s="334"/>
+      <c r="H45" s="334"/>
+      <c r="I45" s="334"/>
+      <c r="J45" s="334"/>
+      <c r="K45" s="334"/>
       <c r="L45" s="70"/>
       <c r="M45" s="332"/>
       <c r="N45" s="332"/>
@@ -21530,10 +21530,10 @@
       <c r="N47" s="332"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="337" t="s">
+      <c r="B48" s="333" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="337"/>
+      <c r="C48" s="333"/>
       <c r="D48" s="66"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
@@ -21789,6 +21789,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="M41:N41"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="M47:N47"/>
     <mergeCell ref="B48:C48"/>
@@ -21799,13 +21806,6 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="C45:K45"/>
     <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{52362334-5560-4A9E-8A6F-761439C705AF}"/>
@@ -28364,88 +28364,88 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103"/>
-      <c r="N1" s="359" t="s">
+      <c r="N1" s="343" t="s">
         <v>527</v>
       </c>
-      <c r="O1" s="361" t="s">
+      <c r="O1" s="345" t="s">
         <v>528</v>
       </c>
-      <c r="P1" s="361"/>
-      <c r="Q1" s="361"/>
-      <c r="R1" s="361"/>
-      <c r="S1" s="361"/>
-      <c r="T1" s="361"/>
-      <c r="U1" s="361"/>
-      <c r="V1" s="361"/>
-      <c r="W1" s="361"/>
-      <c r="X1" s="361"/>
-      <c r="Y1" s="361"/>
-      <c r="Z1" s="362"/>
+      <c r="P1" s="345"/>
+      <c r="Q1" s="345"/>
+      <c r="R1" s="345"/>
+      <c r="S1" s="345"/>
+      <c r="T1" s="345"/>
+      <c r="U1" s="345"/>
+      <c r="V1" s="345"/>
+      <c r="W1" s="345"/>
+      <c r="X1" s="345"/>
+      <c r="Y1" s="345"/>
+      <c r="Z1" s="346"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="249" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="363" t="s">
+      <c r="B2" s="347" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
-      <c r="I2" s="364"/>
-      <c r="J2" s="364"/>
-      <c r="K2" s="365"/>
-      <c r="N2" s="360"/>
-      <c r="O2" s="366" t="s">
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="348"/>
+      <c r="I2" s="348"/>
+      <c r="J2" s="348"/>
+      <c r="K2" s="349"/>
+      <c r="N2" s="344"/>
+      <c r="O2" s="350" t="s">
         <v>530</v>
       </c>
-      <c r="P2" s="367"/>
-      <c r="Q2" s="367"/>
-      <c r="R2" s="368"/>
-      <c r="S2" s="367" t="s">
+      <c r="P2" s="351"/>
+      <c r="Q2" s="351"/>
+      <c r="R2" s="352"/>
+      <c r="S2" s="351" t="s">
         <v>531</v>
       </c>
-      <c r="T2" s="367"/>
-      <c r="U2" s="367"/>
-      <c r="V2" s="367"/>
-      <c r="W2" s="366" t="s">
+      <c r="T2" s="351"/>
+      <c r="U2" s="351"/>
+      <c r="V2" s="351"/>
+      <c r="W2" s="350" t="s">
         <v>532</v>
       </c>
-      <c r="X2" s="367"/>
-      <c r="Y2" s="367"/>
-      <c r="Z2" s="369"/>
+      <c r="X2" s="351"/>
+      <c r="Y2" s="351"/>
+      <c r="Z2" s="353"/>
     </row>
     <row r="3" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="354" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="345">
+      <c r="B3" s="356">
         <v>2020</v>
       </c>
-      <c r="C3" s="345">
+      <c r="C3" s="356">
         <v>2030</v>
       </c>
-      <c r="D3" s="345">
+      <c r="D3" s="356">
         <v>2040</v>
       </c>
-      <c r="E3" s="345">
+      <c r="E3" s="356">
         <v>2050</v>
       </c>
-      <c r="F3" s="356">
+      <c r="F3" s="369">
         <v>2030</v>
       </c>
-      <c r="G3" s="344"/>
-      <c r="H3" s="343">
+      <c r="G3" s="359"/>
+      <c r="H3" s="358">
         <v>2050</v>
       </c>
-      <c r="I3" s="344"/>
-      <c r="J3" s="345" t="s">
+      <c r="I3" s="359"/>
+      <c r="J3" s="356" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="345" t="s">
+      <c r="K3" s="356" t="s">
         <v>76</v>
       </c>
       <c r="N3" s="250" t="s">
@@ -28489,11 +28489,11 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="358"/>
-      <c r="B4" s="346"/>
-      <c r="C4" s="346"/>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
+      <c r="A4" s="355"/>
+      <c r="B4" s="357"/>
+      <c r="C4" s="357"/>
+      <c r="D4" s="357"/>
+      <c r="E4" s="357"/>
       <c r="F4" s="253" t="s">
         <v>78</v>
       </c>
@@ -28506,8 +28506,8 @@
       <c r="I4" s="253" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="346"/>
-      <c r="K4" s="346"/>
+      <c r="J4" s="357"/>
+      <c r="K4" s="357"/>
       <c r="N4" s="254" t="s">
         <v>538</v>
       </c>
@@ -29194,12 +29194,12 @@
       <c r="A18" s="262" t="s">
         <v>557</v>
       </c>
-      <c r="B18" s="347" t="s">
+      <c r="B18" s="360" t="s">
         <v>558</v>
       </c>
-      <c r="C18" s="348"/>
-      <c r="D18" s="348"/>
-      <c r="E18" s="349"/>
+      <c r="C18" s="361"/>
+      <c r="D18" s="361"/>
+      <c r="E18" s="362"/>
       <c r="F18" s="286"/>
       <c r="G18" s="286"/>
       <c r="H18" s="286"/>
@@ -29211,10 +29211,10 @@
       <c r="A19" s="262" t="s">
         <v>559</v>
       </c>
-      <c r="B19" s="350"/>
-      <c r="C19" s="351"/>
-      <c r="D19" s="351"/>
-      <c r="E19" s="352"/>
+      <c r="B19" s="363"/>
+      <c r="C19" s="364"/>
+      <c r="D19" s="364"/>
+      <c r="E19" s="365"/>
       <c r="F19" s="286"/>
       <c r="G19" s="286"/>
       <c r="H19" s="286"/>
@@ -29226,10 +29226,10 @@
       <c r="A20" s="262" t="s">
         <v>560</v>
       </c>
-      <c r="B20" s="350"/>
-      <c r="C20" s="351"/>
-      <c r="D20" s="351"/>
-      <c r="E20" s="352"/>
+      <c r="B20" s="363"/>
+      <c r="C20" s="364"/>
+      <c r="D20" s="364"/>
+      <c r="E20" s="365"/>
       <c r="F20" s="286"/>
       <c r="G20" s="286"/>
       <c r="H20" s="286"/>
@@ -29241,10 +29241,10 @@
       <c r="A21" s="262" t="s">
         <v>561</v>
       </c>
-      <c r="B21" s="350"/>
-      <c r="C21" s="351"/>
-      <c r="D21" s="351"/>
-      <c r="E21" s="352"/>
+      <c r="B21" s="363"/>
+      <c r="C21" s="364"/>
+      <c r="D21" s="364"/>
+      <c r="E21" s="365"/>
       <c r="F21" s="286"/>
       <c r="G21" s="286"/>
       <c r="H21" s="286"/>
@@ -29256,10 +29256,10 @@
       <c r="A22" s="287" t="s">
         <v>562</v>
       </c>
-      <c r="B22" s="350"/>
-      <c r="C22" s="351"/>
-      <c r="D22" s="351"/>
-      <c r="E22" s="352"/>
+      <c r="B22" s="363"/>
+      <c r="C22" s="364"/>
+      <c r="D22" s="364"/>
+      <c r="E22" s="365"/>
       <c r="F22" s="259"/>
       <c r="G22" s="259"/>
       <c r="H22" s="259"/>
@@ -29604,12 +29604,12 @@
       <c r="A38" s="262" t="s">
         <v>578</v>
       </c>
-      <c r="B38" s="353" t="s">
+      <c r="B38" s="366" t="s">
         <v>558</v>
       </c>
-      <c r="C38" s="354"/>
-      <c r="D38" s="354"/>
-      <c r="E38" s="355"/>
+      <c r="C38" s="367"/>
+      <c r="D38" s="367"/>
+      <c r="E38" s="368"/>
       <c r="F38" s="286"/>
       <c r="G38" s="286"/>
       <c r="H38" s="286"/>
@@ -29896,23 +29896,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B18:E22"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:Z1"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B18:E22"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="INDEX" display="Electric boiler, 10 kV, steam" xr:uid="{50D20602-7AD5-4D34-B672-36376F983B66}"/>

--- a/VT_REG_ALL.xlsx
+++ b/VT_REG_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C6D670-D6D9-4F33-BD1C-CBA0EE7303EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F52ABF-3514-4130-A0CD-384BEDC13CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pri_RNW" sheetId="142" r:id="rId1"/>
@@ -9032,7 +9032,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="631">
   <si>
     <t>CommName</t>
   </si>
@@ -15570,7 +15570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EFECA6-D9ED-478E-8A25-A85F29B7EE32}">
   <dimension ref="D8:AK20"/>
   <sheetViews>
-    <sheetView topLeftCell="I2" zoomScale="78" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="78" workbookViewId="0">
       <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
@@ -16075,8 +16075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B37DD7-922B-4AE9-953C-BB93BD6E9F87}">
   <dimension ref="B1:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="89" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16489,6 +16489,9 @@
       <c r="K17" s="326" t="s">
         <v>267</v>
       </c>
+      <c r="L17" s="87" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="6:20" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="10" t="s">
@@ -16507,6 +16510,7 @@
       <c r="K18" s="10" t="s">
         <v>607</v>
       </c>
+      <c r="L18" s="89"/>
     </row>
     <row r="19" spans="6:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="11" t="s">
@@ -16522,6 +16526,7 @@
       <c r="K19" s="32" t="s">
         <v>617</v>
       </c>
+      <c r="L19" s="90"/>
       <c r="O19" t="s">
         <v>612</v>
       </c>
@@ -16544,6 +16549,9 @@
       </c>
       <c r="H20" s="327"/>
       <c r="I20" s="327"/>
+      <c r="L20">
+        <v>2030</v>
+      </c>
     </row>
     <row r="21" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F21" s="111" t="s">
@@ -16552,6 +16560,9 @@
       <c r="G21" t="s">
         <v>595</v>
       </c>
+      <c r="L21">
+        <v>2030</v>
+      </c>
       <c r="N21">
         <v>2030</v>
       </c>
@@ -16576,6 +16587,9 @@
       <c r="G22" t="s">
         <v>596</v>
       </c>
+      <c r="L22">
+        <v>2030</v>
+      </c>
       <c r="N22">
         <v>2040</v>
       </c>
@@ -16590,6 +16604,9 @@
       <c r="G23" t="s">
         <v>608</v>
       </c>
+      <c r="L23">
+        <v>2030</v>
+      </c>
       <c r="N23">
         <v>2050</v>
       </c>
@@ -16611,6 +16628,9 @@
       <c r="G24" t="s">
         <v>609</v>
       </c>
+      <c r="L24">
+        <v>2030</v>
+      </c>
     </row>
     <row r="25" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
@@ -16626,6 +16646,9 @@
         <f>O21/1000</f>
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="L25">
+        <v>2030</v>
+      </c>
     </row>
     <row r="26" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
@@ -16680,6 +16703,9 @@
       </c>
       <c r="K29">
         <v>11.7</v>
+      </c>
+      <c r="L29">
+        <v>2030</v>
       </c>
       <c r="O29" t="s">
         <v>613</v>
@@ -16734,7 +16760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E593ED6-EFFA-4D59-BE30-3F65BBC3CC0A}">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -29926,7 +29952,7 @@
   <dimension ref="B1:W33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/VT_REG_ALL.xlsx
+++ b/VT_REG_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F52ABF-3514-4130-A0CD-384BEDC13CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C173C79F-8E9B-4DFD-A527-B7A2FF030159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pri_RNW" sheetId="142" r:id="rId1"/>
@@ -9884,9 +9884,6 @@
   </si>
   <si>
     <t>CAPACT</t>
-  </si>
-  <si>
-    <t>COM_PROJ~2020</t>
   </si>
   <si>
     <t>COM_PROJ~0</t>
@@ -11235,6 +11232,9 @@
   </si>
   <si>
     <t>Export of KRE</t>
+  </si>
+  <si>
+    <t>COM_PROJ~2030</t>
   </si>
 </sst>
 </file>
@@ -13267,9 +13267,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13281,6 +13278,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -13296,6 +13296,52 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13329,52 +13375,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -14349,10 +14349,10 @@
         <v>44</v>
       </c>
       <c r="Z6" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA6" t="s">
         <v>501</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>502</v>
       </c>
       <c r="AB6" t="s">
         <v>45</v>
@@ -14437,7 +14437,7 @@
         <v>64</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="3:32" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -14489,7 +14489,7 @@
         <v>65</v>
       </c>
       <c r="T9" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="3:32" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -14536,16 +14536,16 @@
     </row>
     <row r="11" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D11" t="s">
         <v>503</v>
       </c>
-      <c r="D11" t="s">
-        <v>504</v>
-      </c>
       <c r="F11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I11" s="106">
         <v>2025</v>
@@ -14681,10 +14681,10 @@
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I15" s="93">
         <v>2030</v>
@@ -14718,10 +14718,10 @@
         <v>60</v>
       </c>
       <c r="Z15" t="s">
+        <v>502</v>
+      </c>
+      <c r="AA15" t="s">
         <v>503</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>504</v>
       </c>
       <c r="AB15" s="92" t="s">
         <v>45</v>
@@ -14733,7 +14733,7 @@
         <v>224</v>
       </c>
       <c r="AE15" s="93" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF15" s="92" t="s">
         <v>244</v>
@@ -14772,10 +14772,10 @@
     </row>
     <row r="19" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I19" s="93">
         <v>2040</v>
@@ -14835,10 +14835,10 @@
     </row>
     <row r="23" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I23" s="93">
         <v>2050</v>
@@ -14992,10 +14992,10 @@
         <v>44</v>
       </c>
       <c r="AC8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AD8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AE8" t="s">
         <v>45</v>
@@ -15080,7 +15080,7 @@
         <v>64</v>
       </c>
       <c r="W10" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="6:35" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -15132,7 +15132,7 @@
         <v>65</v>
       </c>
       <c r="W11" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="6:35" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -15179,16 +15179,16 @@
     </row>
     <row r="13" spans="6:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F13" s="246" t="s">
+        <v>505</v>
+      </c>
+      <c r="G13" s="247" t="s">
         <v>506</v>
-      </c>
-      <c r="G13" s="247" t="s">
-        <v>507</v>
       </c>
       <c r="I13" t="s">
         <v>180</v>
       </c>
       <c r="J13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L13" s="106">
         <v>2020</v>
@@ -15275,7 +15275,7 @@
     </row>
     <row r="15" spans="6:35" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O15">
         <f>'102 Hydrogen to Jet'!B9/('102 Hydrogen to Jet'!$P$13*1000)</f>
@@ -15335,7 +15335,7 @@
         <v>180</v>
       </c>
       <c r="J17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L17" s="93">
         <v>2030</v>
@@ -15373,10 +15373,10 @@
         <v>60</v>
       </c>
       <c r="AC17" s="246" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD17" s="247" t="s">
         <v>506</v>
-      </c>
-      <c r="AD17" s="247" t="s">
-        <v>507</v>
       </c>
       <c r="AE17" s="92" t="s">
         <v>45</v>
@@ -15388,7 +15388,7 @@
         <v>224</v>
       </c>
       <c r="AH17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AI17" s="92" t="s">
         <v>244</v>
@@ -15408,7 +15408,7 @@
     </row>
     <row r="19" spans="8:35" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O19">
         <f>'102 Hydrogen to Jet'!C9/('102 Hydrogen to Jet'!P13*1000)</f>
@@ -15431,7 +15431,7 @@
         <v>180</v>
       </c>
       <c r="J21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L21" s="93">
         <v>2040</v>
@@ -15477,7 +15477,7 @@
     </row>
     <row r="23" spans="8:35" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O23">
         <f>'102 Hydrogen to Jet'!D9/('102 Hydrogen to Jet'!P13*1000)</f>
@@ -15498,7 +15498,7 @@
         <v>180</v>
       </c>
       <c r="J25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L25" s="93">
         <v>2050</v>
@@ -15544,7 +15544,7 @@
     </row>
     <row r="27" spans="8:35" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O27">
         <f>'102 Hydrogen to Jet'!E9/('102 Hydrogen to Jet'!P13*1000)</f>
@@ -15672,7 +15672,7 @@
         <v>64</v>
       </c>
       <c r="U9" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AD9" s="30" t="s">
         <v>7</v>
@@ -15748,7 +15748,7 @@
         <v>65</v>
       </c>
       <c r="U10" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AD10" s="32" t="s">
         <v>34</v>
@@ -15822,10 +15822,10 @@
     </row>
     <row r="12" spans="4:37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="D12" s="246" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G12" t="s">
         <v>41</v>
@@ -16044,10 +16044,10 @@
         <v>60</v>
       </c>
       <c r="AE20" s="246" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AF20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG20" s="92" t="s">
         <v>45</v>
@@ -16075,7 +16075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B37DD7-922B-4AE9-953C-BB93BD6E9F87}">
   <dimension ref="B1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="89" workbookViewId="0">
+    <sheetView topLeftCell="C12" zoomScale="89" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -16237,10 +16237,10 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>45</v>
@@ -16278,10 +16278,10 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>45</v>
@@ -16319,23 +16319,23 @@
         <v>249</v>
       </c>
       <c r="F10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I10" s="33"/>
       <c r="R10" s="110" t="s">
         <v>44</v>
       </c>
       <c r="S10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="T10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="U10" t="s">
         <v>45</v>
@@ -16350,10 +16350,10 @@
         <v>249</v>
       </c>
       <c r="F11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>45</v>
@@ -16363,10 +16363,10 @@
         <v>44</v>
       </c>
       <c r="S11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="T11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="U11" t="s">
         <v>45</v>
@@ -16381,10 +16381,10 @@
         <v>44</v>
       </c>
       <c r="S12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="T12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="U12" t="s">
         <v>45</v>
@@ -16399,13 +16399,13 @@
         <v>44</v>
       </c>
       <c r="S13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="U13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="V13" s="110"/>
       <c r="W13" s="110" t="s">
@@ -16417,10 +16417,10 @@
         <v>44</v>
       </c>
       <c r="S14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="T14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="U14" t="s">
         <v>45</v>
@@ -16435,10 +16435,10 @@
         <v>44</v>
       </c>
       <c r="S15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="U15" t="s">
         <v>45</v>
@@ -16457,10 +16457,10 @@
         <v>44</v>
       </c>
       <c r="S16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="U16" t="s">
         <v>45</v>
@@ -16481,13 +16481,13 @@
         <v>6</v>
       </c>
       <c r="I17" s="326" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>61</v>
       </c>
       <c r="K17" s="326" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L17" s="87" t="s">
         <v>68</v>
@@ -16504,11 +16504,11 @@
         <v>33</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L18" s="89"/>
     </row>
@@ -16524,14 +16524,14 @@
       </c>
       <c r="J19" s="32"/>
       <c r="K19" s="32" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L19" s="90"/>
       <c r="O19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S19">
         <v>41.83</v>
@@ -16545,7 +16545,7 @@
         <v>225</v>
       </c>
       <c r="G20" s="327" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H20" s="327"/>
       <c r="I20" s="327"/>
@@ -16558,7 +16558,7 @@
         <v>227</v>
       </c>
       <c r="G21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L21">
         <v>2030</v>
@@ -16570,14 +16570,14 @@
         <v>70</v>
       </c>
       <c r="P21" s="111" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S21">
         <f>S19/1000000000</f>
         <v>4.1829999999999998E-8</v>
       </c>
       <c r="T21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="6:20" x14ac:dyDescent="0.25">
@@ -16585,7 +16585,7 @@
         <v>228</v>
       </c>
       <c r="G22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L22">
         <v>2030</v>
@@ -16599,10 +16599,10 @@
     </row>
     <row r="23" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L23">
         <v>2030</v>
@@ -16618,15 +16618,15 @@
         <v>4.1829999999999998E-5</v>
       </c>
       <c r="T23" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="24" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L24">
         <v>2030</v>
@@ -16634,10 +16634,10 @@
     </row>
     <row r="25" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J25">
         <v>2030</v>
@@ -16652,10 +16652,10 @@
     </row>
     <row r="26" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J26">
         <v>2040</v>
@@ -16667,10 +16667,10 @@
     </row>
     <row r="27" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J27">
         <v>2050</v>
@@ -16682,10 +16682,10 @@
     </row>
     <row r="28" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -16696,10 +16696,10 @@
     </row>
     <row r="29" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K29">
         <v>11.7</v>
@@ -16708,10 +16708,10 @@
         <v>2030</v>
       </c>
       <c r="O29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P29" s="329" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="6:20" ht="14.4" x14ac:dyDescent="0.25">
@@ -16722,10 +16722,10 @@
         <v>90</v>
       </c>
       <c r="R31" s="111" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="S31" s="111" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="17:18" x14ac:dyDescent="0.25">
@@ -16734,7 +16734,7 @@
         <v>90000000</v>
       </c>
       <c r="R33" s="111" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="17:18" x14ac:dyDescent="0.25">
@@ -16743,7 +16743,7 @@
         <v>11.7</v>
       </c>
       <c r="R35" s="111" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -16760,8 +16760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E593ED6-EFFA-4D59-BE30-3F65BBC3CC0A}">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16917,10 +16917,10 @@
         <v>261</v>
       </c>
       <c r="H8" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>262</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>263</v>
       </c>
       <c r="K8" s="30" t="s">
         <v>11</v>
@@ -17029,7 +17029,7 @@
         <v>45</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P11" s="33" t="s">
         <v>248</v>
@@ -17075,7 +17075,7 @@
         <v>45</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P12" s="33" t="s">
         <v>248</v>
@@ -17108,13 +17108,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17138,7 +17138,7 @@
         <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19">
         <v>2030</v>
@@ -17177,18 +17177,18 @@
       <c r="B3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="335" t="s">
+      <c r="C3" s="334" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
     </row>
     <row r="4" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
@@ -17205,14 +17205,14 @@
       <c r="F4" s="40">
         <v>2050</v>
       </c>
-      <c r="G4" s="337" t="s">
+      <c r="G4" s="336" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="337"/>
-      <c r="I4" s="337" t="s">
+      <c r="H4" s="336"/>
+      <c r="I4" s="336" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="337"/>
+      <c r="J4" s="336"/>
       <c r="K4" s="40" t="s">
         <v>75</v>
       </c>
@@ -18287,28 +18287,28 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="70"/>
       <c r="C44" s="332"/>
-      <c r="D44" s="334"/>
-      <c r="E44" s="334"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
+      <c r="D44" s="333"/>
+      <c r="E44" s="333"/>
+      <c r="F44" s="333"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="333"/>
+      <c r="I44" s="333"/>
+      <c r="J44" s="333"/>
+      <c r="K44" s="333"/>
       <c r="L44" s="332"/>
       <c r="M44" s="332"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="71"/>
       <c r="B45" s="332"/>
-      <c r="C45" s="334"/>
-      <c r="D45" s="334"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="334"/>
-      <c r="I45" s="334"/>
-      <c r="J45" s="334"/>
+      <c r="C45" s="333"/>
+      <c r="D45" s="333"/>
+      <c r="E45" s="333"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="333"/>
       <c r="K45" s="70"/>
       <c r="L45" s="332"/>
       <c r="M45" s="332"/>
@@ -18316,28 +18316,28 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="70"/>
       <c r="C46" s="332"/>
-      <c r="D46" s="334"/>
-      <c r="E46" s="334"/>
-      <c r="F46" s="334"/>
-      <c r="G46" s="334"/>
-      <c r="H46" s="334"/>
-      <c r="I46" s="334"/>
-      <c r="J46" s="334"/>
-      <c r="K46" s="334"/>
+      <c r="D46" s="333"/>
+      <c r="E46" s="333"/>
+      <c r="F46" s="333"/>
+      <c r="G46" s="333"/>
+      <c r="H46" s="333"/>
+      <c r="I46" s="333"/>
+      <c r="J46" s="333"/>
+      <c r="K46" s="333"/>
       <c r="L46" s="332"/>
       <c r="M46" s="332"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
       <c r="B47" s="332"/>
-      <c r="C47" s="334"/>
-      <c r="D47" s="334"/>
-      <c r="E47" s="334"/>
-      <c r="F47" s="334"/>
-      <c r="G47" s="334"/>
-      <c r="H47" s="334"/>
-      <c r="I47" s="334"/>
-      <c r="J47" s="334"/>
+      <c r="C47" s="333"/>
+      <c r="D47" s="333"/>
+      <c r="E47" s="333"/>
+      <c r="F47" s="333"/>
+      <c r="G47" s="333"/>
+      <c r="H47" s="333"/>
+      <c r="I47" s="333"/>
+      <c r="J47" s="333"/>
       <c r="K47" s="70"/>
       <c r="L47" s="332"/>
       <c r="M47" s="332"/>
@@ -18363,10 +18363,10 @@
       <c r="M49" s="332"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="333" t="s">
+      <c r="A50" s="337" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="333"/>
+      <c r="B50" s="337"/>
       <c r="C50" s="66"/>
       <c r="D50" s="66"/>
       <c r="E50" s="66"/>
@@ -18752,13 +18752,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="L43:M43"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="A50:B50"/>
@@ -18769,6 +18762,13 @@
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="B47:J47"/>
     <mergeCell ref="L47:M47"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="L43:M43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{A053F0A3-2E5C-42AE-BE4C-81251A11866E}"/>
@@ -18798,18 +18798,18 @@
       <c r="D3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="335" t="s">
-        <v>291</v>
-      </c>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
+      <c r="E3" s="334" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="37"/>
@@ -18826,14 +18826,14 @@
       <c r="H4" s="40">
         <v>2050</v>
       </c>
-      <c r="I4" s="337" t="s">
+      <c r="I4" s="336" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="337"/>
-      <c r="K4" s="337" t="s">
+      <c r="J4" s="336"/>
+      <c r="K4" s="336" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="337"/>
+      <c r="L4" s="336"/>
       <c r="M4" s="40" t="s">
         <v>75</v>
       </c>
@@ -19512,7 +19512,7 @@
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="37"/>
       <c r="D28" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
@@ -19771,7 +19771,7 @@
     <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C37" s="37"/>
       <c r="D37" s="52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
@@ -19899,28 +19899,28 @@
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="70"/>
       <c r="E44" s="332"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
-      <c r="L44" s="334"/>
-      <c r="M44" s="334"/>
+      <c r="F44" s="333"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="333"/>
+      <c r="I44" s="333"/>
+      <c r="J44" s="333"/>
+      <c r="K44" s="333"/>
+      <c r="L44" s="333"/>
+      <c r="M44" s="333"/>
       <c r="N44" s="332"/>
       <c r="O44" s="332"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="71"/>
       <c r="D45" s="332"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="334"/>
-      <c r="I45" s="334"/>
-      <c r="J45" s="334"/>
-      <c r="K45" s="334"/>
-      <c r="L45" s="334"/>
+      <c r="E45" s="333"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="333"/>
+      <c r="K45" s="333"/>
+      <c r="L45" s="333"/>
       <c r="M45" s="70"/>
       <c r="N45" s="332"/>
       <c r="O45" s="332"/>
@@ -19928,28 +19928,28 @@
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="70"/>
       <c r="E46" s="332"/>
-      <c r="F46" s="334"/>
-      <c r="G46" s="334"/>
-      <c r="H46" s="334"/>
-      <c r="I46" s="334"/>
-      <c r="J46" s="334"/>
-      <c r="K46" s="334"/>
-      <c r="L46" s="334"/>
-      <c r="M46" s="334"/>
+      <c r="F46" s="333"/>
+      <c r="G46" s="333"/>
+      <c r="H46" s="333"/>
+      <c r="I46" s="333"/>
+      <c r="J46" s="333"/>
+      <c r="K46" s="333"/>
+      <c r="L46" s="333"/>
+      <c r="M46" s="333"/>
       <c r="N46" s="332"/>
       <c r="O46" s="332"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="70"/>
       <c r="D47" s="332"/>
-      <c r="E47" s="334"/>
-      <c r="F47" s="334"/>
-      <c r="G47" s="334"/>
-      <c r="H47" s="334"/>
-      <c r="I47" s="334"/>
-      <c r="J47" s="334"/>
-      <c r="K47" s="334"/>
-      <c r="L47" s="334"/>
+      <c r="E47" s="333"/>
+      <c r="F47" s="333"/>
+      <c r="G47" s="333"/>
+      <c r="H47" s="333"/>
+      <c r="I47" s="333"/>
+      <c r="J47" s="333"/>
+      <c r="K47" s="333"/>
+      <c r="L47" s="333"/>
       <c r="M47" s="70"/>
       <c r="N47" s="332"/>
       <c r="O47" s="332"/>
@@ -19975,10 +19975,10 @@
       <c r="O49" s="332"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="333" t="s">
+      <c r="C50" s="337" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="333"/>
+      <c r="D50" s="337"/>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
       <c r="G50" s="66"/>
@@ -20034,7 +20034,7 @@
         <v>67</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E53" s="79"/>
       <c r="F53" s="79"/>
@@ -20053,7 +20053,7 @@
         <v>128</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F54" s="76"/>
       <c r="G54" s="76"/>
@@ -20090,7 +20090,7 @@
         <v>110</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E56" s="75"/>
       <c r="F56" s="75"/>
@@ -20109,7 +20109,7 @@
         <v>132</v>
       </c>
       <c r="D57" s="80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E57" s="80"/>
       <c r="F57" s="80"/>
@@ -20128,7 +20128,7 @@
         <v>121</v>
       </c>
       <c r="D58" s="80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E58" s="80"/>
       <c r="F58" s="80"/>
@@ -20161,7 +20161,7 @@
         <v>137</v>
       </c>
       <c r="D60" s="81" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E60" s="81"/>
       <c r="F60" s="81"/>
@@ -20355,13 +20355,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="N43:O43"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="C50:D50"/>
@@ -20372,6 +20365,13 @@
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="D47:L47"/>
     <mergeCell ref="N47:O47"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{C8B51AD8-9E69-4FE2-8353-34D9D64EFBEE}"/>
@@ -20401,18 +20401,18 @@
       <c r="C2" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="335" t="s">
-        <v>270</v>
-      </c>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
-      <c r="K2" s="336"/>
-      <c r="L2" s="336"/>
-      <c r="M2" s="336"/>
+      <c r="D2" s="334" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
@@ -20429,14 +20429,14 @@
       <c r="G3" s="40">
         <v>2050</v>
       </c>
-      <c r="H3" s="337" t="s">
+      <c r="H3" s="336" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337" t="s">
+      <c r="I3" s="336"/>
+      <c r="J3" s="336" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="337"/>
+      <c r="K3" s="336"/>
       <c r="L3" s="40" t="s">
         <v>75</v>
       </c>
@@ -20472,7 +20472,7 @@
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="37"/>
       <c r="C5" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D5" s="42">
         <v>1</v>
@@ -20613,7 +20613,7 @@
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
       <c r="C10" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D10" s="49">
         <f>100-D9</f>
@@ -20667,7 +20667,7 @@
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D12" s="42">
         <f>D19+(D19*8)</f>
@@ -20769,7 +20769,7 @@
         <v>84.6</v>
       </c>
       <c r="L15" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M15" s="41" t="s">
         <v>89</v>
@@ -20779,7 +20779,7 @@
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D16" s="49">
         <f t="shared" ref="D16:K16" si="3">D15/33.33*39.4-D15</f>
@@ -20821,7 +20821,7 @@
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D17" s="49">
         <f t="shared" ref="D17:K17" si="4">100-D15-D16</f>
@@ -20875,7 +20875,7 @@
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D19" s="49">
         <f>D15/33.33*1000/100</f>
@@ -21031,7 +21031,7 @@
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D24" s="49">
         <v>4</v>
@@ -21079,7 +21079,7 @@
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D26" s="48"/>
       <c r="E26" s="48"/>
@@ -21130,7 +21130,7 @@
         <v>1024.0963855421687</v>
       </c>
       <c r="L27" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M27" s="41" t="s">
         <v>89</v>
@@ -21175,7 +21175,7 @@
         <v>1681.1038480161778</v>
       </c>
       <c r="L28" s="43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M28" s="41" t="s">
         <v>89</v>
@@ -21279,7 +21279,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M31" s="41" t="s">
         <v>122</v>
@@ -21352,7 +21352,7 @@
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
@@ -21480,28 +21480,28 @@
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="70"/>
       <c r="D42" s="332"/>
-      <c r="E42" s="334"/>
-      <c r="F42" s="334"/>
-      <c r="G42" s="334"/>
-      <c r="H42" s="334"/>
-      <c r="I42" s="334"/>
-      <c r="J42" s="334"/>
-      <c r="K42" s="334"/>
-      <c r="L42" s="334"/>
+      <c r="E42" s="333"/>
+      <c r="F42" s="333"/>
+      <c r="G42" s="333"/>
+      <c r="H42" s="333"/>
+      <c r="I42" s="333"/>
+      <c r="J42" s="333"/>
+      <c r="K42" s="333"/>
+      <c r="L42" s="333"/>
       <c r="M42" s="332"/>
       <c r="N42" s="332"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="71"/>
       <c r="C43" s="332"/>
-      <c r="D43" s="334"/>
-      <c r="E43" s="334"/>
-      <c r="F43" s="334"/>
-      <c r="G43" s="334"/>
-      <c r="H43" s="334"/>
-      <c r="I43" s="334"/>
-      <c r="J43" s="334"/>
-      <c r="K43" s="334"/>
+      <c r="D43" s="333"/>
+      <c r="E43" s="333"/>
+      <c r="F43" s="333"/>
+      <c r="G43" s="333"/>
+      <c r="H43" s="333"/>
+      <c r="I43" s="333"/>
+      <c r="J43" s="333"/>
+      <c r="K43" s="333"/>
       <c r="L43" s="70"/>
       <c r="M43" s="332"/>
       <c r="N43" s="332"/>
@@ -21509,28 +21509,28 @@
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="70"/>
       <c r="D44" s="332"/>
-      <c r="E44" s="334"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
-      <c r="L44" s="334"/>
+      <c r="E44" s="333"/>
+      <c r="F44" s="333"/>
+      <c r="G44" s="333"/>
+      <c r="H44" s="333"/>
+      <c r="I44" s="333"/>
+      <c r="J44" s="333"/>
+      <c r="K44" s="333"/>
+      <c r="L44" s="333"/>
       <c r="M44" s="332"/>
       <c r="N44" s="332"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="70"/>
       <c r="C45" s="332"/>
-      <c r="D45" s="334"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="334"/>
-      <c r="I45" s="334"/>
-      <c r="J45" s="334"/>
-      <c r="K45" s="334"/>
+      <c r="D45" s="333"/>
+      <c r="E45" s="333"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="333"/>
+      <c r="K45" s="333"/>
       <c r="L45" s="70"/>
       <c r="M45" s="332"/>
       <c r="N45" s="332"/>
@@ -21556,10 +21556,10 @@
       <c r="N47" s="332"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="333" t="s">
+      <c r="B48" s="337" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="333"/>
+      <c r="C48" s="337"/>
       <c r="D48" s="66"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
@@ -21577,7 +21577,7 @@
         <v>93</v>
       </c>
       <c r="C49" s="75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D49" s="76"/>
       <c r="E49" s="76"/>
@@ -21596,7 +21596,7 @@
         <v>88</v>
       </c>
       <c r="C50" s="75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D50" s="76"/>
       <c r="E50" s="76"/>
@@ -21634,7 +21634,7 @@
         <v>128</v>
       </c>
       <c r="C52" s="75" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E52" s="76"/>
       <c r="F52" s="76"/>
@@ -21652,7 +21652,7 @@
         <v>58</v>
       </c>
       <c r="C53" s="75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D53" s="75"/>
       <c r="E53" s="75"/>
@@ -21671,7 +21671,7 @@
         <v>110</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D54" s="75"/>
       <c r="E54" s="75"/>
@@ -21690,7 +21690,7 @@
         <v>132</v>
       </c>
       <c r="C55" s="80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
@@ -21726,7 +21726,7 @@
         <v>135</v>
       </c>
       <c r="C57" s="81" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D57" s="79"/>
       <c r="E57" s="79"/>
@@ -21815,13 +21815,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="M41:N41"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="M47:N47"/>
     <mergeCell ref="B48:C48"/>
@@ -21832,6 +21825,13 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="C45:K45"/>
     <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{52362334-5560-4A9E-8A6F-761439C705AF}"/>
@@ -21865,7 +21865,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="338" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D3" s="338"/>
       <c r="E3" s="338"/>
@@ -21879,7 +21879,7 @@
     </row>
     <row r="4" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="153" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C4" s="154">
         <v>2020</v>
@@ -21914,19 +21914,19 @@
     </row>
     <row r="5" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="150" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="155" t="s">
         <v>301</v>
       </c>
-      <c r="C5" s="155" t="s">
-        <v>302</v>
-      </c>
       <c r="D5" s="155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E5" s="155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F5" s="155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G5" s="155" t="s">
         <v>78</v>
@@ -22015,7 +22015,7 @@
     </row>
     <row r="8" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="162" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C8" s="163">
         <v>50</v>
@@ -22070,7 +22070,7 @@
     </row>
     <row r="10" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="162" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C10" s="168">
         <v>0.83899999999999997</v>
@@ -22116,7 +22116,7 @@
     </row>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="169" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C11" s="170">
         <v>0.18</v>
@@ -22165,7 +22165,7 @@
     </row>
     <row r="12" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="169" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C12" s="170">
         <v>0.94699999999999995</v>
@@ -22202,7 +22202,7 @@
     </row>
     <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="162" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C13" s="168">
         <v>5.2999999999999999E-2</v>
@@ -22263,7 +22263,7 @@
     </row>
     <row r="15" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="162" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C15" s="171">
         <v>0.82299999999999995</v>
@@ -22298,7 +22298,7 @@
     </row>
     <row r="16" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="162" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C16" s="171">
         <v>0.108</v>
@@ -22335,7 +22335,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="162" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C17" s="171">
         <v>3.7999999999999999E-2</v>
@@ -22383,7 +22383,7 @@
     </row>
     <row r="19" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="169" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C19" s="165">
         <v>0.05</v>
@@ -22416,7 +22416,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="162" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C20" s="165">
         <v>0.03</v>
@@ -22474,7 +22474,7 @@
     </row>
     <row r="22" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="162" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C22" s="164">
         <v>30</v>
@@ -22498,7 +22498,7 @@
     </row>
     <row r="23" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="162" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C23" s="164">
         <v>2</v>
@@ -22522,7 +22522,7 @@
     </row>
     <row r="24" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="161" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C24" s="164"/>
       <c r="D24" s="164"/>
@@ -22537,7 +22537,7 @@
     </row>
     <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="162" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C25" s="172">
         <v>1.6868595874547716</v>
@@ -22573,7 +22573,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="162" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C26" s="164">
         <v>53.169999999999995</v>
@@ -22608,7 +22608,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="162" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C27" s="164">
         <v>53.169999999999995</v>
@@ -22643,7 +22643,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="162" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C28" s="174">
         <v>50.605787623643153</v>
@@ -22678,7 +22678,7 @@
     </row>
     <row r="29" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="162" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C29" s="168">
         <v>2.1267999999999999E-2</v>
@@ -22714,7 +22714,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="162" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C30" s="164" t="s">
         <v>197</v>
@@ -22747,7 +22747,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="161" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C31" s="164"/>
       <c r="D31" s="164"/>
@@ -22797,7 +22797,7 @@
     </row>
     <row r="33" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="162" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C33" s="164">
         <v>18.899999999999999</v>
@@ -22821,12 +22821,12 @@
         <v>5.25</v>
       </c>
       <c r="N33" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="162" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C34" s="164">
         <v>626</v>
@@ -22849,7 +22849,7 @@
     </row>
     <row r="35" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="162" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C35" s="168">
         <v>0.34635128229522749</v>
@@ -22884,7 +22884,7 @@
     </row>
     <row r="36" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="162" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C36" s="172">
         <v>10.390538468856825</v>
@@ -22917,7 +22917,7 @@
     </row>
     <row r="37" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="162" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C37" s="168">
         <v>0.1</v>
@@ -22951,7 +22951,7 @@
     </row>
     <row r="38" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="162" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C38" s="164" t="s">
         <v>197</v>
@@ -23062,7 +23062,7 @@
     </row>
     <row r="45" spans="2:14" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="148" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C45" s="146"/>
       <c r="D45" s="146"/>
@@ -23665,7 +23665,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="339" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D2" s="340"/>
       <c r="E2" s="340"/>
@@ -23680,7 +23680,7 @@
     </row>
     <row r="3" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="153" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C3" s="194">
         <v>2020</v>
@@ -23718,22 +23718,22 @@
     </row>
     <row r="4" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="150" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="155" t="s">
         <v>301</v>
       </c>
-      <c r="C4" s="155" t="s">
-        <v>302</v>
-      </c>
       <c r="D4" s="155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" s="155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F4" s="155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G4" s="155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H4" s="195" t="s">
         <v>78</v>
@@ -23756,7 +23756,7 @@
     </row>
     <row r="5" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="158" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" s="159"/>
       <c r="D5" s="159"/>
@@ -23773,13 +23773,13 @@
         <v>6.11</v>
       </c>
       <c r="R5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -23801,12 +23801,12 @@
         <v>3.5999999999999998E-6</v>
       </c>
       <c r="V6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="162" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C7" s="164">
         <v>300</v>
@@ -23836,7 +23836,7 @@
     </row>
     <row r="8" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="162" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C8" s="164">
         <v>69</v>
@@ -23864,7 +23864,7 @@
         <v>2.1996000000000001E-5</v>
       </c>
       <c r="R8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -23885,7 +23885,7 @@
     </row>
     <row r="10" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="196" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C10" s="197">
         <v>1.4</v>
@@ -23923,7 +23923,7 @@
     </row>
     <row r="11" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="196" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C11" s="198">
         <v>0.19</v>
@@ -23961,7 +23961,7 @@
     </row>
     <row r="12" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="196" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C12" s="198">
         <v>6.4</v>
@@ -23997,7 +23997,7 @@
     </row>
     <row r="13" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="196" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C13" s="198">
         <v>0.1</v>
@@ -24035,7 +24035,7 @@
     </row>
     <row r="14" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="196" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C14" s="198">
         <v>0.57999999999999996</v>
@@ -24089,7 +24089,7 @@
     </row>
     <row r="16" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="196" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C16" s="198">
         <v>0.78</v>
@@ -24123,12 +24123,12 @@
       </c>
       <c r="M16" s="160"/>
       <c r="P16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="196" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C17" s="198">
         <v>0.2</v>
@@ -24164,7 +24164,7 @@
     </row>
     <row r="18" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="196" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C18" s="198">
         <v>0.02</v>
@@ -24200,7 +24200,7 @@
     </row>
     <row r="19" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="196" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C19" s="198">
         <v>0.55000000000000004</v>
@@ -24236,7 +24236,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="162" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C20" s="175">
         <v>5</v>
@@ -24262,7 +24262,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="162" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C21" s="175">
         <v>3</v>
@@ -24288,7 +24288,7 @@
     </row>
     <row r="22" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="162" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C22" s="175">
         <v>30</v>
@@ -24314,7 +24314,7 @@
     </row>
     <row r="23" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="162" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C23" s="175">
         <v>2</v>
@@ -24340,7 +24340,7 @@
     </row>
     <row r="24" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="161" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C24" s="164"/>
       <c r="D24" s="164"/>
@@ -24356,7 +24356,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="162" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C25" s="200">
         <v>1.4355899999999999</v>
@@ -24394,7 +24394,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="162" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C26" s="164">
         <v>79.754999999999995</v>
@@ -24428,7 +24428,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="162" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C27" s="164">
         <v>26.584999999999997</v>
@@ -24462,7 +24462,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="162" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C28" s="174">
         <v>41.472599999999993</v>
@@ -24500,7 +24500,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="162" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C29" s="174">
         <v>0</v>
@@ -24536,7 +24536,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="162" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C30" s="164">
         <v>0</v>
@@ -24570,7 +24570,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="161" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C31" s="164"/>
       <c r="D31" s="164"/>
@@ -24586,7 +24586,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="162" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C32" s="164">
         <v>19.899999999999999</v>
@@ -24612,7 +24612,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="162" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C33" s="164">
         <v>0.79</v>
@@ -24638,7 +24638,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="162" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C34" s="172">
         <v>3</v>
@@ -24672,10 +24672,10 @@
     </row>
     <row r="35" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="162" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C35" s="164" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D35" s="164">
         <v>75</v>
@@ -24698,7 +24698,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="162" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C36" s="164">
         <v>25</v>
@@ -24724,7 +24724,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="162" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C37" s="174">
         <v>9</v>
@@ -24754,7 +24754,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="162" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C38" s="174">
         <v>0</v>
@@ -24780,7 +24780,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="162" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C39" s="164">
         <v>0</v>
@@ -24836,7 +24836,7 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="190" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C42" s="142"/>
       <c r="D42" s="142"/>
@@ -24851,7 +24851,7 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="191" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C43" s="142"/>
       <c r="D43" s="142"/>
@@ -24866,7 +24866,7 @@
     </row>
     <row r="44" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B44" s="191" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C44" s="142"/>
       <c r="D44" s="142"/>
@@ -24881,7 +24881,7 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="191" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C45" s="142"/>
       <c r="D45" s="142"/>
@@ -24896,7 +24896,7 @@
     </row>
     <row r="46" spans="2:13" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B46" s="192" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C46" s="142"/>
       <c r="D46" s="142"/>
@@ -24911,7 +24911,7 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="191" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C47" s="142"/>
       <c r="D47" s="142"/>
@@ -24926,7 +24926,7 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="191" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C48" s="142"/>
       <c r="D48" s="142"/>
@@ -24941,7 +24941,7 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="191" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C49" s="142"/>
       <c r="D49" s="142"/>
@@ -24956,7 +24956,7 @@
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="191" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C50" s="142"/>
       <c r="D50" s="142"/>
@@ -24971,7 +24971,7 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="191" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C51" s="142"/>
       <c r="D51" s="142"/>
@@ -24986,7 +24986,7 @@
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="191" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C52" s="142"/>
       <c r="D52" s="142"/>
@@ -25001,7 +25001,7 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="191" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C53" s="142"/>
       <c r="D53" s="142"/>
@@ -25017,7 +25017,7 @@
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="191" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C54" s="142"/>
       <c r="D54" s="142"/>
@@ -25077,7 +25077,7 @@
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="193" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C58" s="142"/>
       <c r="D58" s="142"/>
@@ -25093,7 +25093,7 @@
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="193" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C59" s="142"/>
       <c r="D59" s="142"/>
@@ -25109,7 +25109,7 @@
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="193" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C60" s="142"/>
       <c r="D60" s="142"/>
@@ -25577,7 +25577,7 @@
         <v>71</v>
       </c>
       <c r="B1" s="341" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1" s="342"/>
       <c r="D1" s="342"/>
@@ -25591,7 +25591,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="134" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" s="135">
         <v>2020</v>
@@ -25626,19 +25626,19 @@
     </row>
     <row r="3" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="138" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="139" t="s">
         <v>301</v>
       </c>
-      <c r="B3" s="139" t="s">
-        <v>302</v>
-      </c>
       <c r="C3" s="139" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D3" s="139" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" s="139" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F3" s="139" t="s">
         <v>78</v>
@@ -25661,7 +25661,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="202" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4" s="140"/>
       <c r="C4" s="203"/>
@@ -25691,7 +25691,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="206" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B6" s="185">
         <v>2</v>
@@ -25718,15 +25718,15 @@
         <v>1.5</v>
       </c>
       <c r="J6" s="186" t="s">
+        <v>431</v>
+      </c>
+      <c r="K6" s="186" t="s">
         <v>432</v>
-      </c>
-      <c r="K6" s="186" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="206" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B7" s="185">
         <v>3.1</v>
@@ -25753,10 +25753,10 @@
         <v>1.5</v>
       </c>
       <c r="J7" s="186" t="s">
+        <v>434</v>
+      </c>
+      <c r="K7" s="186" t="s">
         <v>435</v>
-      </c>
-      <c r="K7" s="186" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -25776,7 +25776,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="206" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B9" s="185">
         <v>4.3</v>
@@ -25803,13 +25803,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J9" s="186" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K9" s="186"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="206" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B10" s="185">
         <v>0.995</v>
@@ -25836,25 +25836,25 @@
         <v>1.25</v>
       </c>
       <c r="J10" s="186" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K10" s="186"/>
       <c r="P10">
         <v>11.95</v>
       </c>
       <c r="Q10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S10">
         <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="206" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B11" s="185">
         <v>5.0000000000000001E-3</v>
@@ -25888,7 +25888,7 @@
         <v>3.5999999999999998E-6</v>
       </c>
       <c r="T11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -25908,7 +25908,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="206" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B13" s="185">
         <v>0.65</v>
@@ -25935,22 +25935,22 @@
         <v>1.2</v>
       </c>
       <c r="J13" s="186" t="s">
+        <v>441</v>
+      </c>
+      <c r="K13" s="186" t="s">
         <v>442</v>
-      </c>
-      <c r="K13" s="186" t="s">
-        <v>443</v>
       </c>
       <c r="P13">
         <f>P10*S11</f>
         <v>4.3019999999999998E-5</v>
       </c>
       <c r="Q13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="206" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B14" s="185">
         <v>0.25</v>
@@ -25983,7 +25983,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="206" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B15" s="185">
         <v>0</v>
@@ -26008,7 +26008,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="206" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B16" s="185">
         <v>3</v>
@@ -26027,7 +26027,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="206" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B17" s="185">
         <v>25</v>
@@ -26044,7 +26044,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="206" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B18" s="185">
         <v>2</v>
@@ -26061,7 +26061,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="141" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B19" s="208"/>
       <c r="C19" s="208"/>
@@ -26076,7 +26076,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="206" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B20" s="209">
         <v>2.2331399999999997</v>
@@ -26103,15 +26103,15 @@
         <v>1.3292499999999998</v>
       </c>
       <c r="J20" s="186" t="s">
+        <v>445</v>
+      </c>
+      <c r="K20" s="186" t="s">
         <v>446</v>
-      </c>
-      <c r="K20" s="186" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="206" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B21" s="185">
         <v>79.754999999999995</v>
@@ -26144,7 +26144,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="206" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B22" s="185">
         <v>26.584999999999997</v>
@@ -26177,7 +26177,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="206" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B23" s="209">
         <v>17.971459999999997</v>
@@ -26212,7 +26212,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="206" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B24" s="209">
         <v>5.6360199999999994</v>
@@ -26247,7 +26247,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="206" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B25" s="185">
         <v>0</v>
@@ -26280,7 +26280,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="205" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B26" s="185"/>
       <c r="C26" s="185"/>
@@ -26295,7 +26295,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="206" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B27" s="185">
         <v>3.3</v>
@@ -26322,15 +26322,15 @@
         <v>1.25</v>
       </c>
       <c r="J27" s="186" t="s">
+        <v>445</v>
+      </c>
+      <c r="K27" s="186" t="s">
         <v>446</v>
-      </c>
-      <c r="K27" s="186" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="206" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B28" s="185">
         <v>75</v>
@@ -26355,7 +26355,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="206" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B29" s="185">
         <v>25</v>
@@ -26378,7 +26378,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="206" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B30" s="209">
         <v>0.16</v>
@@ -26413,7 +26413,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="206" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B31" s="209">
         <v>0.05</v>
@@ -26448,7 +26448,7 @@
     </row>
     <row r="32" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="210" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B32" s="211">
         <v>0</v>
@@ -26499,7 +26499,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="145" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B35" s="142"/>
       <c r="C35" s="142"/>
@@ -26514,7 +26514,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="145" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B36" s="142"/>
       <c r="C36" s="142"/>
@@ -26529,7 +26529,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="145" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B37" s="142"/>
       <c r="C37" s="142"/>
@@ -26544,7 +26544,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="145" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B38" s="142"/>
       <c r="C38" s="142"/>
@@ -26559,7 +26559,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="145" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B39" s="142"/>
       <c r="C39" s="142"/>
@@ -26574,7 +26574,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="145" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B40" s="142"/>
       <c r="C40" s="142"/>
@@ -26589,7 +26589,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="145" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B41" s="142"/>
       <c r="C41" s="142"/>
@@ -26604,7 +26604,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="145" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B42" s="142"/>
       <c r="C42" s="142"/>
@@ -26619,7 +26619,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="145" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B43" s="142"/>
       <c r="C43" s="142"/>
@@ -26634,7 +26634,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="145" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B44" s="142"/>
       <c r="C44" s="142"/>
@@ -26649,7 +26649,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="145" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B45" s="142"/>
       <c r="C45" s="142"/>
@@ -26664,7 +26664,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="145" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B46" s="142"/>
       <c r="C46" s="142"/>
@@ -26679,7 +26679,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="145" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B47" s="142"/>
       <c r="C47" s="142"/>
@@ -26694,7 +26694,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="145" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B48" s="142"/>
       <c r="C48" s="142"/>
@@ -26709,7 +26709,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="145" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B49" s="142"/>
       <c r="C49" s="142"/>
@@ -26925,7 +26925,7 @@
         <v>71</v>
       </c>
       <c r="B1" s="227" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" s="227"/>
       <c r="D1" s="227"/>
@@ -26941,7 +26941,7 @@
     </row>
     <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="228" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" s="229">
         <v>2020</v>
@@ -26980,22 +26980,22 @@
     </row>
     <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="232" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B3" s="230" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C3" s="230" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D3" s="230" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E3" s="230" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F3" s="230" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G3" s="230" t="s">
         <v>78</v>
@@ -27019,7 +27019,7 @@
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="233" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4" s="234"/>
       <c r="C4" s="235"/>
@@ -27053,7 +27053,7 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="238" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B6" s="241">
         <v>0.5</v>
@@ -27086,13 +27086,13 @@
         <v>93</v>
       </c>
       <c r="L6" s="242" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M6" s="216"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="243" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B7" s="239"/>
       <c r="C7" s="239"/>
@@ -27109,7 +27109,7 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="238" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B8" s="241">
         <v>1800</v>
@@ -27146,7 +27146,7 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="238" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B9" s="241"/>
       <c r="C9" s="241"/>
@@ -27165,7 +27165,7 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="238" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B10" s="241">
         <v>1.75</v>
@@ -27204,7 +27204,7 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="238" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B11" s="241">
         <v>100</v>
@@ -27241,7 +27241,7 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="238" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B12" s="241">
         <v>0.25</v>
@@ -27280,7 +27280,7 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="238" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B13" s="241"/>
       <c r="C13" s="241"/>
@@ -27297,7 +27297,7 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="243" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B14" s="241"/>
       <c r="C14" s="241"/>
@@ -27314,7 +27314,7 @@
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="238" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B15" s="241">
         <v>99</v>
@@ -27337,13 +27337,13 @@
       <c r="J15" s="241"/>
       <c r="K15" s="242"/>
       <c r="L15" s="242" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M15" s="216"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="238" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B16" s="241">
         <v>15</v>
@@ -27382,7 +27382,7 @@
     </row>
     <row r="17" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="238" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B17" s="241">
         <v>1</v>
@@ -27415,13 +27415,13 @@
         <v>58</v>
       </c>
       <c r="L17" s="242" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M17" s="216"/>
     </row>
     <row r="18" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="238" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B18" s="241">
         <v>1.25</v>
@@ -27458,7 +27458,7 @@
     </row>
     <row r="19" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="238" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B19" s="241">
         <v>50</v>
@@ -27495,7 +27495,7 @@
     </row>
     <row r="20" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="243" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B20" s="241"/>
       <c r="C20" s="241"/>
@@ -27512,7 +27512,7 @@
     </row>
     <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="238" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B21" s="241">
         <v>5</v>
@@ -27549,7 +27549,7 @@
     </row>
     <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="238" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B22" s="241">
         <v>3</v>
@@ -27586,7 +27586,7 @@
     </row>
     <row r="23" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="238" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B23" s="241">
         <v>20</v>
@@ -27615,7 +27615,7 @@
     </row>
     <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="238" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B24" s="241">
         <v>2</v>
@@ -27652,7 +27652,7 @@
     </row>
     <row r="25" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="237" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B25" s="241"/>
       <c r="C25" s="241"/>
@@ -27669,7 +27669,7 @@
     </row>
     <row r="26" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="238" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B26" s="241">
         <v>6.5</v>
@@ -27708,7 +27708,7 @@
     </row>
     <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="238" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B27" s="241">
         <v>0.34</v>
@@ -27747,7 +27747,7 @@
     </row>
     <row r="28" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="238" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B28" s="241"/>
       <c r="C28" s="241"/>
@@ -27768,7 +27768,7 @@
     </row>
     <row r="29" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="238" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B29" s="241"/>
       <c r="C29" s="241"/>
@@ -27802,7 +27802,7 @@
     </row>
     <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="238" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B31" s="241">
         <v>0.1</v>
@@ -27839,7 +27839,7 @@
     </row>
     <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="238" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B32" s="241">
         <v>0.11</v>
@@ -27878,7 +27878,7 @@
     </row>
     <row r="33" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="238" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B33" s="241">
         <v>0.16</v>
@@ -28390,136 +28390,136 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103"/>
-      <c r="N1" s="343" t="s">
+      <c r="N1" s="359" t="s">
+        <v>526</v>
+      </c>
+      <c r="O1" s="361" t="s">
         <v>527</v>
       </c>
-      <c r="O1" s="345" t="s">
-        <v>528</v>
-      </c>
-      <c r="P1" s="345"/>
-      <c r="Q1" s="345"/>
-      <c r="R1" s="345"/>
-      <c r="S1" s="345"/>
-      <c r="T1" s="345"/>
-      <c r="U1" s="345"/>
-      <c r="V1" s="345"/>
-      <c r="W1" s="345"/>
-      <c r="X1" s="345"/>
-      <c r="Y1" s="345"/>
-      <c r="Z1" s="346"/>
+      <c r="P1" s="361"/>
+      <c r="Q1" s="361"/>
+      <c r="R1" s="361"/>
+      <c r="S1" s="361"/>
+      <c r="T1" s="361"/>
+      <c r="U1" s="361"/>
+      <c r="V1" s="361"/>
+      <c r="W1" s="361"/>
+      <c r="X1" s="361"/>
+      <c r="Y1" s="361"/>
+      <c r="Z1" s="362"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="249" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="347" t="s">
+      <c r="B2" s="363" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="364"/>
+      <c r="K2" s="365"/>
+      <c r="N2" s="360"/>
+      <c r="O2" s="366" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="348"/>
-      <c r="K2" s="349"/>
-      <c r="N2" s="344"/>
-      <c r="O2" s="350" t="s">
+      <c r="P2" s="367"/>
+      <c r="Q2" s="367"/>
+      <c r="R2" s="368"/>
+      <c r="S2" s="367" t="s">
         <v>530</v>
       </c>
-      <c r="P2" s="351"/>
-      <c r="Q2" s="351"/>
-      <c r="R2" s="352"/>
-      <c r="S2" s="351" t="s">
+      <c r="T2" s="367"/>
+      <c r="U2" s="367"/>
+      <c r="V2" s="367"/>
+      <c r="W2" s="366" t="s">
         <v>531</v>
       </c>
-      <c r="T2" s="351"/>
-      <c r="U2" s="351"/>
-      <c r="V2" s="351"/>
-      <c r="W2" s="350" t="s">
+      <c r="X2" s="367"/>
+      <c r="Y2" s="367"/>
+      <c r="Z2" s="369"/>
+    </row>
+    <row r="3" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="357" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="345">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="345">
+        <v>2030</v>
+      </c>
+      <c r="D3" s="345">
+        <v>2040</v>
+      </c>
+      <c r="E3" s="345">
+        <v>2050</v>
+      </c>
+      <c r="F3" s="356">
+        <v>2030</v>
+      </c>
+      <c r="G3" s="344"/>
+      <c r="H3" s="343">
+        <v>2050</v>
+      </c>
+      <c r="I3" s="344"/>
+      <c r="J3" s="345" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="345" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="250" t="s">
         <v>532</v>
       </c>
-      <c r="X2" s="351"/>
-      <c r="Y2" s="351"/>
-      <c r="Z2" s="353"/>
-    </row>
-    <row r="3" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="354" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="356">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="356">
-        <v>2030</v>
-      </c>
-      <c r="D3" s="356">
-        <v>2040</v>
-      </c>
-      <c r="E3" s="356">
-        <v>2050</v>
-      </c>
-      <c r="F3" s="369">
-        <v>2030</v>
-      </c>
-      <c r="G3" s="359"/>
-      <c r="H3" s="358">
-        <v>2050</v>
-      </c>
-      <c r="I3" s="359"/>
-      <c r="J3" s="356" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="356" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="250" t="s">
+      <c r="O3" s="251" t="s">
         <v>533</v>
       </c>
-      <c r="O3" s="251" t="s">
+      <c r="P3" s="251" t="s">
         <v>534</v>
       </c>
-      <c r="P3" s="251" t="s">
+      <c r="Q3" s="251" t="s">
         <v>535</v>
       </c>
-      <c r="Q3" s="251" t="s">
+      <c r="R3" s="251" t="s">
         <v>536</v>
       </c>
-      <c r="R3" s="251" t="s">
-        <v>537</v>
-      </c>
       <c r="S3" s="251" t="s">
+        <v>533</v>
+      </c>
+      <c r="T3" s="251" t="s">
         <v>534</v>
       </c>
-      <c r="T3" s="251" t="s">
+      <c r="U3" s="251" t="s">
         <v>535</v>
       </c>
-      <c r="U3" s="251" t="s">
+      <c r="V3" s="251" t="s">
         <v>536</v>
       </c>
-      <c r="V3" s="251" t="s">
-        <v>537</v>
-      </c>
       <c r="W3" s="251" t="s">
+        <v>533</v>
+      </c>
+      <c r="X3" s="251" t="s">
         <v>534</v>
       </c>
-      <c r="X3" s="251" t="s">
+      <c r="Y3" s="251" t="s">
         <v>535</v>
       </c>
-      <c r="Y3" s="251" t="s">
+      <c r="Z3" s="252" t="s">
         <v>536</v>
       </c>
-      <c r="Z3" s="252" t="s">
-        <v>537</v>
-      </c>
     </row>
     <row r="4" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="355"/>
-      <c r="B4" s="357"/>
-      <c r="C4" s="357"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
+      <c r="A4" s="358"/>
+      <c r="B4" s="346"/>
+      <c r="C4" s="346"/>
+      <c r="D4" s="346"/>
+      <c r="E4" s="346"/>
       <c r="F4" s="253" t="s">
         <v>78</v>
       </c>
@@ -28532,10 +28532,10 @@
       <c r="I4" s="253" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="357"/>
-      <c r="K4" s="357"/>
+      <c r="J4" s="346"/>
+      <c r="K4" s="346"/>
       <c r="N4" s="254" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O4" s="255">
         <v>0</v>
@@ -28576,7 +28576,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="257" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B5" s="258">
         <v>15</v>
@@ -28607,7 +28607,7 @@
       </c>
       <c r="K5" s="260"/>
       <c r="N5" s="261" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O5" s="255">
         <v>0</v>
@@ -28648,7 +28648,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="262" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B6" s="258">
         <v>99</v>
@@ -28676,10 +28676,10 @@
       </c>
       <c r="J6" s="259"/>
       <c r="K6" s="260" t="s">
+        <v>541</v>
+      </c>
+      <c r="N6" s="263" t="s">
         <v>542</v>
-      </c>
-      <c r="N6" s="263" t="s">
-        <v>543</v>
       </c>
       <c r="O6" s="255">
         <v>0</v>
@@ -28720,7 +28720,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="262" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B7" s="264">
         <v>99</v>
@@ -28748,10 +28748,10 @@
       </c>
       <c r="J7" s="259"/>
       <c r="K7" s="260" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N7" s="263" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O7" s="255">
         <v>0</v>
@@ -28792,7 +28792,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="262" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B8" s="258">
         <v>0.5</v>
@@ -28820,10 +28820,10 @@
       </c>
       <c r="J8" s="259"/>
       <c r="K8" s="260" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N8" s="263" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O8" s="255">
         <v>0</v>
@@ -28892,10 +28892,10 @@
       </c>
       <c r="J9" s="259"/>
       <c r="K9" s="260" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N9" s="263" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O9" s="255">
         <v>0</v>
@@ -28936,7 +28936,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="262" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B10" s="258">
         <v>0.2</v>
@@ -28967,7 +28967,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="261" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O10" s="255">
         <v>0</v>
@@ -29039,7 +29039,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="267" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O11" s="268">
         <v>0</v>
@@ -29113,7 +29113,7 @@
     </row>
     <row r="13" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="270" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B13" s="271"/>
       <c r="C13" s="272"/>
@@ -29128,7 +29128,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="262" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B14" s="258">
         <v>2</v>
@@ -29153,7 +29153,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="262" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B15" s="280">
         <v>0.03</v>
@@ -29178,7 +29178,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="262" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B16" s="280">
         <v>0.17</v>
@@ -29203,7 +29203,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="282" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B17" s="283"/>
       <c r="C17" s="284"/>
@@ -29218,14 +29218,14 @@
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="262" t="s">
+        <v>556</v>
+      </c>
+      <c r="B18" s="347" t="s">
         <v>557</v>
       </c>
-      <c r="B18" s="360" t="s">
-        <v>558</v>
-      </c>
-      <c r="C18" s="361"/>
-      <c r="D18" s="361"/>
-      <c r="E18" s="362"/>
+      <c r="C18" s="348"/>
+      <c r="D18" s="348"/>
+      <c r="E18" s="349"/>
       <c r="F18" s="286"/>
       <c r="G18" s="286"/>
       <c r="H18" s="286"/>
@@ -29235,12 +29235,12 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="262" t="s">
-        <v>559</v>
-      </c>
-      <c r="B19" s="363"/>
-      <c r="C19" s="364"/>
-      <c r="D19" s="364"/>
-      <c r="E19" s="365"/>
+        <v>558</v>
+      </c>
+      <c r="B19" s="350"/>
+      <c r="C19" s="351"/>
+      <c r="D19" s="351"/>
+      <c r="E19" s="352"/>
       <c r="F19" s="286"/>
       <c r="G19" s="286"/>
       <c r="H19" s="286"/>
@@ -29250,12 +29250,12 @@
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="262" t="s">
-        <v>560</v>
-      </c>
-      <c r="B20" s="363"/>
-      <c r="C20" s="364"/>
-      <c r="D20" s="364"/>
-      <c r="E20" s="365"/>
+        <v>559</v>
+      </c>
+      <c r="B20" s="350"/>
+      <c r="C20" s="351"/>
+      <c r="D20" s="351"/>
+      <c r="E20" s="352"/>
       <c r="F20" s="286"/>
       <c r="G20" s="286"/>
       <c r="H20" s="286"/>
@@ -29265,12 +29265,12 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="262" t="s">
-        <v>561</v>
-      </c>
-      <c r="B21" s="363"/>
-      <c r="C21" s="364"/>
-      <c r="D21" s="364"/>
-      <c r="E21" s="365"/>
+        <v>560</v>
+      </c>
+      <c r="B21" s="350"/>
+      <c r="C21" s="351"/>
+      <c r="D21" s="351"/>
+      <c r="E21" s="352"/>
       <c r="F21" s="286"/>
       <c r="G21" s="286"/>
       <c r="H21" s="286"/>
@@ -29280,12 +29280,12 @@
     </row>
     <row r="22" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="287" t="s">
-        <v>562</v>
-      </c>
-      <c r="B22" s="363"/>
-      <c r="C22" s="364"/>
-      <c r="D22" s="364"/>
-      <c r="E22" s="365"/>
+        <v>561</v>
+      </c>
+      <c r="B22" s="350"/>
+      <c r="C22" s="351"/>
+      <c r="D22" s="351"/>
+      <c r="E22" s="352"/>
       <c r="F22" s="259"/>
       <c r="G22" s="259"/>
       <c r="H22" s="259"/>
@@ -29295,7 +29295,7 @@
     </row>
     <row r="23" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="288" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B23" s="289"/>
       <c r="C23" s="272"/>
@@ -29310,7 +29310,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="257" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B24" s="292">
         <v>9.555555555555556E-2</v>
@@ -29329,15 +29329,15 @@
       <c r="H24" s="286"/>
       <c r="I24" s="286"/>
       <c r="J24" s="279" t="s">
+        <v>564</v>
+      </c>
+      <c r="K24" s="279" t="s">
         <v>565</v>
-      </c>
-      <c r="K24" s="279" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="262" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B25" s="258">
         <v>85</v>
@@ -29362,7 +29362,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="262" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B26" s="258">
         <v>15</v>
@@ -29387,7 +29387,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="262" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B27" s="264">
         <v>1107.45</v>
@@ -29407,12 +29407,12 @@
       <c r="I27" s="286"/>
       <c r="J27" s="278"/>
       <c r="K27" s="279" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="262" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B28" s="296">
         <f>B29+B30</f>
@@ -29439,7 +29439,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="262" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B29" s="296">
         <f>B8/100*73</f>
@@ -29468,7 +29468,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="262" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B30" s="297">
         <v>0.51750000000000007</v>
@@ -29488,7 +29488,7 @@
       <c r="I30" s="286"/>
       <c r="J30" s="278"/>
       <c r="K30" s="279" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
@@ -29519,7 +29519,7 @@
     </row>
     <row r="33" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="270" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B33" s="300"/>
       <c r="C33" s="301"/>
@@ -29534,7 +29534,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="307" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B34" s="308" t="s">
         <v>116</v>
@@ -29559,7 +29559,7 @@
     </row>
     <row r="35" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="257" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B35" s="312">
         <v>1.7645202020202019E-2</v>
@@ -29582,7 +29582,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="262" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B36" s="259" t="s">
         <v>116</v>
@@ -29605,7 +29605,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="262" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B37" s="259" t="s">
         <v>116</v>
@@ -29628,14 +29628,14 @@
     </row>
     <row r="38" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="262" t="s">
-        <v>578</v>
-      </c>
-      <c r="B38" s="366" t="s">
-        <v>558</v>
-      </c>
-      <c r="C38" s="367"/>
-      <c r="D38" s="367"/>
-      <c r="E38" s="368"/>
+        <v>577</v>
+      </c>
+      <c r="B38" s="353" t="s">
+        <v>557</v>
+      </c>
+      <c r="C38" s="354"/>
+      <c r="D38" s="354"/>
+      <c r="E38" s="355"/>
       <c r="F38" s="286"/>
       <c r="G38" s="286"/>
       <c r="H38" s="286"/>
@@ -29645,7 +29645,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="287" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B39" s="259" t="s">
         <v>116</v>
@@ -29668,7 +29668,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="287" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B40" s="259" t="s">
         <v>116</v>
@@ -29691,7 +29691,7 @@
     </row>
     <row r="41" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="316" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B41" s="317" t="s">
         <v>116</v>
@@ -29733,7 +29733,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="321" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B44" s="100"/>
       <c r="C44" s="100"/>
@@ -29751,7 +29751,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="72" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C45" s="72"/>
       <c r="D45" s="72"/>
@@ -29768,7 +29768,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="80" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C46" s="72"/>
       <c r="D46" s="72"/>
@@ -29785,7 +29785,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="80" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C47" s="72"/>
       <c r="D47" s="72"/>
@@ -29802,7 +29802,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="80" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C48" s="72"/>
       <c r="D48" s="72"/>
@@ -29816,7 +29816,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="100" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B49" s="100"/>
       <c r="C49" s="72"/>
@@ -29834,7 +29834,7 @@
         <v>93</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C50" s="72"/>
       <c r="D50" s="72"/>
@@ -29851,7 +29851,7 @@
         <v>88</v>
       </c>
       <c r="B51" s="80" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C51" s="72"/>
       <c r="D51" s="72"/>
@@ -29868,7 +29868,7 @@
         <v>67</v>
       </c>
       <c r="B52" s="72" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C52" s="72"/>
       <c r="D52" s="72"/>
@@ -29885,7 +29885,7 @@
         <v>128</v>
       </c>
       <c r="B53" s="324" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C53" s="72"/>
       <c r="D53" s="72"/>
@@ -29902,7 +29902,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="72" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C54" s="72"/>
       <c r="D54" s="72"/>
@@ -29922,23 +29922,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="B18:E22"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="INDEX" display="Electric boiler, 10 kV, steam" xr:uid="{50D20602-7AD5-4D34-B672-36376F983B66}"/>
@@ -30139,7 +30139,7 @@
         <v>70</v>
       </c>
       <c r="M7" s="87" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N7" s="19"/>
       <c r="O7" s="30" t="s">
@@ -30201,7 +30201,7 @@
         <v>66</v>
       </c>
       <c r="M8" s="89" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="32" t="s">
@@ -30245,10 +30245,10 @@
         <v>151</v>
       </c>
       <c r="I9" s="90" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J9" s="90" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K9" s="90" t="s">
         <v>54</v>
@@ -30322,7 +30322,7 @@
         <v>154</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S10" s="33" t="s">
         <v>45</v>
@@ -30372,10 +30372,10 @@
       </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S11" s="33" t="s">
         <v>45</v>
@@ -30467,7 +30467,7 @@
     </row>
     <row r="14" spans="2:23" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="129" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C14" s="128" t="s">
         <v>153</v>
@@ -30706,7 +30706,7 @@
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="119" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D1" s="119"/>
       <c r="E1" s="119"/>
@@ -30721,7 +30721,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" s="120"/>
       <c r="C2" s="119">
@@ -30760,35 +30760,35 @@
     </row>
     <row r="3" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B3" s="121"/>
       <c r="C3" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="I3" s="122" t="s">
+        <v>303</v>
+      </c>
+      <c r="J3" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="E3" s="122" t="s">
-        <v>302</v>
-      </c>
-      <c r="F3" s="122" t="s">
-        <v>302</v>
-      </c>
-      <c r="G3" s="122" t="s">
-        <v>302</v>
-      </c>
-      <c r="H3" s="122" t="s">
+      <c r="K3" s="122" t="s">
         <v>303</v>
-      </c>
-      <c r="I3" s="122" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" s="122" t="s">
-        <v>303</v>
-      </c>
-      <c r="K3" s="122" t="s">
-        <v>304</v>
       </c>
       <c r="L3" s="122" t="s">
         <v>116</v>
@@ -30799,10 +30799,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="120" t="s">
         <v>305</v>
-      </c>
-      <c r="B4" s="120" t="s">
-        <v>306</v>
       </c>
       <c r="C4" s="119"/>
       <c r="D4" s="119"/>
@@ -30835,7 +30835,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="123"/>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" s="124">
         <v>8.4</v>
@@ -30868,13 +30868,13 @@
         <v>93</v>
       </c>
       <c r="M6" s="124" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="125"/>
       <c r="B7" s="125" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="126">
         <v>1.9087E-2</v>
@@ -30911,7 +30911,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="123"/>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C8" s="124">
         <v>0.5</v>
@@ -30948,7 +30948,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="123"/>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C9" s="124">
         <v>27</v>
@@ -30985,7 +30985,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="123"/>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" s="124">
         <v>2.5</v>
@@ -31022,7 +31022,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="123"/>
       <c r="B11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="124">
         <v>165.36</v>
@@ -31055,12 +31055,12 @@
         <v>58</v>
       </c>
       <c r="M11" s="124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="123" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C12" s="124"/>
       <c r="D12" s="124"/>
@@ -31077,7 +31077,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="125"/>
       <c r="B13" s="125" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C13" s="126"/>
       <c r="D13" s="126"/>
@@ -31094,7 +31094,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="125"/>
       <c r="B14" s="125" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C14" s="126"/>
       <c r="D14" s="126"/>
@@ -31111,7 +31111,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="125"/>
       <c r="B15" s="125" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C15" s="126"/>
       <c r="D15" s="126"/>
@@ -31128,7 +31128,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="123"/>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C16" s="124"/>
       <c r="D16" s="124"/>
@@ -31145,7 +31145,7 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="123"/>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C17" s="124"/>
       <c r="D17" s="124"/>
@@ -31161,7 +31161,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="123" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C18" s="124"/>
       <c r="D18" s="124"/>
@@ -31178,7 +31178,7 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="123"/>
       <c r="B19" s="127" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C19" s="124">
         <v>2.12</v>
@@ -31211,13 +31211,13 @@
         <v>110</v>
       </c>
       <c r="M19" s="124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="123"/>
       <c r="B20" s="127" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C20" s="124">
         <v>0.54</v>
@@ -31248,7 +31248,7 @@
       </c>
       <c r="L20" s="124"/>
       <c r="M20" s="124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -31282,13 +31282,13 @@
       </c>
       <c r="L21" s="124"/>
       <c r="M21" s="124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="123"/>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C22" s="124">
         <v>0.03</v>
@@ -31319,13 +31319,13 @@
       </c>
       <c r="L22" s="124"/>
       <c r="M22" s="124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="123"/>
       <c r="B23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C23" s="124">
         <v>0.21</v>
@@ -31356,13 +31356,13 @@
       </c>
       <c r="L23" s="124"/>
       <c r="M23" s="124" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="123"/>
       <c r="B24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C24" s="124">
         <v>0.25</v>
@@ -31393,13 +31393,13 @@
       </c>
       <c r="L24" s="124"/>
       <c r="M24" s="124" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="123"/>
       <c r="B25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C25" s="124">
         <v>0.72</v>
@@ -31430,13 +31430,13 @@
       </c>
       <c r="L25" s="124"/>
       <c r="M25" s="124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="123"/>
       <c r="B26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C26" s="124">
         <v>5</v>
@@ -31469,13 +31469,13 @@
         <v>121</v>
       </c>
       <c r="M26" s="124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="123"/>
       <c r="B27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C27" s="124">
         <v>50000</v>
@@ -31508,12 +31508,12 @@
         <v>121</v>
       </c>
       <c r="M27" s="124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="123" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C28" s="124"/>
       <c r="D28" s="124"/>
@@ -31530,7 +31530,7 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="123"/>
       <c r="B29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C29" s="124">
         <v>103.5</v>
@@ -31561,13 +31561,13 @@
       </c>
       <c r="L29" s="124"/>
       <c r="M29" s="124" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="123"/>
       <c r="B30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C30" s="124">
         <v>167</v>
@@ -31598,13 +31598,13 @@
       </c>
       <c r="L30" s="124"/>
       <c r="M30" s="124" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="123"/>
       <c r="B31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C31" s="124">
         <v>383.49</v>
@@ -31637,13 +31637,13 @@
         <v>135</v>
       </c>
       <c r="M31" s="124" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="123"/>
       <c r="B32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C32" s="124">
         <v>6.05</v>
@@ -31676,13 +31676,13 @@
         <v>58</v>
       </c>
       <c r="M32" s="124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="123"/>
       <c r="B33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C33" s="124">
         <v>4400</v>
@@ -31715,7 +31715,7 @@
         <v>137</v>
       </c>
       <c r="M33" s="124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -31733,79 +31733,79 @@
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="123"/>
       <c r="B37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="123"/>
       <c r="B38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="123"/>
       <c r="B39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="123"/>
       <c r="B40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="123"/>
       <c r="B41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="123"/>
       <c r="B42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="123"/>
       <c r="B43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="123"/>
       <c r="B44" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="123"/>
       <c r="B45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="123"/>
       <c r="B46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="123"/>
       <c r="B47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="123"/>
       <c r="B48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="123"/>
       <c r="B49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -31819,37 +31819,37 @@
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="123"/>
       <c r="B52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="123"/>
       <c r="B53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="123"/>
       <c r="B54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="123"/>
       <c r="B55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="123"/>
       <c r="B56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="123"/>
       <c r="B57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -32156,7 +32156,7 @@
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="119" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D1" s="119"/>
       <c r="E1" s="119"/>
@@ -32170,7 +32170,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" s="120"/>
       <c r="C2" s="119">
@@ -32206,35 +32206,35 @@
     </row>
     <row r="3" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B3" s="121"/>
       <c r="C3" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="I3" s="122" t="s">
+        <v>303</v>
+      </c>
+      <c r="J3" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="E3" s="122" t="s">
-        <v>302</v>
-      </c>
-      <c r="F3" s="122" t="s">
-        <v>302</v>
-      </c>
-      <c r="G3" s="122" t="s">
-        <v>302</v>
-      </c>
-      <c r="H3" s="122" t="s">
+      <c r="K3" s="122" t="s">
         <v>303</v>
-      </c>
-      <c r="I3" s="122" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" s="122" t="s">
-        <v>303</v>
-      </c>
-      <c r="K3" s="122" t="s">
-        <v>304</v>
       </c>
       <c r="L3" s="122" t="s">
         <v>116</v>
@@ -32242,10 +32242,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="120" t="s">
         <v>305</v>
-      </c>
-      <c r="B4" s="120" t="s">
-        <v>306</v>
       </c>
       <c r="C4" s="119"/>
       <c r="D4" s="119"/>
@@ -32276,7 +32276,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="123"/>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" s="124">
         <v>8.4</v>
@@ -32312,7 +32312,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="125"/>
       <c r="B7" s="125" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="126">
         <v>2.0483000000000001E-2</v>
@@ -32348,7 +32348,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="123"/>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C8" s="124">
         <v>0.5</v>
@@ -32384,7 +32384,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="123"/>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C9" s="124">
         <v>27</v>
@@ -32420,7 +32420,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="123"/>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" s="124">
         <v>2.5</v>
@@ -32456,7 +32456,7 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="123"/>
       <c r="B11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="124">
         <v>32.020000000000003</v>
@@ -32491,7 +32491,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="123" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C12" s="124"/>
       <c r="D12" s="124"/>
@@ -32507,7 +32507,7 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="125"/>
       <c r="B13" s="125" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C13" s="126"/>
       <c r="D13" s="126"/>
@@ -32523,7 +32523,7 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="125"/>
       <c r="B14" s="125" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C14" s="126"/>
       <c r="D14" s="126"/>
@@ -32539,7 +32539,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="125"/>
       <c r="B15" s="125" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C15" s="126"/>
       <c r="D15" s="126"/>
@@ -32555,7 +32555,7 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="123"/>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C16" s="124"/>
       <c r="D16" s="124"/>
@@ -32571,7 +32571,7 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="123"/>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C17" s="124"/>
       <c r="D17" s="124"/>
@@ -32586,7 +32586,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="123" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C18" s="124"/>
       <c r="D18" s="124"/>
@@ -32602,7 +32602,7 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="123"/>
       <c r="B19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C19" s="124">
         <v>1.7</v>
@@ -32638,7 +32638,7 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="123"/>
       <c r="B20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C20" s="124">
         <v>0.39</v>
@@ -32672,7 +32672,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="123"/>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C21" s="124">
         <v>0.39</v>
@@ -32706,7 +32706,7 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="123"/>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C22" s="124">
         <v>0.01</v>
@@ -32740,7 +32740,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="123"/>
       <c r="B23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C23" s="124">
         <v>0.13</v>
@@ -32774,7 +32774,7 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="123"/>
       <c r="B24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C24" s="124">
         <v>0.05</v>
@@ -32808,7 +32808,7 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="123"/>
       <c r="B25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C25" s="124">
         <v>0.72</v>
@@ -32842,7 +32842,7 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="123"/>
       <c r="B26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C26" s="124">
         <v>5</v>
@@ -32878,7 +32878,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="123"/>
       <c r="B27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C27" s="124">
         <v>50000</v>
@@ -32913,7 +32913,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="123" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C28" s="124"/>
       <c r="D28" s="124"/>
@@ -32929,7 +32929,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="123"/>
       <c r="B29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C29" s="124">
         <v>103.5</v>
@@ -32963,7 +32963,7 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="123"/>
       <c r="B30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C30" s="124">
         <v>167</v>
@@ -32997,7 +32997,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="123"/>
       <c r="B31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C31" s="124">
         <v>383.49</v>
@@ -33033,7 +33033,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="123"/>
       <c r="B32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C32" s="124">
         <v>31.23</v>
@@ -33069,7 +33069,7 @@
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="123"/>
       <c r="B33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C33" s="124">
         <v>4100</v>
@@ -33124,79 +33124,79 @@
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="123"/>
       <c r="B37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="123"/>
       <c r="B38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="123"/>
       <c r="B39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="123"/>
       <c r="B40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="123"/>
       <c r="B41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="123"/>
       <c r="B42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="123"/>
       <c r="B43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="123"/>
       <c r="B44" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="123"/>
       <c r="B45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="123"/>
       <c r="B46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="123"/>
       <c r="B47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="123"/>
       <c r="B48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="123"/>
       <c r="B49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -33210,37 +33210,37 @@
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="123"/>
       <c r="B52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="123"/>
       <c r="B53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="123"/>
       <c r="B54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="123"/>
       <c r="B55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="123"/>
       <c r="B56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="123"/>
       <c r="B57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -33564,7 +33564,7 @@
         <v>160</v>
       </c>
       <c r="V5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="W5" t="s">
         <v>45</v>
@@ -33653,7 +33653,7 @@
         <v>64</v>
       </c>
       <c r="R11" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="T11" s="30" t="s">
         <v>11</v>
@@ -33724,7 +33724,7 @@
         <v>65</v>
       </c>
       <c r="R12" s="32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="T12" s="32" t="s">
         <v>35</v>
@@ -33904,10 +33904,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="V15" s="16" t="s">
         <v>365</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>366</v>
       </c>
       <c r="W15" s="33" t="s">
         <v>45</v>
@@ -33968,10 +33968,10 @@
         <v>60</v>
       </c>
       <c r="U16" s="93" t="s">
+        <v>366</v>
+      </c>
+      <c r="V16" s="93" t="s">
         <v>367</v>
-      </c>
-      <c r="V16" s="93" t="s">
-        <v>368</v>
       </c>
       <c r="W16" s="33" t="s">
         <v>45</v>
@@ -34151,10 +34151,10 @@
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="180" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="180" t="s">
         <v>365</v>
-      </c>
-      <c r="C22" s="180" t="s">
-        <v>366</v>
       </c>
       <c r="D22" s="106" t="s">
         <v>41</v>
@@ -34471,10 +34471,10 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="106" t="s">
+        <v>366</v>
+      </c>
+      <c r="C30" s="106" t="s">
         <v>367</v>
-      </c>
-      <c r="C30" s="106" t="s">
-        <v>368</v>
       </c>
       <c r="D30" s="106" t="s">
         <v>41</v>
@@ -35346,7 +35346,7 @@
         <v>64</v>
       </c>
       <c r="S11" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U11" s="30" t="s">
         <v>11</v>
@@ -35422,7 +35422,7 @@
         <v>65</v>
       </c>
       <c r="S12" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="U12" s="32" t="s">
         <v>35</v>
@@ -36117,13 +36117,13 @@
         <v>44</v>
       </c>
       <c r="AA8" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB8" t="s">
         <v>509</v>
       </c>
-      <c r="AB8" t="s">
-        <v>510</v>
-      </c>
       <c r="AC8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AD8" s="29"/>
       <c r="AE8" s="110" t="s">
@@ -36155,10 +36155,10 @@
         <v>44</v>
       </c>
       <c r="AA9" s="93" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB9" t="s">
         <v>522</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>523</v>
       </c>
       <c r="AC9" t="s">
         <v>45</v>
@@ -36220,7 +36220,7 @@
         <v>64</v>
       </c>
       <c r="U10" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="4:33" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -36272,7 +36272,7 @@
         <v>65</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="4:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -36290,7 +36290,7 @@
         <v>219</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N12" s="32" t="s">
         <v>220</v>
@@ -36305,10 +36305,10 @@
         <v>231</v>
       </c>
       <c r="R12" s="184" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S12" s="184" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="T12" s="32" t="s">
         <v>236</v>
@@ -36319,16 +36319,16 @@
     </row>
     <row r="13" spans="4:33" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
+        <v>510</v>
+      </c>
+      <c r="E13" t="s">
         <v>511</v>
-      </c>
-      <c r="E13" t="s">
-        <v>512</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J13" s="106">
         <v>2025</v>
@@ -36377,7 +36377,7 @@
         <v>160</v>
       </c>
       <c r="I14" s="93" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J14" s="93"/>
       <c r="K14" s="93"/>
@@ -36421,7 +36421,7 @@
         <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J15" s="93">
         <v>2030</v>
@@ -36481,7 +36481,7 @@
         <v>160</v>
       </c>
       <c r="I16" s="93" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J16" s="93"/>
       <c r="M16">
@@ -36510,7 +36510,7 @@
         <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J17" s="93">
         <v>2040</v>
@@ -36544,22 +36544,22 @@
         <v>60</v>
       </c>
       <c r="AA17" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB17" t="s">
         <v>511</v>
       </c>
-      <c r="AB17" t="s">
-        <v>512</v>
-      </c>
       <c r="AC17" s="92" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AD17" s="92" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AE17" s="93" t="s">
         <v>224</v>
       </c>
       <c r="AF17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG17" s="92" t="s">
         <v>244</v>
@@ -36570,7 +36570,7 @@
         <v>160</v>
       </c>
       <c r="I18" s="93" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J18" s="93"/>
       <c r="M18">
@@ -36589,7 +36589,7 @@
         <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J19" s="93">
         <v>2050</v>
@@ -36625,7 +36625,7 @@
         <v>160</v>
       </c>
       <c r="I20" s="93" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M20">
         <f>'403.b Solid Direct air capture'!F10*1000*0.0000036</f>

--- a/VT_REG_ALL.xlsx
+++ b/VT_REG_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C173C79F-8E9B-4DFD-A527-B7A2FF030159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9D0343-2C96-406A-98CA-324E751D24A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pri_RNW" sheetId="142" r:id="rId1"/>
@@ -13267,6 +13267,9 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13278,9 +13281,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -13296,52 +13296,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13375,6 +13329,52 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -14265,7 +14265,7 @@
   <dimension ref="C3:AF26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14907,7 +14907,7 @@
   <dimension ref="F5:AI28"/>
   <sheetViews>
     <sheetView topLeftCell="E4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16075,8 +16075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B37DD7-922B-4AE9-953C-BB93BD6E9F87}">
   <dimension ref="B1:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="89" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="C7" zoomScale="71" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16760,7 +16760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E593ED6-EFFA-4D59-BE30-3F65BBC3CC0A}">
   <dimension ref="B1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -17177,18 +17177,18 @@
       <c r="B3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="334" t="s">
+      <c r="C3" s="335" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
-      <c r="K3" s="335"/>
-      <c r="L3" s="335"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
     </row>
     <row r="4" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
@@ -17205,14 +17205,14 @@
       <c r="F4" s="40">
         <v>2050</v>
       </c>
-      <c r="G4" s="336" t="s">
+      <c r="G4" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="336"/>
-      <c r="I4" s="336" t="s">
+      <c r="H4" s="337"/>
+      <c r="I4" s="337" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="336"/>
+      <c r="J4" s="337"/>
       <c r="K4" s="40" t="s">
         <v>75</v>
       </c>
@@ -18287,28 +18287,28 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="70"/>
       <c r="C44" s="332"/>
-      <c r="D44" s="333"/>
-      <c r="E44" s="333"/>
-      <c r="F44" s="333"/>
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
-      <c r="I44" s="333"/>
-      <c r="J44" s="333"/>
-      <c r="K44" s="333"/>
+      <c r="D44" s="334"/>
+      <c r="E44" s="334"/>
+      <c r="F44" s="334"/>
+      <c r="G44" s="334"/>
+      <c r="H44" s="334"/>
+      <c r="I44" s="334"/>
+      <c r="J44" s="334"/>
+      <c r="K44" s="334"/>
       <c r="L44" s="332"/>
       <c r="M44" s="332"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="71"/>
       <c r="B45" s="332"/>
-      <c r="C45" s="333"/>
-      <c r="D45" s="333"/>
-      <c r="E45" s="333"/>
-      <c r="F45" s="333"/>
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="333"/>
-      <c r="J45" s="333"/>
+      <c r="C45" s="334"/>
+      <c r="D45" s="334"/>
+      <c r="E45" s="334"/>
+      <c r="F45" s="334"/>
+      <c r="G45" s="334"/>
+      <c r="H45" s="334"/>
+      <c r="I45" s="334"/>
+      <c r="J45" s="334"/>
       <c r="K45" s="70"/>
       <c r="L45" s="332"/>
       <c r="M45" s="332"/>
@@ -18316,28 +18316,28 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="70"/>
       <c r="C46" s="332"/>
-      <c r="D46" s="333"/>
-      <c r="E46" s="333"/>
-      <c r="F46" s="333"/>
-      <c r="G46" s="333"/>
-      <c r="H46" s="333"/>
-      <c r="I46" s="333"/>
-      <c r="J46" s="333"/>
-      <c r="K46" s="333"/>
+      <c r="D46" s="334"/>
+      <c r="E46" s="334"/>
+      <c r="F46" s="334"/>
+      <c r="G46" s="334"/>
+      <c r="H46" s="334"/>
+      <c r="I46" s="334"/>
+      <c r="J46" s="334"/>
+      <c r="K46" s="334"/>
       <c r="L46" s="332"/>
       <c r="M46" s="332"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
       <c r="B47" s="332"/>
-      <c r="C47" s="333"/>
-      <c r="D47" s="333"/>
-      <c r="E47" s="333"/>
-      <c r="F47" s="333"/>
-      <c r="G47" s="333"/>
-      <c r="H47" s="333"/>
-      <c r="I47" s="333"/>
-      <c r="J47" s="333"/>
+      <c r="C47" s="334"/>
+      <c r="D47" s="334"/>
+      <c r="E47" s="334"/>
+      <c r="F47" s="334"/>
+      <c r="G47" s="334"/>
+      <c r="H47" s="334"/>
+      <c r="I47" s="334"/>
+      <c r="J47" s="334"/>
       <c r="K47" s="70"/>
       <c r="L47" s="332"/>
       <c r="M47" s="332"/>
@@ -18363,10 +18363,10 @@
       <c r="M49" s="332"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="337" t="s">
+      <c r="A50" s="333" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="337"/>
+      <c r="B50" s="333"/>
       <c r="C50" s="66"/>
       <c r="D50" s="66"/>
       <c r="E50" s="66"/>
@@ -18752,6 +18752,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="L43:M43"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="A50:B50"/>
@@ -18762,13 +18769,6 @@
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="B47:J47"/>
     <mergeCell ref="L47:M47"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="L43:M43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{A053F0A3-2E5C-42AE-BE4C-81251A11866E}"/>
@@ -18798,18 +18798,18 @@
       <c r="D3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="334" t="s">
+      <c r="E3" s="335" t="s">
         <v>290</v>
       </c>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
-      <c r="K3" s="335"/>
-      <c r="L3" s="335"/>
-      <c r="M3" s="335"/>
-      <c r="N3" s="335"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="37"/>
@@ -18826,14 +18826,14 @@
       <c r="H4" s="40">
         <v>2050</v>
       </c>
-      <c r="I4" s="336" t="s">
+      <c r="I4" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="336"/>
-      <c r="K4" s="336" t="s">
+      <c r="J4" s="337"/>
+      <c r="K4" s="337" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="336"/>
+      <c r="L4" s="337"/>
       <c r="M4" s="40" t="s">
         <v>75</v>
       </c>
@@ -19899,28 +19899,28 @@
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="70"/>
       <c r="E44" s="332"/>
-      <c r="F44" s="333"/>
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
-      <c r="I44" s="333"/>
-      <c r="J44" s="333"/>
-      <c r="K44" s="333"/>
-      <c r="L44" s="333"/>
-      <c r="M44" s="333"/>
+      <c r="F44" s="334"/>
+      <c r="G44" s="334"/>
+      <c r="H44" s="334"/>
+      <c r="I44" s="334"/>
+      <c r="J44" s="334"/>
+      <c r="K44" s="334"/>
+      <c r="L44" s="334"/>
+      <c r="M44" s="334"/>
       <c r="N44" s="332"/>
       <c r="O44" s="332"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="71"/>
       <c r="D45" s="332"/>
-      <c r="E45" s="333"/>
-      <c r="F45" s="333"/>
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="333"/>
-      <c r="J45" s="333"/>
-      <c r="K45" s="333"/>
-      <c r="L45" s="333"/>
+      <c r="E45" s="334"/>
+      <c r="F45" s="334"/>
+      <c r="G45" s="334"/>
+      <c r="H45" s="334"/>
+      <c r="I45" s="334"/>
+      <c r="J45" s="334"/>
+      <c r="K45" s="334"/>
+      <c r="L45" s="334"/>
       <c r="M45" s="70"/>
       <c r="N45" s="332"/>
       <c r="O45" s="332"/>
@@ -19928,28 +19928,28 @@
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="70"/>
       <c r="E46" s="332"/>
-      <c r="F46" s="333"/>
-      <c r="G46" s="333"/>
-      <c r="H46" s="333"/>
-      <c r="I46" s="333"/>
-      <c r="J46" s="333"/>
-      <c r="K46" s="333"/>
-      <c r="L46" s="333"/>
-      <c r="M46" s="333"/>
+      <c r="F46" s="334"/>
+      <c r="G46" s="334"/>
+      <c r="H46" s="334"/>
+      <c r="I46" s="334"/>
+      <c r="J46" s="334"/>
+      <c r="K46" s="334"/>
+      <c r="L46" s="334"/>
+      <c r="M46" s="334"/>
       <c r="N46" s="332"/>
       <c r="O46" s="332"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="70"/>
       <c r="D47" s="332"/>
-      <c r="E47" s="333"/>
-      <c r="F47" s="333"/>
-      <c r="G47" s="333"/>
-      <c r="H47" s="333"/>
-      <c r="I47" s="333"/>
-      <c r="J47" s="333"/>
-      <c r="K47" s="333"/>
-      <c r="L47" s="333"/>
+      <c r="E47" s="334"/>
+      <c r="F47" s="334"/>
+      <c r="G47" s="334"/>
+      <c r="H47" s="334"/>
+      <c r="I47" s="334"/>
+      <c r="J47" s="334"/>
+      <c r="K47" s="334"/>
+      <c r="L47" s="334"/>
       <c r="M47" s="70"/>
       <c r="N47" s="332"/>
       <c r="O47" s="332"/>
@@ -19975,10 +19975,10 @@
       <c r="O49" s="332"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="337" t="s">
+      <c r="C50" s="333" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="337"/>
+      <c r="D50" s="333"/>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
       <c r="G50" s="66"/>
@@ -20355,6 +20355,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="N43:O43"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="N49:O49"/>
     <mergeCell ref="C50:D50"/>
@@ -20365,13 +20372,6 @@
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="D47:L47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="N43:O43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{C8B51AD8-9E69-4FE2-8353-34D9D64EFBEE}"/>
@@ -20401,18 +20401,18 @@
       <c r="C2" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="334" t="s">
+      <c r="D2" s="335" t="s">
         <v>269</v>
       </c>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
+      <c r="L2" s="336"/>
+      <c r="M2" s="336"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
@@ -20429,14 +20429,14 @@
       <c r="G3" s="40">
         <v>2050</v>
       </c>
-      <c r="H3" s="336" t="s">
+      <c r="H3" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336" t="s">
+      <c r="I3" s="337"/>
+      <c r="J3" s="337" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="336"/>
+      <c r="K3" s="337"/>
       <c r="L3" s="40" t="s">
         <v>75</v>
       </c>
@@ -21480,28 +21480,28 @@
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="70"/>
       <c r="D42" s="332"/>
-      <c r="E42" s="333"/>
-      <c r="F42" s="333"/>
-      <c r="G42" s="333"/>
-      <c r="H42" s="333"/>
-      <c r="I42" s="333"/>
-      <c r="J42" s="333"/>
-      <c r="K42" s="333"/>
-      <c r="L42" s="333"/>
+      <c r="E42" s="334"/>
+      <c r="F42" s="334"/>
+      <c r="G42" s="334"/>
+      <c r="H42" s="334"/>
+      <c r="I42" s="334"/>
+      <c r="J42" s="334"/>
+      <c r="K42" s="334"/>
+      <c r="L42" s="334"/>
       <c r="M42" s="332"/>
       <c r="N42" s="332"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="71"/>
       <c r="C43" s="332"/>
-      <c r="D43" s="333"/>
-      <c r="E43" s="333"/>
-      <c r="F43" s="333"/>
-      <c r="G43" s="333"/>
-      <c r="H43" s="333"/>
-      <c r="I43" s="333"/>
-      <c r="J43" s="333"/>
-      <c r="K43" s="333"/>
+      <c r="D43" s="334"/>
+      <c r="E43" s="334"/>
+      <c r="F43" s="334"/>
+      <c r="G43" s="334"/>
+      <c r="H43" s="334"/>
+      <c r="I43" s="334"/>
+      <c r="J43" s="334"/>
+      <c r="K43" s="334"/>
       <c r="L43" s="70"/>
       <c r="M43" s="332"/>
       <c r="N43" s="332"/>
@@ -21509,28 +21509,28 @@
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="70"/>
       <c r="D44" s="332"/>
-      <c r="E44" s="333"/>
-      <c r="F44" s="333"/>
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
-      <c r="I44" s="333"/>
-      <c r="J44" s="333"/>
-      <c r="K44" s="333"/>
-      <c r="L44" s="333"/>
+      <c r="E44" s="334"/>
+      <c r="F44" s="334"/>
+      <c r="G44" s="334"/>
+      <c r="H44" s="334"/>
+      <c r="I44" s="334"/>
+      <c r="J44" s="334"/>
+      <c r="K44" s="334"/>
+      <c r="L44" s="334"/>
       <c r="M44" s="332"/>
       <c r="N44" s="332"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="70"/>
       <c r="C45" s="332"/>
-      <c r="D45" s="333"/>
-      <c r="E45" s="333"/>
-      <c r="F45" s="333"/>
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="333"/>
-      <c r="J45" s="333"/>
-      <c r="K45" s="333"/>
+      <c r="D45" s="334"/>
+      <c r="E45" s="334"/>
+      <c r="F45" s="334"/>
+      <c r="G45" s="334"/>
+      <c r="H45" s="334"/>
+      <c r="I45" s="334"/>
+      <c r="J45" s="334"/>
+      <c r="K45" s="334"/>
       <c r="L45" s="70"/>
       <c r="M45" s="332"/>
       <c r="N45" s="332"/>
@@ -21556,10 +21556,10 @@
       <c r="N47" s="332"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="337" t="s">
+      <c r="B48" s="333" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="337"/>
+      <c r="C48" s="333"/>
       <c r="D48" s="66"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
@@ -21815,6 +21815,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="M41:N41"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="M47:N47"/>
     <mergeCell ref="B48:C48"/>
@@ -21825,13 +21832,6 @@
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="C45:K45"/>
     <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="M41:N41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" location="INDEX" display="Biogas plant, additional straw input in the feedstock mix" xr:uid="{52362334-5560-4A9E-8A6F-761439C705AF}"/>
@@ -23645,8 +23645,8 @@
   </sheetPr>
   <dimension ref="B1:V65"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="73" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -25563,7 +25563,7 @@
   <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -26911,8 +26911,8 @@
   </sheetPr>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A2" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28390,88 +28390,88 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103"/>
-      <c r="N1" s="359" t="s">
+      <c r="N1" s="343" t="s">
         <v>526</v>
       </c>
-      <c r="O1" s="361" t="s">
+      <c r="O1" s="345" t="s">
         <v>527</v>
       </c>
-      <c r="P1" s="361"/>
-      <c r="Q1" s="361"/>
-      <c r="R1" s="361"/>
-      <c r="S1" s="361"/>
-      <c r="T1" s="361"/>
-      <c r="U1" s="361"/>
-      <c r="V1" s="361"/>
-      <c r="W1" s="361"/>
-      <c r="X1" s="361"/>
-      <c r="Y1" s="361"/>
-      <c r="Z1" s="362"/>
+      <c r="P1" s="345"/>
+      <c r="Q1" s="345"/>
+      <c r="R1" s="345"/>
+      <c r="S1" s="345"/>
+      <c r="T1" s="345"/>
+      <c r="U1" s="345"/>
+      <c r="V1" s="345"/>
+      <c r="W1" s="345"/>
+      <c r="X1" s="345"/>
+      <c r="Y1" s="345"/>
+      <c r="Z1" s="346"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="249" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="363" t="s">
+      <c r="B2" s="347" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="364"/>
-      <c r="H2" s="364"/>
-      <c r="I2" s="364"/>
-      <c r="J2" s="364"/>
-      <c r="K2" s="365"/>
-      <c r="N2" s="360"/>
-      <c r="O2" s="366" t="s">
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="348"/>
+      <c r="I2" s="348"/>
+      <c r="J2" s="348"/>
+      <c r="K2" s="349"/>
+      <c r="N2" s="344"/>
+      <c r="O2" s="350" t="s">
         <v>529</v>
       </c>
-      <c r="P2" s="367"/>
-      <c r="Q2" s="367"/>
-      <c r="R2" s="368"/>
-      <c r="S2" s="367" t="s">
+      <c r="P2" s="351"/>
+      <c r="Q2" s="351"/>
+      <c r="R2" s="352"/>
+      <c r="S2" s="351" t="s">
         <v>530</v>
       </c>
-      <c r="T2" s="367"/>
-      <c r="U2" s="367"/>
-      <c r="V2" s="367"/>
-      <c r="W2" s="366" t="s">
+      <c r="T2" s="351"/>
+      <c r="U2" s="351"/>
+      <c r="V2" s="351"/>
+      <c r="W2" s="350" t="s">
         <v>531</v>
       </c>
-      <c r="X2" s="367"/>
-      <c r="Y2" s="367"/>
-      <c r="Z2" s="369"/>
+      <c r="X2" s="351"/>
+      <c r="Y2" s="351"/>
+      <c r="Z2" s="353"/>
     </row>
     <row r="3" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="354" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="345">
+      <c r="B3" s="356">
         <v>2020</v>
       </c>
-      <c r="C3" s="345">
+      <c r="C3" s="356">
         <v>2030</v>
       </c>
-      <c r="D3" s="345">
+      <c r="D3" s="356">
         <v>2040</v>
       </c>
-      <c r="E3" s="345">
+      <c r="E3" s="356">
         <v>2050</v>
       </c>
-      <c r="F3" s="356">
+      <c r="F3" s="369">
         <v>2030</v>
       </c>
-      <c r="G3" s="344"/>
-      <c r="H3" s="343">
+      <c r="G3" s="359"/>
+      <c r="H3" s="358">
         <v>2050</v>
       </c>
-      <c r="I3" s="344"/>
-      <c r="J3" s="345" t="s">
+      <c r="I3" s="359"/>
+      <c r="J3" s="356" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="345" t="s">
+      <c r="K3" s="356" t="s">
         <v>76</v>
       </c>
       <c r="N3" s="250" t="s">
@@ -28515,11 +28515,11 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="358"/>
-      <c r="B4" s="346"/>
-      <c r="C4" s="346"/>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
+      <c r="A4" s="355"/>
+      <c r="B4" s="357"/>
+      <c r="C4" s="357"/>
+      <c r="D4" s="357"/>
+      <c r="E4" s="357"/>
       <c r="F4" s="253" t="s">
         <v>78</v>
       </c>
@@ -28532,8 +28532,8 @@
       <c r="I4" s="253" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="346"/>
-      <c r="K4" s="346"/>
+      <c r="J4" s="357"/>
+      <c r="K4" s="357"/>
       <c r="N4" s="254" t="s">
         <v>537</v>
       </c>
@@ -29220,12 +29220,12 @@
       <c r="A18" s="262" t="s">
         <v>556</v>
       </c>
-      <c r="B18" s="347" t="s">
+      <c r="B18" s="360" t="s">
         <v>557</v>
       </c>
-      <c r="C18" s="348"/>
-      <c r="D18" s="348"/>
-      <c r="E18" s="349"/>
+      <c r="C18" s="361"/>
+      <c r="D18" s="361"/>
+      <c r="E18" s="362"/>
       <c r="F18" s="286"/>
       <c r="G18" s="286"/>
       <c r="H18" s="286"/>
@@ -29237,10 +29237,10 @@
       <c r="A19" s="262" t="s">
         <v>558</v>
       </c>
-      <c r="B19" s="350"/>
-      <c r="C19" s="351"/>
-      <c r="D19" s="351"/>
-      <c r="E19" s="352"/>
+      <c r="B19" s="363"/>
+      <c r="C19" s="364"/>
+      <c r="D19" s="364"/>
+      <c r="E19" s="365"/>
       <c r="F19" s="286"/>
       <c r="G19" s="286"/>
       <c r="H19" s="286"/>
@@ -29252,10 +29252,10 @@
       <c r="A20" s="262" t="s">
         <v>559</v>
       </c>
-      <c r="B20" s="350"/>
-      <c r="C20" s="351"/>
-      <c r="D20" s="351"/>
-      <c r="E20" s="352"/>
+      <c r="B20" s="363"/>
+      <c r="C20" s="364"/>
+      <c r="D20" s="364"/>
+      <c r="E20" s="365"/>
       <c r="F20" s="286"/>
       <c r="G20" s="286"/>
       <c r="H20" s="286"/>
@@ -29267,10 +29267,10 @@
       <c r="A21" s="262" t="s">
         <v>560</v>
       </c>
-      <c r="B21" s="350"/>
-      <c r="C21" s="351"/>
-      <c r="D21" s="351"/>
-      <c r="E21" s="352"/>
+      <c r="B21" s="363"/>
+      <c r="C21" s="364"/>
+      <c r="D21" s="364"/>
+      <c r="E21" s="365"/>
       <c r="F21" s="286"/>
       <c r="G21" s="286"/>
       <c r="H21" s="286"/>
@@ -29282,10 +29282,10 @@
       <c r="A22" s="287" t="s">
         <v>561</v>
       </c>
-      <c r="B22" s="350"/>
-      <c r="C22" s="351"/>
-      <c r="D22" s="351"/>
-      <c r="E22" s="352"/>
+      <c r="B22" s="363"/>
+      <c r="C22" s="364"/>
+      <c r="D22" s="364"/>
+      <c r="E22" s="365"/>
       <c r="F22" s="259"/>
       <c r="G22" s="259"/>
       <c r="H22" s="259"/>
@@ -29630,12 +29630,12 @@
       <c r="A38" s="262" t="s">
         <v>577</v>
       </c>
-      <c r="B38" s="353" t="s">
+      <c r="B38" s="366" t="s">
         <v>557</v>
       </c>
-      <c r="C38" s="354"/>
-      <c r="D38" s="354"/>
-      <c r="E38" s="355"/>
+      <c r="C38" s="367"/>
+      <c r="D38" s="367"/>
+      <c r="E38" s="368"/>
       <c r="F38" s="286"/>
       <c r="G38" s="286"/>
       <c r="H38" s="286"/>
@@ -29922,23 +29922,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B18:E22"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:Z1"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B18:E22"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="INDEX" display="Electric boiler, 10 kV, steam" xr:uid="{50D20602-7AD5-4D34-B672-36376F983B66}"/>
@@ -30690,8 +30690,8 @@
   </sheetPr>
   <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -36030,8 +36030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA69A0A5-97B0-4B60-A940-361621C66501}">
   <dimension ref="D5:AG20"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="B3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/VT_REG_ALL.xlsx
+++ b/VT_REG_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9D0343-2C96-406A-98CA-324E751D24A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD46FA4C-E893-443B-A6BE-B66FA39604CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pri_RNW" sheetId="142" r:id="rId1"/>
@@ -11574,6 +11574,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
@@ -11611,6 +11612,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -21847,7 +21849,7 @@
   </sheetPr>
   <dimension ref="B2:S77"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
@@ -30690,7 +30692,7 @@
   </sheetPr>
   <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+    <sheetView zoomScale="66" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -32140,8 +32142,8 @@
   </sheetPr>
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34:O35"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -35153,8 +35155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E84244A-CC67-473B-8C74-2375AA9B644D}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/VT_REG_ALL.xlsx
+++ b/VT_REG_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD46FA4C-E893-443B-A6BE-B66FA39604CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C342528-E821-4258-8C38-ECDD97FD1C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pri_RNW" sheetId="142" r:id="rId1"/>
@@ -9032,7 +9032,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="638">
   <si>
     <t>CommName</t>
   </si>
@@ -11236,6 +11236,27 @@
   <si>
     <t>COM_PROJ~2030</t>
   </si>
+  <si>
+    <t>We can say that for some of the offshore wind farms, we will need transformers from 66 to 275 kV</t>
+  </si>
+  <si>
+    <t>So we add to the investment cost, the cost of 4 of those transformers ( COWI DOCUMENT) BUT DIVIDED BY THE 7 gw MAXIMUM</t>
+  </si>
+  <si>
+    <t>milldkk</t>
+  </si>
+  <si>
+    <t>dkk/eur</t>
+  </si>
+  <si>
+    <t>mill eur/gw</t>
+  </si>
+  <si>
+    <t>USED COST</t>
+  </si>
+  <si>
+    <t>MILL EUR</t>
+  </si>
 </sst>
 </file>
 
@@ -11254,7 +11275,7 @@
     <numFmt numFmtId="172" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="173" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="69" x14ac:knownFonts="1">
+  <fonts count="70" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -11696,6 +11717,12 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -12445,7 +12472,7 @@
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="370">
+  <cellXfs count="372">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -13266,6 +13293,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13378,6 +13406,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="21" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -13419,6 +13448,269 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45251</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>153976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>300786</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>29817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E981EE07-573E-4372-BAFB-EB53D87CBC8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="37755" t="30101" r="28131" b="25919"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16462887" y="6215340"/>
+          <a:ext cx="6490081" cy="4551751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>449482</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>50252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>277397</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>89930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FFC659-12B3-42C5-8943-E95E43349405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="34677" t="24683" r="29979" b="36057"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16243664" y="11307070"/>
+          <a:ext cx="6685915" cy="4022860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>4016</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>446384</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>75612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA67C03E-3414-4A5E-BB4D-C5E2A07171A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="38263" t="32776" r="27263" b="27039"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36372198" y="103909"/>
+          <a:ext cx="6676913" cy="4194909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>78379</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>123657</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1402</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA6A1720-B39D-45F2-8D4B-CF704AF58F99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="35893" t="39288" r="42350" b="10327"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25433929" y="4924018"/>
+          <a:ext cx="6141278" cy="6671507"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>153719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>13233</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66B0F7B-D30A-4E5D-92EE-94E51ADFA8AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="36341" t="41165" r="27004" b="22994"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15967364" y="1712355"/>
+          <a:ext cx="7321505" cy="4000551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>581906</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>221771</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>5980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F59460C-5967-48E8-A25F-60D7CAD82048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect l="30561" t="16603" r="34033" b="10141"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36326633" y="4957352"/>
+          <a:ext cx="7744774" cy="9249536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -14267,7 +14559,7 @@
   <dimension ref="C3:AF26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14503,7 +14795,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="I10" s="184"/>
       <c r="J10" s="32"/>
       <c r="K10" s="32" t="s">
         <v>219</v>
@@ -14549,7 +14841,7 @@
       <c r="G11" t="s">
         <v>500</v>
       </c>
-      <c r="I11" s="106">
+      <c r="I11" s="371">
         <v>2025</v>
       </c>
       <c r="J11" s="106">
@@ -14594,7 +14886,9 @@
       <c r="F12" t="s">
         <v>180</v>
       </c>
-      <c r="I12" s="93"/>
+      <c r="I12" s="371">
+        <v>2025</v>
+      </c>
       <c r="J12" s="93"/>
       <c r="L12">
         <f>'98 Methanol from Hydrogen'!D12/'98 Methanol from Hydrogen'!$Q$5</f>
@@ -14631,6 +14925,9 @@
       <c r="F13" t="s">
         <v>41</v>
       </c>
+      <c r="I13" s="371">
+        <v>2025</v>
+      </c>
       <c r="L13">
         <f>'98 Methanol from Hydrogen'!D13/'98 Methanol from Hydrogen'!$Q$5</f>
         <v>1.6366612111292964E-2</v>
@@ -14663,6 +14960,9 @@
     <row r="14" spans="3:32" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H14" s="93" t="s">
         <v>160</v>
+      </c>
+      <c r="I14" s="371">
+        <v>2025</v>
       </c>
       <c r="M14">
         <f>SUM('98 Methanol from Hydrogen'!D17:D18)/'98 Methanol from Hydrogen'!D16</f>
@@ -14745,7 +15045,9 @@
       <c r="F16" t="s">
         <v>180</v>
       </c>
-      <c r="I16" s="93"/>
+      <c r="I16" s="93">
+        <v>2030</v>
+      </c>
       <c r="L16">
         <f>'98 Methanol from Hydrogen'!E12/'98 Methanol from Hydrogen'!$Q$5</f>
         <v>1.0474631751227497</v>
@@ -14757,6 +15059,9 @@
       <c r="F17" t="s">
         <v>41</v>
       </c>
+      <c r="I17" s="93">
+        <v>2030</v>
+      </c>
       <c r="L17">
         <f>'98 Methanol from Hydrogen'!E13/'98 Methanol from Hydrogen'!$Q$5</f>
         <v>1.6366612111292964E-2</v>
@@ -14766,7 +15071,9 @@
       <c r="H18" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="I18" s="93"/>
+      <c r="I18" s="93">
+        <v>2030</v>
+      </c>
       <c r="M18">
         <f>SUM('98 Methanol from Hydrogen'!E17:E18)/'98 Methanol from Hydrogen'!E16</f>
         <v>0.28205128205128205</v>
@@ -14812,6 +15119,9 @@
       <c r="F20" t="s">
         <v>180</v>
       </c>
+      <c r="I20" s="93">
+        <v>2040</v>
+      </c>
       <c r="L20">
         <f>'98 Methanol from Hydrogen'!F12/'98 Methanol from Hydrogen'!$Q$5</f>
         <v>1.0474631751227497</v>
@@ -14821,6 +15131,9 @@
       <c r="F21" t="s">
         <v>41</v>
       </c>
+      <c r="I21" s="93">
+        <v>2040</v>
+      </c>
       <c r="L21">
         <f>'98 Methanol from Hydrogen'!F13/'98 Methanol from Hydrogen'!$Q$5</f>
         <v>1.6366612111292964E-2</v>
@@ -14830,6 +15143,9 @@
       <c r="H22" s="93" t="s">
         <v>160</v>
       </c>
+      <c r="I22" s="93">
+        <v>2040</v>
+      </c>
       <c r="M22">
         <f>SUM('98 Methanol from Hydrogen'!F17:F18)/'98 Methanol from Hydrogen'!F16</f>
         <v>0.28205128205128205</v>
@@ -14875,6 +15191,9 @@
       <c r="F24" t="s">
         <v>180</v>
       </c>
+      <c r="I24" s="93">
+        <v>2050</v>
+      </c>
       <c r="L24">
         <f>'98 Methanol from Hydrogen'!G12/'98 Methanol from Hydrogen'!$Q$5</f>
         <v>1.0474631751227497</v>
@@ -14884,6 +15203,9 @@
       <c r="F25" t="s">
         <v>41</v>
       </c>
+      <c r="I25" s="93">
+        <v>2050</v>
+      </c>
       <c r="L25">
         <f>'98 Methanol from Hydrogen'!G13/'98 Methanol from Hydrogen'!$Q$5</f>
         <v>1.6366612111292964E-2</v>
@@ -14892,6 +15214,9 @@
     <row r="26" spans="6:20" x14ac:dyDescent="0.25">
       <c r="H26" s="93" t="s">
         <v>160</v>
+      </c>
+      <c r="I26" s="93">
+        <v>2050</v>
       </c>
       <c r="M26">
         <f>SUM('98 Methanol from Hydrogen'!G17:G18)/'98 Methanol from Hydrogen'!G16</f>
@@ -14909,7 +15234,7 @@
   <dimension ref="F5:AI28"/>
   <sheetViews>
     <sheetView topLeftCell="E4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15146,7 +15471,7 @@
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
+      <c r="L12" s="184"/>
       <c r="M12" s="32"/>
       <c r="N12" s="32" t="s">
         <v>219</v>
@@ -15192,7 +15517,7 @@
       <c r="J13" t="s">
         <v>507</v>
       </c>
-      <c r="L13" s="106">
+      <c r="L13" s="371">
         <v>2020</v>
       </c>
       <c r="M13" s="106">
@@ -15242,7 +15567,9 @@
       <c r="H14" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="93"/>
+      <c r="L14" s="371">
+        <v>2020</v>
+      </c>
       <c r="M14" s="93"/>
       <c r="O14">
         <f>'102 Hydrogen to Jet'!B11/'102 Hydrogen to Jet'!B13</f>
@@ -15279,6 +15606,9 @@
       <c r="H15" t="s">
         <v>508</v>
       </c>
+      <c r="L15" s="371">
+        <v>2020</v>
+      </c>
       <c r="O15">
         <f>'102 Hydrogen to Jet'!B9/('102 Hydrogen to Jet'!$P$13*1000)</f>
         <v>99.953509995350998</v>
@@ -15314,7 +15644,9 @@
       <c r="K16" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="L16" s="93"/>
+      <c r="L16" s="371">
+        <v>2020</v>
+      </c>
       <c r="P16">
         <f>'102 Hydrogen to Jet'!B14/'102 Hydrogen to Jet'!B13</f>
         <v>0.38461538461538458</v>
@@ -15400,7 +15732,9 @@
       <c r="H18" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="93"/>
+      <c r="L18" s="93">
+        <v>2030</v>
+      </c>
       <c r="O18">
         <f>'102 Hydrogen to Jet'!C11/'102 Hydrogen to Jet'!C13</f>
         <v>7.1428571428571435E-3</v>
@@ -15412,6 +15746,9 @@
       <c r="H19" t="s">
         <v>508</v>
       </c>
+      <c r="L19" s="93">
+        <v>2030</v>
+      </c>
       <c r="O19">
         <f>'102 Hydrogen to Jet'!C9/('102 Hydrogen to Jet'!P13*1000)</f>
         <v>90.655509065550916</v>
@@ -15423,6 +15760,9 @@
       <c r="K20" s="93" t="s">
         <v>160</v>
       </c>
+      <c r="L20" s="93">
+        <v>2030</v>
+      </c>
       <c r="P20">
         <f>'102 Hydrogen to Jet'!C14/'102 Hydrogen to Jet'!C13</f>
         <v>0.28571428571428575</v>
@@ -15472,6 +15812,9 @@
       <c r="H22" t="s">
         <v>41</v>
       </c>
+      <c r="L22" s="93">
+        <v>2040</v>
+      </c>
       <c r="O22">
         <f>'102 Hydrogen to Jet'!D11/'102 Hydrogen to Jet'!D13</f>
         <v>6.8493150684931512E-3</v>
@@ -15481,6 +15824,9 @@
       <c r="H23" t="s">
         <v>508</v>
       </c>
+      <c r="L23" s="93">
+        <v>2040</v>
+      </c>
       <c r="O23">
         <f>'102 Hydrogen to Jet'!D9/('102 Hydrogen to Jet'!P13*1000)</f>
         <v>83.68200836820084</v>
@@ -15490,6 +15836,9 @@
       <c r="K24" s="93" t="s">
         <v>160</v>
       </c>
+      <c r="L24" s="93">
+        <v>2040</v>
+      </c>
       <c r="P24">
         <f>'102 Hydrogen to Jet'!D14/'102 Hydrogen to Jet'!D13</f>
         <v>0.23287671232876714</v>
@@ -15539,6 +15888,9 @@
       <c r="H26" t="s">
         <v>41</v>
       </c>
+      <c r="L26" s="93">
+        <v>2050</v>
+      </c>
       <c r="O26">
         <f>'102 Hydrogen to Jet'!E11/'102 Hydrogen to Jet'!E13</f>
         <v>6.6666666666666671E-3</v>
@@ -15548,6 +15900,9 @@
       <c r="H27" t="s">
         <v>508</v>
       </c>
+      <c r="L27" s="93">
+        <v>2050</v>
+      </c>
       <c r="O27">
         <f>'102 Hydrogen to Jet'!E9/('102 Hydrogen to Jet'!P13*1000)</f>
         <v>76.708507670850764</v>
@@ -15556,6 +15911,9 @@
     <row r="28" spans="8:35" x14ac:dyDescent="0.25">
       <c r="K28" s="93" t="s">
         <v>160</v>
+      </c>
+      <c r="L28" s="93">
+        <v>2050</v>
       </c>
       <c r="P28">
         <f>'102 Hydrogen to Jet'!E14/'102 Hydrogen to Jet'!E13</f>
@@ -16077,8 +16435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B37DD7-922B-4AE9-953C-BB93BD6E9F87}">
   <dimension ref="B1:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="71" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17162,7 +17520,7 @@
   </sheetPr>
   <dimension ref="A2:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="74" workbookViewId="0">
+    <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -17179,18 +17537,18 @@
       <c r="B3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="335" t="s">
+      <c r="C3" s="336" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="337"/>
+      <c r="G3" s="337"/>
+      <c r="H3" s="337"/>
+      <c r="I3" s="337"/>
+      <c r="J3" s="337"/>
+      <c r="K3" s="337"/>
+      <c r="L3" s="337"/>
     </row>
     <row r="4" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
@@ -17207,14 +17565,14 @@
       <c r="F4" s="40">
         <v>2050</v>
       </c>
-      <c r="G4" s="337" t="s">
+      <c r="G4" s="338" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="337"/>
-      <c r="I4" s="337" t="s">
+      <c r="H4" s="338"/>
+      <c r="I4" s="338" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="337"/>
+      <c r="J4" s="338"/>
       <c r="K4" s="40" t="s">
         <v>75</v>
       </c>
@@ -18272,82 +18630,82 @@
       <c r="I42" s="68"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="332"/>
-      <c r="B43" s="332"/>
-      <c r="C43" s="332"/>
-      <c r="D43" s="332"/>
-      <c r="E43" s="332"/>
-      <c r="F43" s="332"/>
-      <c r="G43" s="332"/>
-      <c r="H43" s="332"/>
-      <c r="I43" s="332"/>
+      <c r="A43" s="333"/>
+      <c r="B43" s="333"/>
+      <c r="C43" s="333"/>
+      <c r="D43" s="333"/>
+      <c r="E43" s="333"/>
+      <c r="F43" s="333"/>
+      <c r="G43" s="333"/>
+      <c r="H43" s="333"/>
+      <c r="I43" s="333"/>
       <c r="J43" s="69"/>
       <c r="K43" s="70"/>
-      <c r="L43" s="332"/>
-      <c r="M43" s="332"/>
+      <c r="L43" s="333"/>
+      <c r="M43" s="333"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="70"/>
-      <c r="C44" s="332"/>
-      <c r="D44" s="334"/>
-      <c r="E44" s="334"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
-      <c r="L44" s="332"/>
-      <c r="M44" s="332"/>
+      <c r="C44" s="333"/>
+      <c r="D44" s="335"/>
+      <c r="E44" s="335"/>
+      <c r="F44" s="335"/>
+      <c r="G44" s="335"/>
+      <c r="H44" s="335"/>
+      <c r="I44" s="335"/>
+      <c r="J44" s="335"/>
+      <c r="K44" s="335"/>
+      <c r="L44" s="333"/>
+      <c r="M44" s="333"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="71"/>
-      <c r="B45" s="332"/>
-      <c r="C45" s="334"/>
-      <c r="D45" s="334"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="334"/>
-      <c r="I45" s="334"/>
-      <c r="J45" s="334"/>
+      <c r="B45" s="333"/>
+      <c r="C45" s="335"/>
+      <c r="D45" s="335"/>
+      <c r="E45" s="335"/>
+      <c r="F45" s="335"/>
+      <c r="G45" s="335"/>
+      <c r="H45" s="335"/>
+      <c r="I45" s="335"/>
+      <c r="J45" s="335"/>
       <c r="K45" s="70"/>
-      <c r="L45" s="332"/>
-      <c r="M45" s="332"/>
+      <c r="L45" s="333"/>
+      <c r="M45" s="333"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="70"/>
-      <c r="C46" s="332"/>
-      <c r="D46" s="334"/>
-      <c r="E46" s="334"/>
-      <c r="F46" s="334"/>
-      <c r="G46" s="334"/>
-      <c r="H46" s="334"/>
-      <c r="I46" s="334"/>
-      <c r="J46" s="334"/>
-      <c r="K46" s="334"/>
-      <c r="L46" s="332"/>
-      <c r="M46" s="332"/>
+      <c r="C46" s="333"/>
+      <c r="D46" s="335"/>
+      <c r="E46" s="335"/>
+      <c r="F46" s="335"/>
+      <c r="G46" s="335"/>
+      <c r="H46" s="335"/>
+      <c r="I46" s="335"/>
+      <c r="J46" s="335"/>
+      <c r="K46" s="335"/>
+      <c r="L46" s="333"/>
+      <c r="M46" s="333"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
-      <c r="B47" s="332"/>
-      <c r="C47" s="334"/>
-      <c r="D47" s="334"/>
-      <c r="E47" s="334"/>
-      <c r="F47" s="334"/>
-      <c r="G47" s="334"/>
-      <c r="H47" s="334"/>
-      <c r="I47" s="334"/>
-      <c r="J47" s="334"/>
+      <c r="B47" s="333"/>
+      <c r="C47" s="335"/>
+      <c r="D47" s="335"/>
+      <c r="E47" s="335"/>
+      <c r="F47" s="335"/>
+      <c r="G47" s="335"/>
+      <c r="H47" s="335"/>
+      <c r="I47" s="335"/>
+      <c r="J47" s="335"/>
       <c r="K47" s="70"/>
-      <c r="L47" s="332"/>
-      <c r="M47" s="332"/>
+      <c r="L47" s="333"/>
+      <c r="M47" s="333"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="72"/>
-      <c r="L48" s="332"/>
-      <c r="M48" s="332"/>
+      <c r="L48" s="333"/>
+      <c r="M48" s="333"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="70"/>
@@ -18361,14 +18719,14 @@
       <c r="I49" s="69"/>
       <c r="J49" s="69"/>
       <c r="K49" s="70"/>
-      <c r="L49" s="332"/>
-      <c r="M49" s="332"/>
+      <c r="L49" s="333"/>
+      <c r="M49" s="333"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="333" t="s">
+      <c r="A50" s="334" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="333"/>
+      <c r="B50" s="334"/>
       <c r="C50" s="66"/>
       <c r="D50" s="66"/>
       <c r="E50" s="66"/>
@@ -18378,8 +18736,8 @@
       <c r="I50" s="66"/>
       <c r="J50" s="66"/>
       <c r="K50" s="70"/>
-      <c r="L50" s="332"/>
-      <c r="M50" s="332"/>
+      <c r="L50" s="333"/>
+      <c r="M50" s="333"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="74" t="s">
@@ -18800,18 +19158,18 @@
       <c r="D3" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="335" t="s">
+      <c r="E3" s="336" t="s">
         <v>290</v>
       </c>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
+      <c r="F3" s="337"/>
+      <c r="G3" s="337"/>
+      <c r="H3" s="337"/>
+      <c r="I3" s="337"/>
+      <c r="J3" s="337"/>
+      <c r="K3" s="337"/>
+      <c r="L3" s="337"/>
+      <c r="M3" s="337"/>
+      <c r="N3" s="337"/>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="37"/>
@@ -18828,14 +19186,14 @@
       <c r="H4" s="40">
         <v>2050</v>
       </c>
-      <c r="I4" s="337" t="s">
+      <c r="I4" s="338" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="337"/>
-      <c r="K4" s="337" t="s">
+      <c r="J4" s="338"/>
+      <c r="K4" s="338" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="337"/>
+      <c r="L4" s="338"/>
       <c r="M4" s="40" t="s">
         <v>75</v>
       </c>
@@ -19884,82 +20242,82 @@
       <c r="K42" s="68"/>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C43" s="332"/>
-      <c r="D43" s="332"/>
-      <c r="E43" s="332"/>
-      <c r="F43" s="332"/>
-      <c r="G43" s="332"/>
-      <c r="H43" s="332"/>
-      <c r="I43" s="332"/>
-      <c r="J43" s="332"/>
-      <c r="K43" s="332"/>
+      <c r="C43" s="333"/>
+      <c r="D43" s="333"/>
+      <c r="E43" s="333"/>
+      <c r="F43" s="333"/>
+      <c r="G43" s="333"/>
+      <c r="H43" s="333"/>
+      <c r="I43" s="333"/>
+      <c r="J43" s="333"/>
+      <c r="K43" s="333"/>
       <c r="L43" s="69"/>
       <c r="M43" s="70"/>
-      <c r="N43" s="332"/>
-      <c r="O43" s="332"/>
+      <c r="N43" s="333"/>
+      <c r="O43" s="333"/>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C44" s="70"/>
-      <c r="E44" s="332"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
-      <c r="L44" s="334"/>
-      <c r="M44" s="334"/>
-      <c r="N44" s="332"/>
-      <c r="O44" s="332"/>
+      <c r="E44" s="333"/>
+      <c r="F44" s="335"/>
+      <c r="G44" s="335"/>
+      <c r="H44" s="335"/>
+      <c r="I44" s="335"/>
+      <c r="J44" s="335"/>
+      <c r="K44" s="335"/>
+      <c r="L44" s="335"/>
+      <c r="M44" s="335"/>
+      <c r="N44" s="333"/>
+      <c r="O44" s="333"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C45" s="71"/>
-      <c r="D45" s="332"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="334"/>
-      <c r="I45" s="334"/>
-      <c r="J45" s="334"/>
-      <c r="K45" s="334"/>
-      <c r="L45" s="334"/>
+      <c r="D45" s="333"/>
+      <c r="E45" s="335"/>
+      <c r="F45" s="335"/>
+      <c r="G45" s="335"/>
+      <c r="H45" s="335"/>
+      <c r="I45" s="335"/>
+      <c r="J45" s="335"/>
+      <c r="K45" s="335"/>
+      <c r="L45" s="335"/>
       <c r="M45" s="70"/>
-      <c r="N45" s="332"/>
-      <c r="O45" s="332"/>
+      <c r="N45" s="333"/>
+      <c r="O45" s="333"/>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C46" s="70"/>
-      <c r="E46" s="332"/>
-      <c r="F46" s="334"/>
-      <c r="G46" s="334"/>
-      <c r="H46" s="334"/>
-      <c r="I46" s="334"/>
-      <c r="J46" s="334"/>
-      <c r="K46" s="334"/>
-      <c r="L46" s="334"/>
-      <c r="M46" s="334"/>
-      <c r="N46" s="332"/>
-      <c r="O46" s="332"/>
+      <c r="E46" s="333"/>
+      <c r="F46" s="335"/>
+      <c r="G46" s="335"/>
+      <c r="H46" s="335"/>
+      <c r="I46" s="335"/>
+      <c r="J46" s="335"/>
+      <c r="K46" s="335"/>
+      <c r="L46" s="335"/>
+      <c r="M46" s="335"/>
+      <c r="N46" s="333"/>
+      <c r="O46" s="333"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C47" s="70"/>
-      <c r="D47" s="332"/>
-      <c r="E47" s="334"/>
-      <c r="F47" s="334"/>
-      <c r="G47" s="334"/>
-      <c r="H47" s="334"/>
-      <c r="I47" s="334"/>
-      <c r="J47" s="334"/>
-      <c r="K47" s="334"/>
-      <c r="L47" s="334"/>
+      <c r="D47" s="333"/>
+      <c r="E47" s="335"/>
+      <c r="F47" s="335"/>
+      <c r="G47" s="335"/>
+      <c r="H47" s="335"/>
+      <c r="I47" s="335"/>
+      <c r="J47" s="335"/>
+      <c r="K47" s="335"/>
+      <c r="L47" s="335"/>
       <c r="M47" s="70"/>
-      <c r="N47" s="332"/>
-      <c r="O47" s="332"/>
+      <c r="N47" s="333"/>
+      <c r="O47" s="333"/>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D48" s="72"/>
-      <c r="N48" s="332"/>
-      <c r="O48" s="332"/>
+      <c r="N48" s="333"/>
+      <c r="O48" s="333"/>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C49" s="70"/>
@@ -19973,14 +20331,14 @@
       <c r="K49" s="69"/>
       <c r="L49" s="69"/>
       <c r="M49" s="70"/>
-      <c r="N49" s="332"/>
-      <c r="O49" s="332"/>
+      <c r="N49" s="333"/>
+      <c r="O49" s="333"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C50" s="333" t="s">
+      <c r="C50" s="334" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="333"/>
+      <c r="D50" s="334"/>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
       <c r="G50" s="66"/>
@@ -19990,8 +20348,8 @@
       <c r="K50" s="66"/>
       <c r="L50" s="66"/>
       <c r="M50" s="70"/>
-      <c r="N50" s="332"/>
-      <c r="O50" s="332"/>
+      <c r="N50" s="333"/>
+      <c r="O50" s="333"/>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C51" s="74" t="s">
@@ -20403,18 +20761,18 @@
       <c r="C2" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="335" t="s">
+      <c r="D2" s="336" t="s">
         <v>269</v>
       </c>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
-      <c r="K2" s="336"/>
-      <c r="L2" s="336"/>
-      <c r="M2" s="336"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="337"/>
+      <c r="K2" s="337"/>
+      <c r="L2" s="337"/>
+      <c r="M2" s="337"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
@@ -20431,14 +20789,14 @@
       <c r="G3" s="40">
         <v>2050</v>
       </c>
-      <c r="H3" s="337" t="s">
+      <c r="H3" s="338" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337" t="s">
+      <c r="I3" s="338"/>
+      <c r="J3" s="338" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="337"/>
+      <c r="K3" s="338"/>
       <c r="L3" s="40" t="s">
         <v>75</v>
       </c>
@@ -21465,82 +21823,82 @@
       <c r="J40" s="68"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="332"/>
-      <c r="C41" s="332"/>
-      <c r="D41" s="332"/>
-      <c r="E41" s="332"/>
-      <c r="F41" s="332"/>
-      <c r="G41" s="332"/>
-      <c r="H41" s="332"/>
-      <c r="I41" s="332"/>
-      <c r="J41" s="332"/>
+      <c r="B41" s="333"/>
+      <c r="C41" s="333"/>
+      <c r="D41" s="333"/>
+      <c r="E41" s="333"/>
+      <c r="F41" s="333"/>
+      <c r="G41" s="333"/>
+      <c r="H41" s="333"/>
+      <c r="I41" s="333"/>
+      <c r="J41" s="333"/>
       <c r="K41" s="69"/>
       <c r="L41" s="70"/>
-      <c r="M41" s="332"/>
-      <c r="N41" s="332"/>
+      <c r="M41" s="333"/>
+      <c r="N41" s="333"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="70"/>
-      <c r="D42" s="332"/>
-      <c r="E42" s="334"/>
-      <c r="F42" s="334"/>
-      <c r="G42" s="334"/>
-      <c r="H42" s="334"/>
-      <c r="I42" s="334"/>
-      <c r="J42" s="334"/>
-      <c r="K42" s="334"/>
-      <c r="L42" s="334"/>
-      <c r="M42" s="332"/>
-      <c r="N42" s="332"/>
+      <c r="D42" s="333"/>
+      <c r="E42" s="335"/>
+      <c r="F42" s="335"/>
+      <c r="G42" s="335"/>
+      <c r="H42" s="335"/>
+      <c r="I42" s="335"/>
+      <c r="J42" s="335"/>
+      <c r="K42" s="335"/>
+      <c r="L42" s="335"/>
+      <c r="M42" s="333"/>
+      <c r="N42" s="333"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="71"/>
-      <c r="C43" s="332"/>
-      <c r="D43" s="334"/>
-      <c r="E43" s="334"/>
-      <c r="F43" s="334"/>
-      <c r="G43" s="334"/>
-      <c r="H43" s="334"/>
-      <c r="I43" s="334"/>
-      <c r="J43" s="334"/>
-      <c r="K43" s="334"/>
+      <c r="C43" s="333"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="335"/>
+      <c r="F43" s="335"/>
+      <c r="G43" s="335"/>
+      <c r="H43" s="335"/>
+      <c r="I43" s="335"/>
+      <c r="J43" s="335"/>
+      <c r="K43" s="335"/>
       <c r="L43" s="70"/>
-      <c r="M43" s="332"/>
-      <c r="N43" s="332"/>
+      <c r="M43" s="333"/>
+      <c r="N43" s="333"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="70"/>
-      <c r="D44" s="332"/>
-      <c r="E44" s="334"/>
-      <c r="F44" s="334"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="334"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="334"/>
-      <c r="L44" s="334"/>
-      <c r="M44" s="332"/>
-      <c r="N44" s="332"/>
+      <c r="D44" s="333"/>
+      <c r="E44" s="335"/>
+      <c r="F44" s="335"/>
+      <c r="G44" s="335"/>
+      <c r="H44" s="335"/>
+      <c r="I44" s="335"/>
+      <c r="J44" s="335"/>
+      <c r="K44" s="335"/>
+      <c r="L44" s="335"/>
+      <c r="M44" s="333"/>
+      <c r="N44" s="333"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="70"/>
-      <c r="C45" s="332"/>
-      <c r="D45" s="334"/>
-      <c r="E45" s="334"/>
-      <c r="F45" s="334"/>
-      <c r="G45" s="334"/>
-      <c r="H45" s="334"/>
-      <c r="I45" s="334"/>
-      <c r="J45" s="334"/>
-      <c r="K45" s="334"/>
+      <c r="C45" s="333"/>
+      <c r="D45" s="335"/>
+      <c r="E45" s="335"/>
+      <c r="F45" s="335"/>
+      <c r="G45" s="335"/>
+      <c r="H45" s="335"/>
+      <c r="I45" s="335"/>
+      <c r="J45" s="335"/>
+      <c r="K45" s="335"/>
       <c r="L45" s="70"/>
-      <c r="M45" s="332"/>
-      <c r="N45" s="332"/>
+      <c r="M45" s="333"/>
+      <c r="N45" s="333"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C46" s="72"/>
-      <c r="M46" s="332"/>
-      <c r="N46" s="332"/>
+      <c r="M46" s="333"/>
+      <c r="N46" s="333"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="70"/>
@@ -21554,14 +21912,14 @@
       <c r="J47" s="69"/>
       <c r="K47" s="69"/>
       <c r="L47" s="70"/>
-      <c r="M47" s="332"/>
-      <c r="N47" s="332"/>
+      <c r="M47" s="333"/>
+      <c r="N47" s="333"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="333" t="s">
+      <c r="B48" s="334" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="333"/>
+      <c r="C48" s="334"/>
       <c r="D48" s="66"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
@@ -21571,8 +21929,8 @@
       <c r="J48" s="66"/>
       <c r="K48" s="66"/>
       <c r="L48" s="70"/>
-      <c r="M48" s="332"/>
-      <c r="N48" s="332"/>
+      <c r="M48" s="333"/>
+      <c r="N48" s="333"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="74" t="s">
@@ -21866,18 +22224,18 @@
       <c r="B3" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="338" t="s">
+      <c r="C3" s="339" t="s">
         <v>368</v>
       </c>
-      <c r="D3" s="338"/>
-      <c r="E3" s="338"/>
-      <c r="F3" s="338"/>
-      <c r="G3" s="338"/>
-      <c r="H3" s="338"/>
-      <c r="I3" s="338"/>
-      <c r="J3" s="338"/>
-      <c r="K3" s="338"/>
-      <c r="L3" s="338"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="339"/>
+      <c r="F3" s="339"/>
+      <c r="G3" s="339"/>
+      <c r="H3" s="339"/>
+      <c r="I3" s="339"/>
+      <c r="J3" s="339"/>
+      <c r="K3" s="339"/>
+      <c r="L3" s="339"/>
     </row>
     <row r="4" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="153" t="s">
@@ -23666,19 +24024,19 @@
       <c r="B2" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="339" t="s">
+      <c r="C2" s="340" t="s">
         <v>391</v>
       </c>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340"/>
-      <c r="F2" s="340"/>
-      <c r="G2" s="340"/>
-      <c r="H2" s="340"/>
-      <c r="I2" s="340"/>
-      <c r="J2" s="340"/>
-      <c r="K2" s="340"/>
-      <c r="L2" s="340"/>
-      <c r="M2" s="340"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="341"/>
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341"/>
+      <c r="K2" s="341"/>
+      <c r="L2" s="341"/>
+      <c r="M2" s="341"/>
     </row>
     <row r="3" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="153" t="s">
@@ -25578,18 +25936,18 @@
       <c r="A1" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="341" t="s">
+      <c r="B1" s="342" t="s">
         <v>429</v>
       </c>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342"/>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="343"/>
+      <c r="G1" s="343"/>
+      <c r="H1" s="343"/>
+      <c r="I1" s="343"/>
+      <c r="J1" s="343"/>
+      <c r="K1" s="343"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="134" t="s">
@@ -26913,8 +27271,8 @@
   </sheetPr>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28392,88 +28750,88 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="103"/>
-      <c r="N1" s="343" t="s">
+      <c r="N1" s="344" t="s">
         <v>526</v>
       </c>
-      <c r="O1" s="345" t="s">
+      <c r="O1" s="346" t="s">
         <v>527</v>
       </c>
-      <c r="P1" s="345"/>
-      <c r="Q1" s="345"/>
-      <c r="R1" s="345"/>
-      <c r="S1" s="345"/>
-      <c r="T1" s="345"/>
-      <c r="U1" s="345"/>
-      <c r="V1" s="345"/>
-      <c r="W1" s="345"/>
-      <c r="X1" s="345"/>
-      <c r="Y1" s="345"/>
-      <c r="Z1" s="346"/>
+      <c r="P1" s="346"/>
+      <c r="Q1" s="346"/>
+      <c r="R1" s="346"/>
+      <c r="S1" s="346"/>
+      <c r="T1" s="346"/>
+      <c r="U1" s="346"/>
+      <c r="V1" s="346"/>
+      <c r="W1" s="346"/>
+      <c r="X1" s="346"/>
+      <c r="Y1" s="346"/>
+      <c r="Z1" s="347"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="249" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="347" t="s">
+      <c r="B2" s="348" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
-      <c r="J2" s="348"/>
-      <c r="K2" s="349"/>
-      <c r="N2" s="344"/>
-      <c r="O2" s="350" t="s">
+      <c r="C2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="349"/>
+      <c r="H2" s="349"/>
+      <c r="I2" s="349"/>
+      <c r="J2" s="349"/>
+      <c r="K2" s="350"/>
+      <c r="N2" s="345"/>
+      <c r="O2" s="351" t="s">
         <v>529</v>
       </c>
-      <c r="P2" s="351"/>
-      <c r="Q2" s="351"/>
-      <c r="R2" s="352"/>
-      <c r="S2" s="351" t="s">
+      <c r="P2" s="352"/>
+      <c r="Q2" s="352"/>
+      <c r="R2" s="353"/>
+      <c r="S2" s="352" t="s">
         <v>530</v>
       </c>
-      <c r="T2" s="351"/>
-      <c r="U2" s="351"/>
-      <c r="V2" s="351"/>
-      <c r="W2" s="350" t="s">
+      <c r="T2" s="352"/>
+      <c r="U2" s="352"/>
+      <c r="V2" s="352"/>
+      <c r="W2" s="351" t="s">
         <v>531</v>
       </c>
-      <c r="X2" s="351"/>
-      <c r="Y2" s="351"/>
-      <c r="Z2" s="353"/>
+      <c r="X2" s="352"/>
+      <c r="Y2" s="352"/>
+      <c r="Z2" s="354"/>
     </row>
     <row r="3" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="355" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="356">
+      <c r="B3" s="357">
         <v>2020</v>
       </c>
-      <c r="C3" s="356">
+      <c r="C3" s="357">
         <v>2030</v>
       </c>
-      <c r="D3" s="356">
+      <c r="D3" s="357">
         <v>2040</v>
       </c>
-      <c r="E3" s="356">
+      <c r="E3" s="357">
         <v>2050</v>
       </c>
-      <c r="F3" s="369">
+      <c r="F3" s="370">
         <v>2030</v>
       </c>
-      <c r="G3" s="359"/>
-      <c r="H3" s="358">
+      <c r="G3" s="360"/>
+      <c r="H3" s="359">
         <v>2050</v>
       </c>
-      <c r="I3" s="359"/>
-      <c r="J3" s="356" t="s">
+      <c r="I3" s="360"/>
+      <c r="J3" s="357" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="356" t="s">
+      <c r="K3" s="357" t="s">
         <v>76</v>
       </c>
       <c r="N3" s="250" t="s">
@@ -28517,11 +28875,11 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="355"/>
-      <c r="B4" s="357"/>
-      <c r="C4" s="357"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
+      <c r="A4" s="356"/>
+      <c r="B4" s="358"/>
+      <c r="C4" s="358"/>
+      <c r="D4" s="358"/>
+      <c r="E4" s="358"/>
       <c r="F4" s="253" t="s">
         <v>78</v>
       </c>
@@ -28534,8 +28892,8 @@
       <c r="I4" s="253" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="357"/>
-      <c r="K4" s="357"/>
+      <c r="J4" s="358"/>
+      <c r="K4" s="358"/>
       <c r="N4" s="254" t="s">
         <v>537</v>
       </c>
@@ -29222,12 +29580,12 @@
       <c r="A18" s="262" t="s">
         <v>556</v>
       </c>
-      <c r="B18" s="360" t="s">
+      <c r="B18" s="361" t="s">
         <v>557</v>
       </c>
-      <c r="C18" s="361"/>
-      <c r="D18" s="361"/>
-      <c r="E18" s="362"/>
+      <c r="C18" s="362"/>
+      <c r="D18" s="362"/>
+      <c r="E18" s="363"/>
       <c r="F18" s="286"/>
       <c r="G18" s="286"/>
       <c r="H18" s="286"/>
@@ -29239,10 +29597,10 @@
       <c r="A19" s="262" t="s">
         <v>558</v>
       </c>
-      <c r="B19" s="363"/>
-      <c r="C19" s="364"/>
-      <c r="D19" s="364"/>
-      <c r="E19" s="365"/>
+      <c r="B19" s="364"/>
+      <c r="C19" s="365"/>
+      <c r="D19" s="365"/>
+      <c r="E19" s="366"/>
       <c r="F19" s="286"/>
       <c r="G19" s="286"/>
       <c r="H19" s="286"/>
@@ -29254,10 +29612,10 @@
       <c r="A20" s="262" t="s">
         <v>559</v>
       </c>
-      <c r="B20" s="363"/>
-      <c r="C20" s="364"/>
-      <c r="D20" s="364"/>
-      <c r="E20" s="365"/>
+      <c r="B20" s="364"/>
+      <c r="C20" s="365"/>
+      <c r="D20" s="365"/>
+      <c r="E20" s="366"/>
       <c r="F20" s="286"/>
       <c r="G20" s="286"/>
       <c r="H20" s="286"/>
@@ -29269,10 +29627,10 @@
       <c r="A21" s="262" t="s">
         <v>560</v>
       </c>
-      <c r="B21" s="363"/>
-      <c r="C21" s="364"/>
-      <c r="D21" s="364"/>
-      <c r="E21" s="365"/>
+      <c r="B21" s="364"/>
+      <c r="C21" s="365"/>
+      <c r="D21" s="365"/>
+      <c r="E21" s="366"/>
       <c r="F21" s="286"/>
       <c r="G21" s="286"/>
       <c r="H21" s="286"/>
@@ -29284,10 +29642,10 @@
       <c r="A22" s="287" t="s">
         <v>561</v>
       </c>
-      <c r="B22" s="363"/>
-      <c r="C22" s="364"/>
-      <c r="D22" s="364"/>
-      <c r="E22" s="365"/>
+      <c r="B22" s="364"/>
+      <c r="C22" s="365"/>
+      <c r="D22" s="365"/>
+      <c r="E22" s="366"/>
       <c r="F22" s="259"/>
       <c r="G22" s="259"/>
       <c r="H22" s="259"/>
@@ -29632,12 +29990,12 @@
       <c r="A38" s="262" t="s">
         <v>577</v>
       </c>
-      <c r="B38" s="366" t="s">
+      <c r="B38" s="367" t="s">
         <v>557</v>
       </c>
-      <c r="C38" s="367"/>
-      <c r="D38" s="367"/>
-      <c r="E38" s="368"/>
+      <c r="C38" s="368"/>
+      <c r="D38" s="368"/>
+      <c r="E38" s="369"/>
       <c r="F38" s="286"/>
       <c r="G38" s="286"/>
       <c r="H38" s="286"/>
@@ -29954,7 +30312,7 @@
   <dimension ref="B1:W33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -30295,8 +30653,8 @@
         <v>1</v>
       </c>
       <c r="H10" s="16">
-        <f>'21 Offshore turbines'!D19*1000</f>
-        <v>1880</v>
+        <f>'21 Offshore turbines'!D19*1000+'21 Offshore turbines'!AF11</f>
+        <v>1960.3523554193796</v>
       </c>
       <c r="I10" s="16">
         <f>'21 Offshore turbines'!D27/1000</f>
@@ -30348,8 +30706,8 @@
         <v>1</v>
       </c>
       <c r="H11" s="16">
-        <f>'21 Offshore turbines'!E19*1000</f>
-        <v>1800</v>
+        <f>'21 Offshore turbines'!E19*1000+'21 Offshore turbines'!AF11</f>
+        <v>1880.3523554193796</v>
       </c>
       <c r="I11" s="16">
         <f>'21 Offshore turbines'!E27/1000</f>
@@ -30401,8 +30759,8 @@
         <v>1</v>
       </c>
       <c r="H12" s="16">
-        <f>'21 Offshore turbines'!F19*1000</f>
-        <v>1680</v>
+        <f>'21 Offshore turbines'!F19*1000+'21 Offshore turbines'!AF11</f>
+        <v>1760.3523554193796</v>
       </c>
       <c r="I12" s="16">
         <f>'21 Offshore turbines'!F27/1000</f>
@@ -30440,8 +30798,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="16">
-        <f>'21 Offshore turbines'!G19*1000</f>
-        <v>1640</v>
+        <f>'21 Offshore turbines'!G19*1000+'21 Offshore turbines'!AF11</f>
+        <v>1720.3523554193796</v>
       </c>
       <c r="I13" s="16">
         <f>'21 Offshore turbines'!G27/1000</f>
@@ -30690,10 +31048,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:AI149"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A10" zoomScale="65" workbookViewId="0">
+      <selection activeCell="AT39" sqref="AT39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -30702,7 +31060,7 @@
     <col min="2" max="2" width="96.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="118" t="s">
         <v>71</v>
       </c>
@@ -30721,7 +31079,7 @@
       <c r="L1" s="119"/>
       <c r="M1" s="119"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="120" t="s">
         <v>299</v>
       </c>
@@ -30759,8 +31117,26 @@
       <c r="M2" s="119" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="332"/>
+      <c r="S2" s="332"/>
+      <c r="T2" s="332"/>
+      <c r="U2" s="332"/>
+      <c r="V2" s="332"/>
+      <c r="W2" s="332"/>
+      <c r="X2" s="332"/>
+      <c r="Y2" s="332"/>
+      <c r="Z2" s="332"/>
+      <c r="AA2" s="332"/>
+      <c r="AB2" s="332"/>
+      <c r="AC2" s="332"/>
+      <c r="AD2" s="332"/>
+      <c r="AE2" s="332"/>
+      <c r="AF2" s="332"/>
+      <c r="AG2" s="332"/>
+      <c r="AH2" s="332"/>
+      <c r="AI2" s="332"/>
+    </row>
+    <row r="3" spans="1:35" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="121" t="s">
         <v>300</v>
       </c>
@@ -30798,8 +31174,28 @@
       <c r="M3" s="122" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R3" s="332"/>
+      <c r="S3" s="332" t="s">
+        <v>631</v>
+      </c>
+      <c r="T3" s="332"/>
+      <c r="U3" s="332"/>
+      <c r="V3" s="332"/>
+      <c r="W3" s="332"/>
+      <c r="X3" s="332"/>
+      <c r="Y3" s="332"/>
+      <c r="Z3" s="332"/>
+      <c r="AA3" s="332"/>
+      <c r="AB3" s="332"/>
+      <c r="AC3" s="332"/>
+      <c r="AD3" s="332"/>
+      <c r="AE3" s="332"/>
+      <c r="AF3" s="332"/>
+      <c r="AG3" s="332"/>
+      <c r="AH3" s="332"/>
+      <c r="AI3" s="332"/>
+    </row>
+    <row r="4" spans="1:35" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="120" t="s">
         <v>304</v>
       </c>
@@ -30817,8 +31213,26 @@
       <c r="K4" s="119"/>
       <c r="L4" s="119"/>
       <c r="M4" s="119"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R4" s="332"/>
+      <c r="S4" s="332"/>
+      <c r="T4" s="332"/>
+      <c r="U4" s="332"/>
+      <c r="V4" s="332"/>
+      <c r="W4" s="332"/>
+      <c r="X4" s="332"/>
+      <c r="Y4" s="332"/>
+      <c r="Z4" s="332"/>
+      <c r="AA4" s="332"/>
+      <c r="AB4" s="332"/>
+      <c r="AC4" s="332"/>
+      <c r="AD4" s="332"/>
+      <c r="AE4" s="332"/>
+      <c r="AF4" s="332"/>
+      <c r="AG4" s="332"/>
+      <c r="AH4" s="332"/>
+      <c r="AI4" s="332"/>
+    </row>
+    <row r="5" spans="1:35" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="123" t="s">
         <v>77</v>
       </c>
@@ -30833,8 +31247,28 @@
       <c r="K5" s="124"/>
       <c r="L5" s="124"/>
       <c r="M5" s="124"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R5" s="332"/>
+      <c r="S5" s="332" t="s">
+        <v>632</v>
+      </c>
+      <c r="T5" s="332"/>
+      <c r="U5" s="332"/>
+      <c r="V5" s="332"/>
+      <c r="W5" s="332"/>
+      <c r="X5" s="332"/>
+      <c r="Y5" s="332"/>
+      <c r="Z5" s="332"/>
+      <c r="AA5" s="332"/>
+      <c r="AB5" s="332"/>
+      <c r="AC5" s="332"/>
+      <c r="AD5" s="332"/>
+      <c r="AE5" s="332"/>
+      <c r="AF5" s="332"/>
+      <c r="AG5" s="332"/>
+      <c r="AH5" s="332"/>
+      <c r="AI5" s="332"/>
+    </row>
+    <row r="6" spans="1:35" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="123"/>
       <c r="B6" t="s">
         <v>306</v>
@@ -30872,8 +31306,26 @@
       <c r="M6" s="124" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R6" s="332"/>
+      <c r="S6" s="332"/>
+      <c r="T6" s="332"/>
+      <c r="U6" s="332"/>
+      <c r="V6" s="332"/>
+      <c r="W6" s="332"/>
+      <c r="X6" s="332"/>
+      <c r="Y6" s="332"/>
+      <c r="Z6" s="332"/>
+      <c r="AA6" s="332"/>
+      <c r="AB6" s="332"/>
+      <c r="AC6" s="332"/>
+      <c r="AD6" s="332"/>
+      <c r="AE6" s="332"/>
+      <c r="AF6" s="332"/>
+      <c r="AG6" s="332"/>
+      <c r="AH6" s="332"/>
+      <c r="AI6" s="332"/>
+    </row>
+    <row r="7" spans="1:35" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="125"/>
       <c r="B7" s="125" t="s">
         <v>308</v>
@@ -30909,8 +31361,34 @@
         <v>88</v>
       </c>
       <c r="M7" s="124"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R7" s="332"/>
+      <c r="S7" s="332"/>
+      <c r="T7" s="332"/>
+      <c r="U7" s="332"/>
+      <c r="V7" s="332"/>
+      <c r="W7" s="332"/>
+      <c r="X7" s="332"/>
+      <c r="Y7" s="332"/>
+      <c r="Z7" s="332"/>
+      <c r="AA7" s="332"/>
+      <c r="AB7" s="332">
+        <v>1049</v>
+      </c>
+      <c r="AC7" s="332" t="s">
+        <v>633</v>
+      </c>
+      <c r="AD7" s="332"/>
+      <c r="AE7" s="332"/>
+      <c r="AF7" s="332">
+        <v>7.46</v>
+      </c>
+      <c r="AG7" s="332" t="s">
+        <v>634</v>
+      </c>
+      <c r="AH7" s="332"/>
+      <c r="AI7" s="332"/>
+    </row>
+    <row r="8" spans="1:35" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="123"/>
       <c r="B8" t="s">
         <v>309</v>
@@ -30946,8 +31424,26 @@
         <v>88</v>
       </c>
       <c r="M8" s="124"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R8" s="332"/>
+      <c r="S8" s="332"/>
+      <c r="T8" s="332"/>
+      <c r="U8" s="332"/>
+      <c r="V8" s="332"/>
+      <c r="W8" s="332"/>
+      <c r="X8" s="332"/>
+      <c r="Y8" s="332"/>
+      <c r="Z8" s="332"/>
+      <c r="AA8" s="332"/>
+      <c r="AB8" s="332"/>
+      <c r="AC8" s="332"/>
+      <c r="AD8" s="332"/>
+      <c r="AE8" s="332"/>
+      <c r="AF8" s="332"/>
+      <c r="AG8" s="332"/>
+      <c r="AH8" s="332"/>
+      <c r="AI8" s="332"/>
+    </row>
+    <row r="9" spans="1:35" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="123"/>
       <c r="B9" t="s">
         <v>310</v>
@@ -30983,8 +31479,31 @@
         <v>67</v>
       </c>
       <c r="M9" s="124"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R9" s="332"/>
+      <c r="S9" s="332"/>
+      <c r="T9" s="332"/>
+      <c r="U9" s="332"/>
+      <c r="V9" s="332"/>
+      <c r="W9" s="332"/>
+      <c r="X9" s="332"/>
+      <c r="Y9" s="332"/>
+      <c r="Z9" s="332"/>
+      <c r="AA9" s="332"/>
+      <c r="AB9" s="332">
+        <f>AB7/AF7</f>
+        <v>140.6166219839142</v>
+      </c>
+      <c r="AC9" s="332" t="s">
+        <v>635</v>
+      </c>
+      <c r="AD9" s="332"/>
+      <c r="AE9" s="332"/>
+      <c r="AF9" s="332"/>
+      <c r="AG9" s="332"/>
+      <c r="AH9" s="332"/>
+      <c r="AI9" s="332"/>
+    </row>
+    <row r="10" spans="1:35" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="123"/>
       <c r="B10" t="s">
         <v>311</v>
@@ -31020,8 +31539,26 @@
         <v>128</v>
       </c>
       <c r="M10" s="124"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R10" s="332"/>
+      <c r="S10" s="332"/>
+      <c r="T10" s="332"/>
+      <c r="U10" s="332"/>
+      <c r="V10" s="332"/>
+      <c r="W10" s="332"/>
+      <c r="X10" s="332"/>
+      <c r="Y10" s="332"/>
+      <c r="Z10" s="332"/>
+      <c r="AA10" s="332"/>
+      <c r="AB10" s="332"/>
+      <c r="AC10" s="332"/>
+      <c r="AD10" s="332"/>
+      <c r="AE10" s="332"/>
+      <c r="AF10" s="332"/>
+      <c r="AG10" s="332"/>
+      <c r="AH10" s="332"/>
+      <c r="AI10" s="332"/>
+    </row>
+    <row r="11" spans="1:35" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="123"/>
       <c r="B11" t="s">
         <v>312</v>
@@ -31059,8 +31596,33 @@
       <c r="M11" s="124" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R11" s="332"/>
+      <c r="S11" s="332"/>
+      <c r="T11" s="332"/>
+      <c r="U11" s="332"/>
+      <c r="V11" s="332"/>
+      <c r="W11" s="332"/>
+      <c r="X11" s="332"/>
+      <c r="Y11" s="332"/>
+      <c r="Z11" s="332"/>
+      <c r="AA11" s="332"/>
+      <c r="AB11" s="332"/>
+      <c r="AC11" s="332"/>
+      <c r="AD11" s="332" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE11" s="332"/>
+      <c r="AF11" s="332">
+        <f>AB9*4/7</f>
+        <v>80.352355419379549</v>
+      </c>
+      <c r="AG11" s="332" t="s">
+        <v>637</v>
+      </c>
+      <c r="AH11" s="332"/>
+      <c r="AI11" s="332"/>
+    </row>
+    <row r="12" spans="1:35" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="123" t="s">
         <v>314</v>
       </c>
@@ -31075,8 +31637,26 @@
       <c r="K12" s="124"/>
       <c r="L12" s="124"/>
       <c r="M12" s="124"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R12" s="332"/>
+      <c r="S12" s="332"/>
+      <c r="T12" s="332"/>
+      <c r="U12" s="332"/>
+      <c r="V12" s="332"/>
+      <c r="W12" s="332"/>
+      <c r="X12" s="332"/>
+      <c r="Y12" s="332"/>
+      <c r="Z12" s="332"/>
+      <c r="AA12" s="332"/>
+      <c r="AB12" s="332"/>
+      <c r="AC12" s="332"/>
+      <c r="AD12" s="332"/>
+      <c r="AE12" s="332"/>
+      <c r="AF12" s="332"/>
+      <c r="AG12" s="332"/>
+      <c r="AH12" s="332"/>
+      <c r="AI12" s="332"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="125"/>
       <c r="B13" s="125" t="s">
         <v>315</v>
@@ -31093,7 +31673,7 @@
       <c r="L13" s="124"/>
       <c r="M13" s="124"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="125"/>
       <c r="B14" s="125" t="s">
         <v>316</v>
@@ -31110,7 +31690,7 @@
       <c r="L14" s="124"/>
       <c r="M14" s="124"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="125"/>
       <c r="B15" s="125" t="s">
         <v>317</v>
@@ -31127,7 +31707,7 @@
       <c r="L15" s="124"/>
       <c r="M15" s="124"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="123"/>
       <c r="B16" t="s">
         <v>318</v>
@@ -32132,6 +32712,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33437,8 +34018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC11C7B-99A6-4A58-B6CE-072D4A78BD7D}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A3" zoomScale="73" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33884,7 +34465,9 @@
       <c r="F15" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="93"/>
+      <c r="G15" s="93">
+        <v>2020</v>
+      </c>
       <c r="H15" s="93"/>
       <c r="I15" s="132" t="s">
         <v>161</v>
@@ -33997,6 +34580,9 @@
       <c r="F17" s="93" t="s">
         <v>160</v>
       </c>
+      <c r="G17">
+        <v>2030</v>
+      </c>
       <c r="I17" s="94"/>
       <c r="J17" s="12">
         <v>0.16615961596159623</v>
@@ -34056,6 +34642,9 @@
       <c r="E19" s="93"/>
       <c r="F19" s="93" t="s">
         <v>160</v>
+      </c>
+      <c r="G19">
+        <v>2040</v>
       </c>
       <c r="I19" s="94"/>
       <c r="J19" s="12">
@@ -34127,7 +34716,9 @@
       <c r="F21" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21">
+        <v>2050</v>
+      </c>
       <c r="H21" s="16"/>
       <c r="I21" s="94"/>
       <c r="J21" s="26">
@@ -34165,7 +34756,7 @@
         <v>156</v>
       </c>
       <c r="F22" s="180"/>
-      <c r="G22" s="106">
+      <c r="G22" s="93">
         <v>2020</v>
       </c>
       <c r="H22" s="106">
@@ -34216,7 +34807,9 @@
       <c r="F23" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="G23" s="93"/>
+      <c r="G23" s="93">
+        <v>2020</v>
+      </c>
       <c r="H23" s="93"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26">
@@ -34298,6 +34891,9 @@
       <c r="F25" s="16" t="s">
         <v>160</v>
       </c>
+      <c r="G25">
+        <v>2030</v>
+      </c>
       <c r="I25" s="26"/>
       <c r="J25" s="26">
         <v>0.19571257125712563</v>
@@ -34377,6 +34973,9 @@
       <c r="F27" s="16" t="s">
         <v>160</v>
       </c>
+      <c r="G27">
+        <v>2040</v>
+      </c>
       <c r="I27" s="26"/>
       <c r="J27" s="26">
         <v>0.16615961596159623</v>
@@ -34450,7 +35049,9 @@
       <c r="F29" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="G29" s="16"/>
+      <c r="G29">
+        <v>2050</v>
+      </c>
       <c r="H29" s="16"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26">
@@ -34485,7 +35086,7 @@
         <v>156</v>
       </c>
       <c r="F30" s="106"/>
-      <c r="G30" s="106">
+      <c r="G30" s="93">
         <v>2020</v>
       </c>
       <c r="H30" s="180">
@@ -34532,7 +35133,9 @@
       <c r="F31" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="93"/>
+      <c r="G31" s="93">
+        <v>2020</v>
+      </c>
       <c r="H31" s="16"/>
       <c r="I31" s="16" t="s">
         <v>161</v>
@@ -34610,6 +35213,9 @@
       <c r="F33" s="93" t="s">
         <v>160</v>
       </c>
+      <c r="G33">
+        <v>2030</v>
+      </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16">
@@ -34684,6 +35290,9 @@
       <c r="F35" s="93" t="s">
         <v>160</v>
       </c>
+      <c r="G35">
+        <v>2040</v>
+      </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16">
@@ -34758,7 +35367,9 @@
       <c r="F37" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="16"/>
+      <c r="G37">
+        <v>2050</v>
+      </c>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16">
@@ -35155,8 +35766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E84244A-CC67-473B-8C74-2375AA9B644D}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="B1" zoomScale="71" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -35518,7 +36129,7 @@
         <v>212</v>
       </c>
       <c r="G14" s="106"/>
-      <c r="H14" s="106">
+      <c r="H14" s="93">
         <v>2020</v>
       </c>
       <c r="I14" s="106">
@@ -35589,7 +36200,9 @@
       <c r="G15" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="H15" s="93"/>
+      <c r="H15" s="93">
+        <v>2020</v>
+      </c>
       <c r="I15" s="93"/>
       <c r="J15" s="96"/>
       <c r="K15" s="96">
@@ -35617,7 +36230,7 @@
         <v>212</v>
       </c>
       <c r="G16" s="93"/>
-      <c r="H16" s="93">
+      <c r="H16">
         <v>2030</v>
       </c>
       <c r="J16" s="183">
@@ -35662,7 +36275,9 @@
       <c r="G17" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="93"/>
+      <c r="H17">
+        <v>2030</v>
+      </c>
       <c r="J17" s="183"/>
       <c r="K17" s="183">
         <f>K15</f>
@@ -35693,7 +36308,7 @@
         <v>AMM</v>
       </c>
       <c r="G18" s="93"/>
-      <c r="H18" s="93">
+      <c r="H18">
         <v>2040</v>
       </c>
       <c r="J18" s="183">
@@ -35740,7 +36355,9 @@
       <c r="G19" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="H19" s="93"/>
+      <c r="H19">
+        <v>2040</v>
+      </c>
       <c r="J19" s="183"/>
       <c r="K19" s="183">
         <f>K17</f>
@@ -35772,7 +36389,7 @@
         <v>AMM</v>
       </c>
       <c r="G20" s="93"/>
-      <c r="H20" s="93">
+      <c r="H20">
         <v>2050</v>
       </c>
       <c r="J20" s="183">
@@ -35819,6 +36436,9 @@
       <c r="F21" s="93"/>
       <c r="G21" s="93" t="s">
         <v>160</v>
+      </c>
+      <c r="H21">
+        <v>2050</v>
       </c>
       <c r="J21" s="183"/>
       <c r="K21" s="183">
@@ -36033,7 +36653,7 @@
   <dimension ref="D5:AG20"/>
   <sheetViews>
     <sheetView topLeftCell="B3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -36295,7 +36915,7 @@
         <v>592</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>220</v>
+        <v>592</v>
       </c>
       <c r="O12" s="32" t="s">
         <v>221</v>
@@ -36381,7 +37001,9 @@
       <c r="I14" s="93" t="s">
         <v>521</v>
       </c>
-      <c r="J14" s="93"/>
+      <c r="J14" s="371">
+        <v>2025</v>
+      </c>
       <c r="K14" s="93"/>
       <c r="M14">
         <f>'403.b Solid Direct air capture'!C10*1000*0.0000036</f>
@@ -36485,7 +37107,9 @@
       <c r="I16" s="93" t="s">
         <v>521</v>
       </c>
-      <c r="J16" s="93"/>
+      <c r="J16" s="93">
+        <v>2030</v>
+      </c>
       <c r="M16">
         <f>'403.b Solid Direct air capture'!D10*1000*0.0000036</f>
         <v>5.3999999999999994E-3</v>
@@ -36574,7 +37198,9 @@
       <c r="I18" s="93" t="s">
         <v>521</v>
       </c>
-      <c r="J18" s="93"/>
+      <c r="J18" s="93">
+        <v>2040</v>
+      </c>
       <c r="M18">
         <f>'403.b Solid Direct air capture'!E10*1000*0.0000036</f>
         <v>4.6296000000000002E-3</v>
@@ -36628,6 +37254,9 @@
       </c>
       <c r="I20" s="93" t="s">
         <v>521</v>
+      </c>
+      <c r="J20" s="93">
+        <v>2050</v>
       </c>
       <c r="M20">
         <f>'403.b Solid Direct air capture'!F10*1000*0.0000036</f>
